--- a/AAII_Financials/Quarterly/AAN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AAN_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
   <si>
     <t>AAN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,231 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1101300</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1003600</v>
+      </c>
+      <c r="F8" s="3">
         <v>963800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>968100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>1012100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>993200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>953100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>927900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>954800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>884600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>838900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>815600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>844600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>795000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>769000</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>30400</v>
+      </c>
+      <c r="E9" s="3">
+        <v>34200</v>
+      </c>
+      <c r="F9" s="3">
         <v>30700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>34600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>37800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>49000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>40100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>51200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>53700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>70600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>55100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>65800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>67500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>84500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>64400</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1070900</v>
+      </c>
+      <c r="E10" s="3">
+        <v>969400</v>
+      </c>
+      <c r="F10" s="3">
         <v>933100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>933500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>974300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>944200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>913000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>876700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>901100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>814000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>783800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>749800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>777100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>710500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>704600</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,8 +906,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -925,8 +952,14 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,96 +1002,114 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>467700</v>
+      </c>
+      <c r="E14" s="3">
+        <v>179400</v>
+      </c>
+      <c r="F14" s="3">
         <v>4500</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>18700</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>13300</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>1800</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>500</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>19200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>3400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>2800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>13400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>300</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>15600</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>604800</v>
+      </c>
+      <c r="E15" s="3">
+        <v>515200</v>
+      </c>
+      <c r="F15" s="3">
         <v>497100</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>484700</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>510800</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>447100</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>443400</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>415400</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>440000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>375700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>365600</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>345400</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>362000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>316900</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>317100</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1123,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1510200</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1086900</v>
+      </c>
+      <c r="F17" s="3">
         <v>908300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>908300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>938200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>904900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>895800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>874000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>884700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>820100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>796200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>754600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>758100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>757200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>718200</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-408900</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-83300</v>
+      </c>
+      <c r="F18" s="3">
         <v>55500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>59800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>73900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>88300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>57300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>53900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>70100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>64500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>42700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>61000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>86500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>37800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>50800</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,228 +1243,260 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F20" s="3">
         <v>200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>1300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>1400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-1700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>1000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>1200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>1600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>1900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>212000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>450800</v>
+      </c>
+      <c r="F21" s="3">
         <v>570400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>563300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>602600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>549900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>515900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>491700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>533200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>462200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>430500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>427600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>471100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>375400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>388800</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E22" s="3">
+        <v>3700</v>
+      </c>
+      <c r="F22" s="3">
         <v>4000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>4300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>5000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>4600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>3700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>3800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>4300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>4500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>4700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>5600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>5800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>5400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-414500</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-86000</v>
+      </c>
+      <c r="F23" s="3">
         <v>51700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>56800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>70300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>82100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>53400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>50000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>66800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>60700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>39200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>57000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>82600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>32300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>45300</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-100200</v>
+      </c>
+      <c r="E24" s="3">
+        <v>21100</v>
+      </c>
+      <c r="F24" s="3">
         <v>11900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>14200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>14200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>18500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>12200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>11500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>14300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>20200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>13900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>20700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>29300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>10700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>15800</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1539,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-314200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-107100</v>
+      </c>
+      <c r="F26" s="3">
         <v>39800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>42700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>56100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>63500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>41200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>38500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>52400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>40600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>25300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>36300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>53300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>21600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>29500</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-314200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-107100</v>
+      </c>
+      <c r="F27" s="3">
         <v>39800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>42700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>56100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>63500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>41200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>38500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>52400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>40600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>25300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>36300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>53300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>21600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>29500</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,13 +1689,19 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>34200</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>8</v>
@@ -1588,26 +1709,26 @@
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I29" s="3">
         <v>-1800</v>
       </c>
-      <c r="H29" s="3">
+      <c r="J29" s="3">
         <v>2500</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>-200</v>
       </c>
-      <c r="K29" s="3">
+      <c r="M29" s="3">
         <v>137000</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -1618,8 +1739,14 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1839,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-1300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-1400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>1700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-1000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-1200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-1600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-1900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-280000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-107100</v>
+      </c>
+      <c r="F33" s="3">
         <v>39800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>42700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>56100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>61700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>43700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>38500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>52200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>177600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>25300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>36300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>53300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>21600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>29500</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1989,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-280000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-107100</v>
+      </c>
+      <c r="F35" s="3">
         <v>39800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>42700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>56100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>61700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>43700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>38500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>52200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>177600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>25300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>36300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>53300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>21600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>29500</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,52 +2138,60 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>551000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>57800</v>
+      </c>
+      <c r="F41" s="3">
         <v>150300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>100200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>124200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>15300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>35000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>94300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>189400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>51000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>126300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>260300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>348500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>308600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>319500</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,52 +2234,64 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>87400</v>
+      </c>
+      <c r="E43" s="3">
+        <v>104200</v>
+      </c>
+      <c r="F43" s="3">
         <v>93100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>85300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>84000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>98200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>92300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>84300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>81400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>99900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>92200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>84800</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>93700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>95800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>86800</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,52 +2334,64 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>65800</v>
+      </c>
+      <c r="E45" s="3">
+        <v>71400</v>
+      </c>
+      <c r="F45" s="3">
         <v>64200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>59300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>51500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>58700</v>
-      </c>
-      <c r="H45" s="3">
-        <v>71400</v>
-      </c>
-      <c r="I45" s="3">
-        <v>72500</v>
       </c>
       <c r="J45" s="3">
         <v>71400</v>
       </c>
       <c r="K45" s="3">
+        <v>72500</v>
+      </c>
+      <c r="L45" s="3">
+        <v>71400</v>
+      </c>
+      <c r="M45" s="3">
         <v>68200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>87000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>85800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>75500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>109100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>72000</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2231,140 +2434,164 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>124000</v>
+      </c>
+      <c r="E47" s="3">
+        <v>93900</v>
+      </c>
+      <c r="F47" s="3">
         <v>88100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>81900</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>86000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>105300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>107800</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>125500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>134000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>206500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>130500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>118600</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>113700</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>117200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>118100</v>
       </c>
     </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1813300</v>
+      </c>
+      <c r="E48" s="3">
+        <v>2000300</v>
+      </c>
+      <c r="F48" s="3">
         <v>1842700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>1864600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>1900200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>1548000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>1413100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>1344400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>1339500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>1359800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>1253700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>1195100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>1189000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>1210700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>1171100</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>472100</v>
+      </c>
+      <c r="E49" s="3">
+        <v>927400</v>
+      </c>
+      <c r="F49" s="3">
         <v>934000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>943300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>951100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>961800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>934300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>851200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>857000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>858500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>863200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>763000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>767300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>774400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>783800</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2684,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>10700</v>
+      </c>
+      <c r="E52" s="3">
+        <v>11000</v>
+      </c>
+      <c r="F52" s="3">
         <v>18800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>17800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>17700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>15400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>17200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>17300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>17400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>21700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>17800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>18000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>14700</v>
       </c>
-      <c r="O52" s="3" t="s">
+      <c r="Q52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P52" s="3" t="s">
+      <c r="R52" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2784,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3153000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>3297800</v>
+      </c>
+      <c r="F54" s="3">
         <v>3219600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>3180200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>3238000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>2826700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>2698900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>2619000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>2719000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>2692300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>2595000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>2548100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>2624500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>2615700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>2551400</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,52 +2878,60 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>48200</v>
+      </c>
+      <c r="E57" s="3">
+        <v>90000</v>
+      </c>
+      <c r="F57" s="3">
         <v>72200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>57400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>71800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>88400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>98500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>62300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>68400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>80800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>90400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>54700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>52100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>297800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>263700</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2707,52 +2974,64 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>794300</v>
+      </c>
+      <c r="E59" s="3">
+        <v>819200</v>
+      </c>
+      <c r="F59" s="3">
         <v>635600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>637200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>665200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>285400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>291500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>281300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>294700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>292000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>298800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>290200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>288200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>62400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>62900</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2795,96 +3074,114 @@
       <c r="P60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>646100</v>
+      </c>
+      <c r="E61" s="3">
+        <v>341000</v>
+      </c>
+      <c r="F61" s="3">
         <v>347100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>347800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>408300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>424800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>297300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>272900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>358500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>368800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>372700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>401100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>484700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>497800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>496200</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>217800</v>
+      </c>
+      <c r="E62" s="3">
+        <v>310400</v>
+      </c>
+      <c r="F62" s="3">
         <v>297100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>288300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>279200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>267500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>248100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>257600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>241100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>222600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>259100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>260000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>268100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>276100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>271600</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3324,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1706300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1560500</v>
+      </c>
+      <c r="F66" s="3">
         <v>1352000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1330600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1424500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1066000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>935400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>874100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>962800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>964300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1021000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1006100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1124300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1134100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1094300</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3544,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3594,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1740200</v>
+      </c>
+      <c r="E72" s="3">
+        <v>2029600</v>
+      </c>
+      <c r="F72" s="3">
         <v>2139400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>2101900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>2061700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>2005300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>1946000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>1904300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>1867900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>1819500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>1644100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>1620700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>1586300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>1535000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>1515300</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3794,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1446600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1737300</v>
+      </c>
+      <c r="F76" s="3">
         <v>1867700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>1849600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>1813500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>1760700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>1763500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>1744800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>1756200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>1728000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>1574000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>1542100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>1500200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>1481600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>1457100</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3894,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-280000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-107100</v>
+      </c>
+      <c r="F81" s="3">
         <v>39800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>42700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>56100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>61700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>43700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>38500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>52200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>177600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>25300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>36300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>53300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>21600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>29500</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,52 +4023,60 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>622700</v>
+      </c>
+      <c r="E83" s="3">
+        <v>533100</v>
+      </c>
+      <c r="F83" s="3">
         <v>514800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>502200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>527400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>463300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>458700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>437900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>462100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>397000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>386500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>365100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>382600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>337700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>337800</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4319,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>227800</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-33600</v>
+      </c>
+      <c r="F89" s="3">
         <v>106100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>79900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>164700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-6500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>96200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>70200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>196600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-21100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>64700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>11400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>104200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>5400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>136300</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4393,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-23600</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-25900</v>
+      </c>
+      <c r="F91" s="3">
         <v>-19000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-24300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-23800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-25900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-20100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-15500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-17300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-15900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-15300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-14300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-12500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-23100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-29900</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4539,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-30600</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-23100</v>
+      </c>
+      <c r="F94" s="3">
         <v>-27900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-29300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-26000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-70800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-148800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-25600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-18000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-19600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-160100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-15000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-10700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-16100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-24900</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,13 +4613,15 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2400</v>
+        <v>-2700</v>
       </c>
       <c r="E96" s="3">
         <v>-2400</v>
@@ -4163,37 +4630,43 @@
         <v>-2400</v>
       </c>
       <c r="G96" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="H96" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="I96" s="3">
         <v>-2100</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-2100</v>
-      </c>
-      <c r="I96" s="3">
-        <v>0</v>
       </c>
       <c r="J96" s="3">
         <v>-2100</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-2100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="N96" s="3">
         <v>-1900</v>
       </c>
-      <c r="M96" s="3">
+      <c r="O96" s="3">
         <v>-1900</v>
       </c>
-      <c r="N96" s="3">
+      <c r="P96" s="3">
         <v>-2000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
         <v>-2000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,79 +4809,91 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>296200</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-35900</v>
+      </c>
+      <c r="F100" s="3">
         <v>-28200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-74600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-29900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>57700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-6800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-139700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-40200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-34500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-38700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-84700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-53600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-34000</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
       </c>
       <c r="F101" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G101" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="H101" s="3">
         <v>100</v>
       </c>
       <c r="I101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J101" s="3">
+        <v>100</v>
+      </c>
+      <c r="K101" s="3">
         <v>-100</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
         <v>0</v>
       </c>
@@ -4407,53 +4904,65 @@
         <v>0</v>
       </c>
       <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
         <v>100</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>493300</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-92500</v>
+      </c>
+      <c r="F102" s="3">
         <v>50000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-23900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>108900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-19700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-59300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-95100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>138400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-75200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-134100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-88200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>39900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-10900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>77200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AAN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AAN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
   <si>
     <t>AAN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,244 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1030100</v>
+      </c>
+      <c r="E8" s="3">
         <v>1101300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1003600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>963800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>968100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1012100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>993200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>953100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>927900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>954800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>884600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>838900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>815600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>844600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>795000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>769000</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>38400</v>
+      </c>
+      <c r="E9" s="3">
         <v>30400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>34200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>30700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>34600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>37800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>49000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>40100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>51200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>53700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>70600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>55100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>65800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>67500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>84500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>64400</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>991700</v>
+      </c>
+      <c r="E10" s="3">
         <v>1070900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>969400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>933100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>933500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>974300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>944200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>913000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>876700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>901100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>814000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>783800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>749800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>777100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>710500</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>704600</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,108 +1025,117 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E14" s="3">
         <v>467700</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>179400</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>4500</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>18700</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>13300</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>1800</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>19200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>3400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>2800</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>13400</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>300</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>15600</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>554800</v>
+      </c>
+      <c r="E15" s="3">
         <v>604800</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>515200</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>497100</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>484700</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>510800</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>447100</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>443400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>415400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>440000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>375700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>365600</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>345400</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>362000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>316900</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>317100</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>936700</v>
+      </c>
+      <c r="E17" s="3">
         <v>1510200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1086900</v>
-      </c>
-      <c r="F17" s="3">
-        <v>908300</v>
       </c>
       <c r="G17" s="3">
         <v>908300</v>
       </c>
       <c r="H17" s="3">
+        <v>908300</v>
+      </c>
+      <c r="I17" s="3">
         <v>938200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>904900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>895800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>874000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>884700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>820100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>796200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>754600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>758100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>757200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>718200</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>93400</v>
+      </c>
+      <c r="E18" s="3">
         <v>-408900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-83300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>55500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>59800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>73900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>88300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>57300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>53900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>70100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>64500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>42700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>61000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>86500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>37800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>50800</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,258 +1278,274 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>667800</v>
+      </c>
+      <c r="E21" s="3">
         <v>212000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>450800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>570400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>563300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>602600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>549900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>515900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>491700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>533200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>462200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>430500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>427600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>471100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>375400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>388800</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E22" s="3">
         <v>3800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>3700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>4000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>4300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>5000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>4600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>3700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>3800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>4300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>4500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>4700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>5600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>5800</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>5400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>92500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-414500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-86000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>51700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>56800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>70300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>82100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>53400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>50000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>66800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>60700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>39200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>57000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>82600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>32300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>45300</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>25500</v>
+      </c>
+      <c r="E24" s="3">
         <v>-100200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>21100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>11900</v>
-      </c>
-      <c r="G24" s="3">
-        <v>14200</v>
       </c>
       <c r="H24" s="3">
         <v>14200</v>
       </c>
       <c r="I24" s="3">
+        <v>14200</v>
+      </c>
+      <c r="J24" s="3">
         <v>18500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>12200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>11500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>14300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>20200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>13900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>20700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>29300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>10700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>15800</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>67100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-314200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-107100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>39800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>42700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>56100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>63500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>41200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>38500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>52400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>40600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>25300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>36300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>53300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>21600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>29500</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>67100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-314200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-107100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>39800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>42700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>56100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>63500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>41200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>38500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>52400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>40600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>25300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>36300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>53300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>21600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>29500</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,16 +1753,19 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E29" s="3">
         <v>34200</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>8</v>
@@ -1715,23 +1776,23 @@
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J29" s="3">
         <v>-1800</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>2500</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>-200</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>137000</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E32" s="3">
         <v>1800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>68400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-280000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-107100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>39800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>42700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>56100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>61700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>43700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>38500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>52200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>177600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>25300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>36300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>53300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>21600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>29500</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>68400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-280000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-107100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>39800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>42700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>56100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>61700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>43700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>38500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>52200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>177600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>25300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>36300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>53300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>21600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>29500</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,58 +2226,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>313100</v>
+      </c>
+      <c r="E41" s="3">
         <v>551000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>57800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>150300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>100200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>124200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>15300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>35000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>94300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>189400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>51000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>126300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>260300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>348500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>308600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>319500</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,58 +2330,64 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>79900</v>
+      </c>
+      <c r="E43" s="3">
         <v>87400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>104200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>93100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>85300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>84000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>98200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>92300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>84300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>81400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>99900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>92200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>84800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>93700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>95800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>86800</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2340,58 +2436,64 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>78200</v>
+      </c>
+      <c r="E45" s="3">
         <v>65800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>71400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>64200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>59300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>51500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>58700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>71400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>72500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>71400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>68200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>87000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>85800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>75500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>109100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>72000</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2440,158 +2542,170 @@
       <c r="R46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>116400</v>
+      </c>
+      <c r="E47" s="3">
         <v>124000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>93900</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>88100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>81900</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>86000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>105300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>107800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>125500</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>134000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>206500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>130500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>118600</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>113700</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>117200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>118100</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1627500</v>
+      </c>
+      <c r="E48" s="3">
         <v>1813300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2000300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1842700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1864600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1900200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1548000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1413100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1344400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1339500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1359800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1253700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1195100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1189000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1210700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1171100</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>464900</v>
+      </c>
+      <c r="E49" s="3">
         <v>472100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>927400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>934000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>943300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>951100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>961800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>934300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>851200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>857000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>858500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>863200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>763000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>767300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>774400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>783800</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,58 +2807,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E52" s="3">
         <v>10700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>11000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>18800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>17800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>17700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>15400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>17200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>17300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>17400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>21700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>17800</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>18000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>14700</v>
-      </c>
-      <c r="Q52" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2715700</v>
+      </c>
+      <c r="E54" s="3">
         <v>3153000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3297800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3219600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3180200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3238000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2826700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2698900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2619000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2719000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2692300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2595000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2548100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2624500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2615700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2551400</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,58 +3010,62 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>56700</v>
+      </c>
+      <c r="E57" s="3">
         <v>48200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>90000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>72200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>57400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>71800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>88400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>98500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>62300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>68400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>80800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>90400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>54700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>52100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>297800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>263700</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2980,58 +3114,64 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>617600</v>
+      </c>
+      <c r="E59" s="3">
         <v>794300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>819200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>635600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>637200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>665200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>285400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>291500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>281300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>294700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>292000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>298800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>290200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>288200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>62400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>62900</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3080,108 +3220,117 @@
       <c r="R60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>285800</v>
+      </c>
+      <c r="E61" s="3">
         <v>646100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>341000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>347100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>347800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>408300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>424800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>297300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>272900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>358500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>368800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>372700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>401100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>484700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>497800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>496200</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>234400</v>
+      </c>
+      <c r="E62" s="3">
         <v>217800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>310400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>297100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>288300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>279200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>267500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>248100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>257600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>241100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>222600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>259100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>260000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>268100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>276100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>271600</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1194500</v>
+      </c>
+      <c r="E66" s="3">
         <v>1706300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1560500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1352000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1330600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1424500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1066000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>935400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>874100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>962800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>964300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1021000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1006100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1124300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1134100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1094300</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1805900</v>
+      </c>
+      <c r="E72" s="3">
         <v>1740200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>2029600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>2139400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>2101900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>2061700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>2005300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1946000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1904300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1867900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1819500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1644100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1620700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1586300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1535000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1515300</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1521200</v>
+      </c>
+      <c r="E76" s="3">
         <v>1446600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1737300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1867700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1849600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1813500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1760700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1763500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1744800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1756200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1728000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1574000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1542100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1500200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1481600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1457100</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>68400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-280000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-107100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>39800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>42700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>56100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>61700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>43700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>38500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>52200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>177600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>25300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>36300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>53300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>21600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>29500</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,58 +4223,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>572400</v>
+      </c>
+      <c r="E83" s="3">
         <v>622700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>533100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>514800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>502200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>527400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>463300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>458700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>437900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>462100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>397000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>386500</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>365100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>382600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>337700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>337800</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>133000</v>
+      </c>
+      <c r="E89" s="3">
         <v>227800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-33600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>106100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>79900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>164700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-6500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>96200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>70200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>196600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-21100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>64700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>11400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>104200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>5400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>136300</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,58 +4615,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-23600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-25900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-19000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-24300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-23800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-25900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-20100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-15500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-17300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-15900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-15300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-14300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-12500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-23100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-29900</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-30600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-23100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-27900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-29300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-26000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-70800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-148800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-25600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-18000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-19600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-160100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-15000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-10700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-16100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-24900</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4624,7 +4858,7 @@
         <v>-2700</v>
       </c>
       <c r="E96" s="3">
-        <v>-2400</v>
+        <v>-2700</v>
       </c>
       <c r="F96" s="3">
         <v>-2400</v>
@@ -4636,37 +4870,40 @@
         <v>-2400</v>
       </c>
       <c r="I96" s="3">
-        <v>-2100</v>
+        <v>-2400</v>
       </c>
       <c r="J96" s="3">
         <v>-2100</v>
       </c>
       <c r="K96" s="3">
-        <v>0</v>
+        <v>-2100</v>
       </c>
       <c r="L96" s="3">
-        <v>-2100</v>
+        <v>0</v>
       </c>
       <c r="M96" s="3">
         <v>-2100</v>
       </c>
       <c r="N96" s="3">
-        <v>-1900</v>
+        <v>-2100</v>
       </c>
       <c r="O96" s="3">
         <v>-1900</v>
       </c>
       <c r="P96" s="3">
-        <v>-2000</v>
+        <v>-1900</v>
       </c>
       <c r="Q96" s="3">
         <v>-2000</v>
       </c>
       <c r="R96" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="S96" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,67 +5058,73 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-361300</v>
+      </c>
+      <c r="E100" s="3">
         <v>296200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-35900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-28200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-74600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-29900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>57700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-6800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-139700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-40200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-34500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-38700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-84700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-53600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-34000</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>-100</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
         <v>0</v>
       </c>
@@ -4883,20 +5132,20 @@
         <v>0</v>
       </c>
       <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-100</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
         <v>0</v>
       </c>
@@ -4910,59 +5159,65 @@
         <v>0</v>
       </c>
       <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
         <v>100</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-238000</v>
+      </c>
+      <c r="E102" s="3">
         <v>493300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-92500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>50000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-23900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>108900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-19700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-59300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-95100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>138400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-75200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-134100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-88200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>39900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-10900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>77200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AAN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AAN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
   <si>
     <t>AAN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,257 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1052300</v>
+      </c>
+      <c r="E8" s="3">
         <v>1030100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1101300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1003600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>963800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>968100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1012100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>993200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>953100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>927900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>954800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>884600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>838900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>815600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>844600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>795000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>769000</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>36900</v>
+      </c>
+      <c r="E9" s="3">
         <v>38400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>30400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>34200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>30700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>34600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>37800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>49000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>40100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>51200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>53700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>70600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>55100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>65800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>67500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>84500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>64400</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1015400</v>
+      </c>
+      <c r="E10" s="3">
         <v>991700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1070900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>969400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>933100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>933500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>974300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>944200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>913000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>876700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>901100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>814000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>783800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>749800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>777100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>710500</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>704600</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,114 +1045,123 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E14" s="3">
         <v>5400</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>467700</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>179400</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>4500</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>18700</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>13300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>1800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>19200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>900</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>3400</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>2800</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>13400</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>300</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>15600</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>535100</v>
+      </c>
+      <c r="E15" s="3">
         <v>554800</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>604800</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>515200</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>497100</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>484700</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>510800</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>447100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>443400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>415400</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>440000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>375700</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>365600</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>345400</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>362000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>316900</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>317100</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>910700</v>
+      </c>
+      <c r="E17" s="3">
         <v>936700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1510200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1086900</v>
-      </c>
-      <c r="G17" s="3">
-        <v>908300</v>
       </c>
       <c r="H17" s="3">
         <v>908300</v>
       </c>
       <c r="I17" s="3">
+        <v>908300</v>
+      </c>
+      <c r="J17" s="3">
         <v>938200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>904900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>895800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>874000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>884700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>820100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>796200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>754600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>758100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>757200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>718200</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>141600</v>
+      </c>
+      <c r="E18" s="3">
         <v>93400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-408900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-83300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>55500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>59800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>73900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>88300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>57300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>53900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>70100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>64500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>42700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>61000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>86500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>37800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>50800</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,273 +1312,289 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>700</v>
+      </c>
+      <c r="E20" s="3">
         <v>2000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>694700</v>
+      </c>
+      <c r="E21" s="3">
         <v>667800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>212000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>450800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>570400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>563300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>602600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>549900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>515900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>491700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>533200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>462200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>430500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>427600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>471100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>375400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>388800</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E22" s="3">
         <v>2900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>3800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>3700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>4000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>4300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>5000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>4600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>3700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>3800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>4300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>4500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>4700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>5600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>5800</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>5400</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>140300</v>
+      </c>
+      <c r="E23" s="3">
         <v>92500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-414500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-86000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>51700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>56800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>70300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>82100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>53400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>50000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>66800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>60700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>39200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>57000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>82600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>32300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>45300</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>31000</v>
+      </c>
+      <c r="E24" s="3">
         <v>25500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-100200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>21100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>11900</v>
-      </c>
-      <c r="H24" s="3">
-        <v>14200</v>
       </c>
       <c r="I24" s="3">
         <v>14200</v>
       </c>
       <c r="J24" s="3">
+        <v>14200</v>
+      </c>
+      <c r="K24" s="3">
         <v>18500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>12200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>11500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>14300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>20200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>13900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>20700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>29300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>10700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>15800</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>109300</v>
+      </c>
+      <c r="E26" s="3">
         <v>67100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-314200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-107100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>39800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>42700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>56100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>63500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>41200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>38500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>52400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>40600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>25300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>36300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>53300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>21600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>29500</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>109300</v>
+      </c>
+      <c r="E27" s="3">
         <v>67100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-314200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-107100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>39800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>42700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>56100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>63500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>41200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>38500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>52400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>40600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>25300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>36300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>53300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>21600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>29500</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,19 +1814,22 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
         <v>1300</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>34200</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
@@ -1779,23 +1840,23 @@
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K29" s="3">
         <v>-1800</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>2500</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>-200</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>137000</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E32" s="3">
         <v>-2000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>109300</v>
+      </c>
+      <c r="E33" s="3">
         <v>68400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-280000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-107100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>39800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>42700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>56100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>61700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>43700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>38500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>52200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>177600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>25300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>36300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>53300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>21600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>29500</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>109300</v>
+      </c>
+      <c r="E35" s="3">
         <v>68400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-280000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-107100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>39800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>42700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>56100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>61700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>43700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>38500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>52200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>177600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>25300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>36300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>53300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>21600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>29500</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,61 +2313,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>470200</v>
+      </c>
+      <c r="E41" s="3">
         <v>313100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>551000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>57800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>150300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>100200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>124200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>15300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>35000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>94300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>189400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>51000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>126300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>260300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>348500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>308600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>319500</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,61 +2423,67 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>86700</v>
+      </c>
+      <c r="E43" s="3">
         <v>79900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>87400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>104200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>93100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>85300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>84000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>98200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>92300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>84300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>81400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>99900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>92200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>84800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>93700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>95800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>86800</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,61 +2535,67 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>73000</v>
+      </c>
+      <c r="E45" s="3">
         <v>78200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>65800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>71400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>64200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>59300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>51500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>58700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>71400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>72500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>71400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>68200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>87000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>85800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>75500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>109100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>72000</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2545,167 +2647,179 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>77100</v>
+      </c>
+      <c r="E47" s="3">
         <v>116400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>124000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>93900</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>88100</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>81900</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>86000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>105300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>107800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>125500</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>134000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>206500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>130500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>118600</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>113700</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>117200</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>118100</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1677900</v>
+      </c>
+      <c r="E48" s="3">
         <v>1627500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1813300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2000300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1842700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1864600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1900200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1548000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1413100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1344400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1339500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1359800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1253700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1195100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1189000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1210700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1171100</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>460800</v>
+      </c>
+      <c r="E49" s="3">
         <v>464900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>472100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>927400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>934000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>943300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>951100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>961800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>934300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>851200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>857000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>858500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>863200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>763000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>767300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>774400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>783800</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,61 +2927,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>12600</v>
+      </c>
+      <c r="E52" s="3">
         <v>10000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>10700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>11000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>18800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>17800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>17700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>15400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>17200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>17300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>17400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>21700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>17800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>18000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>14700</v>
-      </c>
-      <c r="R52" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2884900</v>
+      </c>
+      <c r="E54" s="3">
         <v>2715700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3153000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3297800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3219600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3180200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3238000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2826700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2698900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2619000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2719000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2692300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2595000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2548100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2624500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2615700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2551400</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,61 +3141,65 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>83500</v>
+      </c>
+      <c r="E57" s="3">
         <v>56700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>48200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>90000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>72200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>57400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>71800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>88400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>98500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>62300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>68400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>80800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>90400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>54700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>52100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>297800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>263700</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3117,61 +3251,67 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>646500</v>
+      </c>
+      <c r="E59" s="3">
         <v>617600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>794300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>819200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>635600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>637200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>665200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>285400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>291500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>281300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>294700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>292000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>298800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>290200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>288200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>62400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>62900</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3223,114 +3363,123 @@
       <c r="S60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>285100</v>
+      </c>
+      <c r="E61" s="3">
         <v>285800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>646100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>341000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>347100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>347800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>408300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>424800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>297300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>272900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>358500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>368800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>372700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>401100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>484700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>497800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>496200</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>231200</v>
+      </c>
+      <c r="E62" s="3">
         <v>234400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>217800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>310400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>297100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>288300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>279200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>267500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>248100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>257600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>241100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>222600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>259100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>260000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>268100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>276100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>271600</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1246300</v>
+      </c>
+      <c r="E66" s="3">
         <v>1194500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1706300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1560500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1352000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1330600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1424500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1066000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>935400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>874100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>962800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>964300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1021000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1006100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1124300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1134100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1094300</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1912500</v>
+      </c>
+      <c r="E72" s="3">
         <v>1805900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1740200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>2029600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>2139400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>2101900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>2061700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>2005300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1946000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1904300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1867900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1819500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1644100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1620700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1586300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1535000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1515300</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1638700</v>
+      </c>
+      <c r="E76" s="3">
         <v>1521200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1446600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1737300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1867700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1849600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1813500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1760700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1763500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1744800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1756200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1728000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1574000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1542100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1500200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1481600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1457100</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>109300</v>
+      </c>
+      <c r="E81" s="3">
         <v>68400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-280000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-107100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>39800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>42700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>56100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>61700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>43700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>38500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>52200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>177600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>25300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>36300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>53300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>21600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>29500</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,61 +4422,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>552400</v>
+      </c>
+      <c r="E83" s="3">
         <v>572400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>622700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>533100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>514800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>502200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>527400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>463300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>458700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>437900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>462100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>397000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>386500</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>365100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>382600</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>337700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>337800</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>191100</v>
+      </c>
+      <c r="E89" s="3">
         <v>133000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>227800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-33600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>106100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>79900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>164700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-6500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>96200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>70200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>196600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-21100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>64700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>11400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>104200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>5400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>136300</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,61 +4836,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-10300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-23600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-25900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-19000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-24300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-23800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-25900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-20100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-15500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-17300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-15900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-15300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-14300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-12500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-23100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-29900</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-32400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-9700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-30600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-23100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-27900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-29300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-26000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-70800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-148800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-25600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-18000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-19600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-160100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-15000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-10700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-16100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-24900</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4861,7 +5095,7 @@
         <v>-2700</v>
       </c>
       <c r="F96" s="3">
-        <v>-2400</v>
+        <v>-2700</v>
       </c>
       <c r="G96" s="3">
         <v>-2400</v>
@@ -4873,37 +5107,40 @@
         <v>-2400</v>
       </c>
       <c r="J96" s="3">
-        <v>-2100</v>
+        <v>-2400</v>
       </c>
       <c r="K96" s="3">
         <v>-2100</v>
       </c>
       <c r="L96" s="3">
-        <v>0</v>
+        <v>-2100</v>
       </c>
       <c r="M96" s="3">
-        <v>-2100</v>
+        <v>0</v>
       </c>
       <c r="N96" s="3">
         <v>-2100</v>
       </c>
       <c r="O96" s="3">
-        <v>-1900</v>
+        <v>-2100</v>
       </c>
       <c r="P96" s="3">
         <v>-1900</v>
       </c>
       <c r="Q96" s="3">
-        <v>-2000</v>
+        <v>-1900</v>
       </c>
       <c r="R96" s="3">
         <v>-2000</v>
       </c>
       <c r="S96" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="T96" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,73 +5304,79 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-361300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>296200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-35900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-28200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-74600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-29900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>57700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-6800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-139700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-40200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-34500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-38700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-84700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-53600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-34000</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>-100</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
         <v>0</v>
       </c>
@@ -5135,20 +5384,20 @@
         <v>0</v>
       </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-100</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
       <c r="N101" s="3">
         <v>0</v>
       </c>
@@ -5162,62 +5411,68 @@
         <v>0</v>
       </c>
       <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
         <v>100</v>
       </c>
-      <c r="S101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>157100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-238000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>493300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-92500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>50000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-23900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>108900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-19700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-59300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-95100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>138400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-75200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-134100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-88200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>39900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-10900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>77200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AAN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AAN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="92">
   <si>
     <t>AAN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,266 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
-        <v>44012</v>
-      </c>
       <c r="F7" s="2">
-        <v>43921</v>
+        <v>43830</v>
       </c>
       <c r="G7" s="2">
-        <v>43830</v>
-      </c>
-      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
-        <v>43646</v>
-      </c>
-      <c r="J7" s="2">
+      <c r="H7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1052300</v>
+        <v>430800</v>
       </c>
       <c r="E8" s="3">
-        <v>1030100</v>
+        <v>1305500</v>
       </c>
       <c r="F8" s="3">
-        <v>1101300</v>
+        <v>442300</v>
       </c>
       <c r="G8" s="3">
-        <v>1003600</v>
-      </c>
-      <c r="H8" s="3">
-        <v>963800</v>
-      </c>
-      <c r="I8" s="3">
-        <v>968100</v>
-      </c>
-      <c r="J8" s="3">
+        <v>1349800</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K8" s="3">
         <v>1012100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>993200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>953100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>927900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>954800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>884600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>838900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>815600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>844600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>795000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>769000</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>36900</v>
+        <v>157400</v>
       </c>
       <c r="E9" s="3">
-        <v>38400</v>
+        <v>494000</v>
       </c>
       <c r="F9" s="3">
-        <v>30400</v>
+        <v>163800</v>
       </c>
       <c r="G9" s="3">
-        <v>34200</v>
-      </c>
-      <c r="H9" s="3">
-        <v>30700</v>
-      </c>
-      <c r="I9" s="3">
-        <v>34600</v>
-      </c>
-      <c r="J9" s="3">
+        <v>508700</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K9" s="3">
         <v>37800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>49000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>40100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>51200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>53700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>70600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>55100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>65800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>67500</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>84500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>64400</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1015400</v>
+        <v>273400</v>
       </c>
       <c r="E10" s="3">
-        <v>991700</v>
+        <v>811500</v>
       </c>
       <c r="F10" s="3">
-        <v>1070900</v>
+        <v>278500</v>
       </c>
       <c r="G10" s="3">
-        <v>969400</v>
-      </c>
-      <c r="H10" s="3">
-        <v>933100</v>
-      </c>
-      <c r="I10" s="3">
-        <v>933500</v>
-      </c>
-      <c r="J10" s="3">
+        <v>841100</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K10" s="3">
         <v>974300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>944200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>913000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>876700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>901100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>814000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>783800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>749800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>777100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>710500</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>704600</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,8 +945,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -992,8 +1002,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,120 +1061,129 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>9700</v>
+        <v>21100</v>
       </c>
       <c r="E14" s="3">
-        <v>5400</v>
+        <v>480200</v>
       </c>
       <c r="F14" s="3">
-        <v>467700</v>
+        <v>2500</v>
       </c>
       <c r="G14" s="3">
-        <v>179400</v>
-      </c>
-      <c r="H14" s="3">
-        <v>4500</v>
-      </c>
-      <c r="I14" s="3">
-        <v>18700</v>
-      </c>
-      <c r="J14" s="3">
+        <v>33000</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="3">
         <v>13300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>1800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>19200</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>900</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>3400</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>2800</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>13400</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>300</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>15600</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>535100</v>
+        <v>1700</v>
       </c>
       <c r="E15" s="3">
-        <v>554800</v>
+        <v>5100</v>
       </c>
       <c r="F15" s="3">
-        <v>604800</v>
+        <v>2200</v>
       </c>
       <c r="G15" s="3">
-        <v>515200</v>
-      </c>
-      <c r="H15" s="3">
-        <v>497100</v>
-      </c>
-      <c r="I15" s="3">
-        <v>484700</v>
-      </c>
-      <c r="J15" s="3">
+        <v>11100</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K15" s="3">
         <v>510800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>447100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>443400</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>415400</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>440000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>375700</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>365600</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>345400</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>362000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>316900</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>317100</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1201,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>910700</v>
+        <v>427900</v>
       </c>
       <c r="E17" s="3">
-        <v>936700</v>
+        <v>1698600</v>
       </c>
       <c r="F17" s="3">
-        <v>1510200</v>
+        <v>412300</v>
       </c>
       <c r="G17" s="3">
-        <v>1086900</v>
-      </c>
-      <c r="H17" s="3">
-        <v>908300</v>
-      </c>
-      <c r="I17" s="3">
-        <v>908300</v>
-      </c>
-      <c r="J17" s="3">
+        <v>1332500</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K17" s="3">
         <v>938200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>904900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>895800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>874000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>884700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>820100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>796200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>754600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>758100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>757200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>718200</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>141600</v>
+        <v>2900</v>
       </c>
       <c r="E18" s="3">
-        <v>93400</v>
+        <v>-393100</v>
       </c>
       <c r="F18" s="3">
-        <v>-408900</v>
+        <v>30000</v>
       </c>
       <c r="G18" s="3">
-        <v>-83300</v>
-      </c>
-      <c r="H18" s="3">
-        <v>55500</v>
-      </c>
-      <c r="I18" s="3">
-        <v>59800</v>
-      </c>
-      <c r="J18" s="3">
+        <v>17300</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K18" s="3">
         <v>73900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>88300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>57300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>53900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>70100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>64500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>42700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>61000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>86500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>37800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>50800</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,288 +1342,304 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E20" s="3">
+        <v>900</v>
+      </c>
+      <c r="F20" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G20" s="3">
+        <v>2900</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K20" s="3">
+        <v>1400</v>
+      </c>
+      <c r="L20" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="M20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="P20" s="3">
         <v>700</v>
       </c>
-      <c r="E20" s="3">
-        <v>2000</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="G20" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H20" s="3">
+      <c r="Q20" s="3">
+        <v>1200</v>
+      </c>
+      <c r="R20" s="3">
+        <v>1600</v>
+      </c>
+      <c r="S20" s="3">
+        <v>1900</v>
+      </c>
+      <c r="T20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3">
-        <v>1300</v>
-      </c>
-      <c r="J20" s="3">
-        <v>1400</v>
-      </c>
-      <c r="K20" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="L20" s="3">
-        <v>-200</v>
-      </c>
-      <c r="M20" s="3">
-        <v>-100</v>
-      </c>
-      <c r="N20" s="3">
-        <v>1000</v>
-      </c>
-      <c r="O20" s="3">
-        <v>700</v>
-      </c>
-      <c r="P20" s="3">
-        <v>1200</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>1600</v>
-      </c>
-      <c r="R20" s="3">
-        <v>1900</v>
-      </c>
-      <c r="S20" s="3">
-        <v>-100</v>
-      </c>
-      <c r="T20" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>694700</v>
+        <v>141900</v>
       </c>
       <c r="E21" s="3">
-        <v>667800</v>
+        <v>41500</v>
       </c>
       <c r="F21" s="3">
-        <v>212000</v>
+        <v>176500</v>
       </c>
       <c r="G21" s="3">
-        <v>450800</v>
-      </c>
-      <c r="H21" s="3">
-        <v>570400</v>
-      </c>
-      <c r="I21" s="3">
-        <v>563300</v>
-      </c>
-      <c r="J21" s="3">
+        <v>476700</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K21" s="3">
         <v>602600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>549900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>515900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>491700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>533200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>462200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>430500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>427600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>471100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>375400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>388800</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>2000</v>
+        <v>1400</v>
       </c>
       <c r="E22" s="3">
-        <v>2900</v>
+        <v>8600</v>
       </c>
       <c r="F22" s="3">
+        <v>3700</v>
+      </c>
+      <c r="G22" s="3">
+        <v>13200</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K22" s="3">
+        <v>5000</v>
+      </c>
+      <c r="L22" s="3">
+        <v>4600</v>
+      </c>
+      <c r="M22" s="3">
+        <v>3700</v>
+      </c>
+      <c r="N22" s="3">
         <v>3800</v>
       </c>
-      <c r="G22" s="3">
-        <v>3700</v>
-      </c>
-      <c r="H22" s="3">
-        <v>4000</v>
-      </c>
-      <c r="I22" s="3">
+      <c r="O22" s="3">
         <v>4300</v>
       </c>
-      <c r="J22" s="3">
-        <v>5000</v>
-      </c>
-      <c r="K22" s="3">
-        <v>4600</v>
-      </c>
-      <c r="L22" s="3">
-        <v>3700</v>
-      </c>
-      <c r="M22" s="3">
-        <v>3800</v>
-      </c>
-      <c r="N22" s="3">
-        <v>4300</v>
-      </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>4500</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>4700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>5600</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>5800</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>5400</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>140300</v>
+        <v>2900</v>
       </c>
       <c r="E23" s="3">
-        <v>92500</v>
+        <v>-400800</v>
       </c>
       <c r="F23" s="3">
-        <v>-414500</v>
+        <v>27400</v>
       </c>
       <c r="G23" s="3">
-        <v>-86000</v>
-      </c>
-      <c r="H23" s="3">
-        <v>51700</v>
-      </c>
-      <c r="I23" s="3">
-        <v>56800</v>
-      </c>
-      <c r="J23" s="3">
+        <v>6900</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K23" s="3">
         <v>70300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>82100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>53400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>50000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>66800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>60700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>39200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>57000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>82600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>32300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>45300</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>31000</v>
+        <v>100</v>
       </c>
       <c r="E24" s="3">
-        <v>25500</v>
+        <v>-132000</v>
       </c>
       <c r="F24" s="3">
-        <v>-100200</v>
+        <v>6900</v>
       </c>
       <c r="G24" s="3">
-        <v>21100</v>
-      </c>
-      <c r="H24" s="3">
-        <v>11900</v>
-      </c>
-      <c r="I24" s="3">
+        <v>-700</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K24" s="3">
         <v>14200</v>
       </c>
-      <c r="J24" s="3">
-        <v>14200</v>
-      </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>18500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>12200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>11500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>14300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>20200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>13900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>20700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>29300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>10700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>15800</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1694,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>109300</v>
+        <v>2900</v>
       </c>
       <c r="E26" s="3">
-        <v>67100</v>
+        <v>-268800</v>
       </c>
       <c r="F26" s="3">
-        <v>-314200</v>
+        <v>20500</v>
       </c>
       <c r="G26" s="3">
-        <v>-107100</v>
-      </c>
-      <c r="H26" s="3">
-        <v>39800</v>
-      </c>
-      <c r="I26" s="3">
-        <v>42700</v>
-      </c>
-      <c r="J26" s="3">
+        <v>7600</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K26" s="3">
         <v>56100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>63500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>41200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>38500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>52400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>40600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>25300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>36300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>53300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>21600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>29500</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>109300</v>
+        <v>2900</v>
       </c>
       <c r="E27" s="3">
-        <v>67100</v>
+        <v>-268800</v>
       </c>
       <c r="F27" s="3">
-        <v>-314200</v>
+        <v>20500</v>
       </c>
       <c r="G27" s="3">
-        <v>-107100</v>
-      </c>
-      <c r="H27" s="3">
-        <v>39800</v>
-      </c>
-      <c r="I27" s="3">
-        <v>42700</v>
-      </c>
-      <c r="J27" s="3">
+        <v>7600</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K27" s="3">
         <v>56100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>63500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>41200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>38500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>52400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>40600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>25300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>36300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>53300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>21600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>29500</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1871,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1826,41 +1883,41 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>1300</v>
+        <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>34200</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" s="3">
         <v>-1800</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>2500</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
       <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
         <v>-200</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>137000</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
@@ -1873,8 +1930,11 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1989,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2048,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K32" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="L32" s="3">
+        <v>1700</v>
+      </c>
+      <c r="M32" s="3">
+        <v>200</v>
+      </c>
+      <c r="N32" s="3">
+        <v>100</v>
+      </c>
+      <c r="O32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="P32" s="3">
         <v>-700</v>
       </c>
-      <c r="E32" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="F32" s="3">
-        <v>1800</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="H32" s="3">
+      <c r="Q32" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="R32" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="S32" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="T32" s="3">
+        <v>100</v>
+      </c>
+      <c r="U32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="K32" s="3">
-        <v>1700</v>
-      </c>
-      <c r="L32" s="3">
-        <v>200</v>
-      </c>
-      <c r="M32" s="3">
-        <v>100</v>
-      </c>
-      <c r="N32" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-700</v>
-      </c>
-      <c r="P32" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="R32" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="S32" s="3">
-        <v>100</v>
-      </c>
-      <c r="T32" s="3">
-        <v>-200</v>
-      </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>109300</v>
+        <v>2900</v>
       </c>
       <c r="E33" s="3">
-        <v>68400</v>
+        <v>-268800</v>
       </c>
       <c r="F33" s="3">
-        <v>-280000</v>
+        <v>20500</v>
       </c>
       <c r="G33" s="3">
-        <v>-107100</v>
-      </c>
-      <c r="H33" s="3">
-        <v>39800</v>
-      </c>
-      <c r="I33" s="3">
-        <v>42700</v>
-      </c>
-      <c r="J33" s="3">
+        <v>7600</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K33" s="3">
         <v>56100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>61700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>43700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>38500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>52200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>177600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>25300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>36300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>53300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>21600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>29500</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2225,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>109300</v>
+        <v>2900</v>
       </c>
       <c r="E35" s="3">
-        <v>68400</v>
+        <v>-268800</v>
       </c>
       <c r="F35" s="3">
-        <v>-280000</v>
+        <v>20500</v>
       </c>
       <c r="G35" s="3">
-        <v>-107100</v>
-      </c>
-      <c r="H35" s="3">
-        <v>39800</v>
-      </c>
-      <c r="I35" s="3">
-        <v>42700</v>
-      </c>
-      <c r="J35" s="3">
+        <v>7600</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K35" s="3">
         <v>56100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>61700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>43700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>38500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>52200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>177600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>25300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>36300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>53300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>21600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>29500</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
-        <v>44012</v>
-      </c>
       <c r="F38" s="2">
-        <v>43921</v>
+        <v>43830</v>
       </c>
       <c r="G38" s="2">
-        <v>43830</v>
-      </c>
-      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
-        <v>43646</v>
-      </c>
-      <c r="J38" s="2">
+      <c r="H38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2373,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,64 +2396,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>470200</v>
+        <v>76100</v>
       </c>
       <c r="E41" s="3">
-        <v>313100</v>
-      </c>
-      <c r="F41" s="3">
-        <v>551000</v>
-      </c>
-      <c r="G41" s="3">
-        <v>57800</v>
-      </c>
-      <c r="H41" s="3">
-        <v>150300</v>
-      </c>
-      <c r="I41" s="3">
-        <v>100200</v>
-      </c>
-      <c r="J41" s="3">
+        <v>432900</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K41" s="3">
         <v>124200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>15300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>35000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>94300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>189400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>51000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>126300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>260300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>348500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>308600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>319500</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,64 +2512,70 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>86700</v>
+        <v>35100</v>
       </c>
       <c r="E43" s="3">
-        <v>79900</v>
-      </c>
-      <c r="F43" s="3">
-        <v>87400</v>
-      </c>
-      <c r="G43" s="3">
-        <v>104200</v>
-      </c>
-      <c r="H43" s="3">
-        <v>93100</v>
-      </c>
-      <c r="I43" s="3">
-        <v>85300</v>
-      </c>
-      <c r="J43" s="3">
+        <v>37700</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K43" s="3">
         <v>84000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>98200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>92300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>84300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>81400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>99900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>92200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>84800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>93700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>95800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>86800</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,64 +2630,70 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>73000</v>
+        <v>70100</v>
       </c>
       <c r="E45" s="3">
-        <v>78200</v>
-      </c>
-      <c r="F45" s="3">
-        <v>65800</v>
-      </c>
-      <c r="G45" s="3">
+        <v>55900</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K45" s="3">
+        <v>51500</v>
+      </c>
+      <c r="L45" s="3">
+        <v>58700</v>
+      </c>
+      <c r="M45" s="3">
         <v>71400</v>
       </c>
-      <c r="H45" s="3">
-        <v>64200</v>
-      </c>
-      <c r="I45" s="3">
-        <v>59300</v>
-      </c>
-      <c r="J45" s="3">
-        <v>51500</v>
-      </c>
-      <c r="K45" s="3">
-        <v>58700</v>
-      </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
+        <v>72500</v>
+      </c>
+      <c r="O45" s="3">
         <v>71400</v>
       </c>
-      <c r="M45" s="3">
-        <v>72500</v>
-      </c>
-      <c r="N45" s="3">
-        <v>71400</v>
-      </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>68200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>87000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>85800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>75500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>109100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>72000</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2650,176 +2748,188 @@
       <c r="T46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>77100</v>
+        <v>0</v>
       </c>
       <c r="E47" s="3">
-        <v>116400</v>
+        <v>0</v>
       </c>
       <c r="F47" s="3">
-        <v>124000</v>
+        <v>0</v>
       </c>
       <c r="G47" s="3">
-        <v>93900</v>
+        <v>0</v>
       </c>
       <c r="H47" s="3">
-        <v>88100</v>
+        <v>0</v>
       </c>
       <c r="I47" s="3">
-        <v>81900</v>
+        <v>0</v>
       </c>
       <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3">
         <v>86000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>105300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>107800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>125500</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>134000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>206500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>130500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>118600</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>113700</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>117200</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>118100</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1677900</v>
+        <v>1135700</v>
       </c>
       <c r="E48" s="3">
-        <v>1627500</v>
-      </c>
-      <c r="F48" s="3">
-        <v>1813300</v>
-      </c>
-      <c r="G48" s="3">
-        <v>2000300</v>
-      </c>
-      <c r="H48" s="3">
-        <v>1842700</v>
-      </c>
-      <c r="I48" s="3">
-        <v>1864600</v>
-      </c>
-      <c r="J48" s="3">
+        <v>1104800</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K48" s="3">
         <v>1900200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1548000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1413100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1344400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1339500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1359800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1253700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1195100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1189000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1210700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1171100</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>460800</v>
+        <v>16700</v>
       </c>
       <c r="E49" s="3">
-        <v>464900</v>
-      </c>
-      <c r="F49" s="3">
-        <v>472100</v>
-      </c>
-      <c r="G49" s="3">
-        <v>927400</v>
-      </c>
-      <c r="H49" s="3">
-        <v>934000</v>
-      </c>
-      <c r="I49" s="3">
-        <v>943300</v>
-      </c>
-      <c r="J49" s="3">
+        <v>12100</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K49" s="3">
         <v>951100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>961800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>934300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>851200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>857000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>858500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>863200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>763000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>767300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>774400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>783800</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2984,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,64 +3043,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>12600</v>
+        <v>16000</v>
       </c>
       <c r="E52" s="3">
-        <v>10000</v>
-      </c>
-      <c r="F52" s="3">
-        <v>10700</v>
-      </c>
-      <c r="G52" s="3">
-        <v>11000</v>
-      </c>
-      <c r="H52" s="3">
-        <v>18800</v>
-      </c>
-      <c r="I52" s="3">
+        <v>15200</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K52" s="3">
+        <v>17700</v>
+      </c>
+      <c r="L52" s="3">
+        <v>15400</v>
+      </c>
+      <c r="M52" s="3">
+        <v>17200</v>
+      </c>
+      <c r="N52" s="3">
+        <v>17300</v>
+      </c>
+      <c r="O52" s="3">
+        <v>17400</v>
+      </c>
+      <c r="P52" s="3">
+        <v>21700</v>
+      </c>
+      <c r="Q52" s="3">
         <v>17800</v>
       </c>
-      <c r="J52" s="3">
-        <v>17700</v>
-      </c>
-      <c r="K52" s="3">
-        <v>15400</v>
-      </c>
-      <c r="L52" s="3">
-        <v>17200</v>
-      </c>
-      <c r="M52" s="3">
-        <v>17300</v>
-      </c>
-      <c r="N52" s="3">
-        <v>17400</v>
-      </c>
-      <c r="O52" s="3">
-        <v>21700</v>
-      </c>
-      <c r="P52" s="3">
-        <v>17800</v>
-      </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>18000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>14700</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3161,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2884900</v>
+        <v>1353500</v>
       </c>
       <c r="E54" s="3">
-        <v>2715700</v>
-      </c>
-      <c r="F54" s="3">
-        <v>3153000</v>
-      </c>
-      <c r="G54" s="3">
-        <v>3297800</v>
-      </c>
-      <c r="H54" s="3">
-        <v>3219600</v>
-      </c>
-      <c r="I54" s="3">
-        <v>3180200</v>
-      </c>
-      <c r="J54" s="3">
+        <v>1676700</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K54" s="3">
         <v>3238000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2826700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2698900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2619000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2719000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2692300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2595000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2548100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2624500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2615700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2551400</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3245,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,64 +3268,68 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>83500</v>
+        <v>84600</v>
       </c>
       <c r="E57" s="3">
-        <v>56700</v>
-      </c>
-      <c r="F57" s="3">
-        <v>48200</v>
-      </c>
-      <c r="G57" s="3">
-        <v>90000</v>
-      </c>
-      <c r="H57" s="3">
         <v>72200</v>
       </c>
-      <c r="I57" s="3">
-        <v>57400</v>
-      </c>
-      <c r="J57" s="3">
+      <c r="F57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K57" s="3">
         <v>71800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>88400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>98500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>62300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>68400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>80800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>90400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>54700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>52100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>297800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>263700</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3254,64 +3384,70 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>646500</v>
+        <v>507500</v>
       </c>
       <c r="E59" s="3">
-        <v>617600</v>
-      </c>
-      <c r="F59" s="3">
-        <v>794300</v>
-      </c>
-      <c r="G59" s="3">
-        <v>819200</v>
-      </c>
-      <c r="H59" s="3">
-        <v>635600</v>
-      </c>
-      <c r="I59" s="3">
-        <v>637200</v>
-      </c>
-      <c r="J59" s="3">
+        <v>593600</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K59" s="3">
         <v>665200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>285400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>291500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>281300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>294700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>292000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>298800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>290200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>288200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>62400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>62900</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3366,120 +3502,129 @@
       <c r="T60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>800</v>
+      </c>
+      <c r="E61" s="3">
         <v>285100</v>
       </c>
-      <c r="E61" s="3">
-        <v>285800</v>
-      </c>
       <c r="F61" s="3">
-        <v>646100</v>
+        <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>341000</v>
+        <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>347100</v>
+        <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>347800</v>
+        <v>0</v>
       </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>408300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>424800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>297300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>272900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>358500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>368800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>372700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>401100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>484700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>497800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>496200</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>231200</v>
+        <v>0</v>
       </c>
       <c r="E62" s="3">
-        <v>234400</v>
+        <v>0</v>
       </c>
       <c r="F62" s="3">
-        <v>217800</v>
+        <v>0</v>
       </c>
       <c r="G62" s="3">
-        <v>310400</v>
+        <v>0</v>
       </c>
       <c r="H62" s="3">
-        <v>297100</v>
+        <v>0</v>
       </c>
       <c r="I62" s="3">
-        <v>288300</v>
+        <v>0</v>
       </c>
       <c r="J62" s="3">
+        <v>0</v>
+      </c>
+      <c r="K62" s="3">
         <v>279200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>267500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>248100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>257600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>241100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>222600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>259100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>260000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>268100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>276100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>271600</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3679,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3738,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3797,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1246300</v>
+        <v>642100</v>
       </c>
       <c r="E66" s="3">
-        <v>1194500</v>
-      </c>
-      <c r="F66" s="3">
-        <v>1706300</v>
-      </c>
-      <c r="G66" s="3">
-        <v>1560500</v>
-      </c>
-      <c r="H66" s="3">
-        <v>1352000</v>
-      </c>
-      <c r="I66" s="3">
-        <v>1330600</v>
-      </c>
-      <c r="J66" s="3">
+        <v>950900</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K66" s="3">
         <v>1424500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1066000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>935400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>874100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>962800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>964300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1021000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1006100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1124300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1134100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1094300</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3881,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3938,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +3997,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4056,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4115,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>1912500</v>
-      </c>
-      <c r="E72" s="3">
-        <v>1805900</v>
-      </c>
-      <c r="F72" s="3">
-        <v>1740200</v>
-      </c>
-      <c r="G72" s="3">
-        <v>2029600</v>
-      </c>
-      <c r="H72" s="3">
-        <v>2139400</v>
-      </c>
-      <c r="I72" s="3">
-        <v>2101900</v>
-      </c>
-      <c r="J72" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K72" s="3">
         <v>2061700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2005300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1946000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1904300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1867900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1819500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1644100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1620700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1586300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1535000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1515300</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4233,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4292,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4351,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1638700</v>
+        <v>711300</v>
       </c>
       <c r="E76" s="3">
-        <v>1521200</v>
-      </c>
-      <c r="F76" s="3">
-        <v>1446600</v>
-      </c>
-      <c r="G76" s="3">
-        <v>1737300</v>
-      </c>
-      <c r="H76" s="3">
-        <v>1867700</v>
-      </c>
-      <c r="I76" s="3">
-        <v>1849600</v>
-      </c>
-      <c r="J76" s="3">
+        <v>725900</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K76" s="3">
         <v>1813500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1760700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1763500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1744800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1756200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1728000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1574000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1542100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1500200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1481600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1457100</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4469,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
-        <v>44012</v>
-      </c>
       <c r="F80" s="2">
-        <v>43921</v>
+        <v>43830</v>
       </c>
       <c r="G80" s="2">
-        <v>43830</v>
-      </c>
-      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
-        <v>43646</v>
-      </c>
-      <c r="J80" s="2">
+      <c r="H80" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I80" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J80" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>109300</v>
+        <v>2900</v>
       </c>
       <c r="E81" s="3">
-        <v>68400</v>
+        <v>-268800</v>
       </c>
       <c r="F81" s="3">
-        <v>-280000</v>
+        <v>20500</v>
       </c>
       <c r="G81" s="3">
-        <v>-107100</v>
-      </c>
-      <c r="H81" s="3">
-        <v>39800</v>
-      </c>
-      <c r="I81" s="3">
-        <v>42700</v>
-      </c>
-      <c r="J81" s="3">
+        <v>7600</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K81" s="3">
         <v>56100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>61700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>43700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>38500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>52200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>177600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>25300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>36300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>53300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>21600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>29500</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,64 +4617,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>552400</v>
+        <v>137600</v>
       </c>
       <c r="E83" s="3">
-        <v>572400</v>
+        <v>433700</v>
       </c>
       <c r="F83" s="3">
-        <v>622700</v>
+        <v>145400</v>
       </c>
       <c r="G83" s="3">
-        <v>533100</v>
-      </c>
-      <c r="H83" s="3">
-        <v>514800</v>
-      </c>
-      <c r="I83" s="3">
-        <v>502200</v>
-      </c>
-      <c r="J83" s="3">
+        <v>456500</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K83" s="3">
         <v>527400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>463300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>458700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>437900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>462100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>397000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>386500</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>365100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>382600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>337700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>337800</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4733,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4792,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4851,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4910,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4969,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>191100</v>
+        <v>18500</v>
       </c>
       <c r="E89" s="3">
-        <v>133000</v>
+        <v>337200</v>
       </c>
       <c r="F89" s="3">
-        <v>227800</v>
+        <v>22300</v>
       </c>
       <c r="G89" s="3">
-        <v>-33600</v>
-      </c>
-      <c r="H89" s="3">
-        <v>106100</v>
-      </c>
-      <c r="I89" s="3">
-        <v>79900</v>
-      </c>
-      <c r="J89" s="3">
+        <v>163700</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K89" s="3">
         <v>164700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-6500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>96200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>70200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>196600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-21100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>64700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>11400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>104200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>5400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>136300</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,64 +5053,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-17000</v>
+        <v>-23300</v>
       </c>
       <c r="E91" s="3">
-        <v>-10300</v>
+        <v>-45700</v>
       </c>
       <c r="F91" s="3">
-        <v>-23600</v>
+        <v>-21200</v>
       </c>
       <c r="G91" s="3">
+        <v>-58700</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K91" s="3">
+        <v>-23800</v>
+      </c>
+      <c r="L91" s="3">
         <v>-25900</v>
       </c>
-      <c r="H91" s="3">
-        <v>-19000</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-24300</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-23800</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-25900</v>
-      </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-20100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-15500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-17300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-15900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-15300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-14300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-12500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-23100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-29900</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5169,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5228,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-32400</v>
+        <v>-30600</v>
       </c>
       <c r="E94" s="3">
-        <v>-9700</v>
+        <v>-44400</v>
       </c>
       <c r="F94" s="3">
-        <v>-30600</v>
+        <v>-11400</v>
       </c>
       <c r="G94" s="3">
-        <v>-23100</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-27900</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-29300</v>
-      </c>
-      <c r="J94" s="3">
+        <v>-64800</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K94" s="3">
         <v>-26000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-70800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-148800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-25600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-18000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-19600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-160100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-15000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-10700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-16100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-24900</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,64 +5312,68 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-2700</v>
+        <v>0</v>
       </c>
       <c r="E96" s="3">
-        <v>-2700</v>
+        <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>-2700</v>
+        <v>0</v>
       </c>
       <c r="G96" s="3">
+        <v>0</v>
+      </c>
+      <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3">
+        <v>0</v>
+      </c>
+      <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-2400</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-2400</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-2400</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-2400</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-2100</v>
       </c>
       <c r="L96" s="3">
         <v>-2100</v>
       </c>
       <c r="M96" s="3">
-        <v>0</v>
+        <v>-2100</v>
       </c>
       <c r="N96" s="3">
-        <v>-2100</v>
+        <v>0</v>
       </c>
       <c r="O96" s="3">
         <v>-2100</v>
       </c>
       <c r="P96" s="3">
-        <v>-1900</v>
+        <v>-2100</v>
       </c>
       <c r="Q96" s="3">
         <v>-1900</v>
       </c>
       <c r="R96" s="3">
-        <v>-2000</v>
+        <v>-1900</v>
       </c>
       <c r="S96" s="3">
         <v>-2000</v>
       </c>
       <c r="T96" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="U96" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5428,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5487,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,64 +5546,70 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1700</v>
+        <v>-344700</v>
       </c>
       <c r="E100" s="3">
-        <v>-361300</v>
+        <v>91300</v>
       </c>
       <c r="F100" s="3">
-        <v>296200</v>
+        <v>-106500</v>
       </c>
       <c r="G100" s="3">
-        <v>-35900</v>
-      </c>
-      <c r="H100" s="3">
-        <v>-28200</v>
-      </c>
-      <c r="I100" s="3">
-        <v>-74600</v>
-      </c>
-      <c r="J100" s="3">
+        <v>33400</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K100" s="3">
         <v>-29900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>57700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-6800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-139700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-40200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-34500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-38700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-84700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-53600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-34000</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5375,104 +5620,110 @@
         <v>0</v>
       </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
+        <v>100</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K101" s="3">
+        <v>100</v>
+      </c>
+      <c r="L101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M101" s="3">
+        <v>100</v>
+      </c>
+      <c r="N101" s="3">
         <v>-100</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
         <v>100</v>
       </c>
-      <c r="K101" s="3">
-        <v>-200</v>
-      </c>
-      <c r="L101" s="3">
-        <v>100</v>
-      </c>
-      <c r="M101" s="3">
-        <v>-100</v>
-      </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
-      <c r="S101" s="3">
-        <v>100</v>
-      </c>
-      <c r="T101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>157100</v>
+        <v>-356700</v>
       </c>
       <c r="E102" s="3">
-        <v>-238000</v>
+        <v>384100</v>
       </c>
       <c r="F102" s="3">
-        <v>493300</v>
+        <v>-95600</v>
       </c>
       <c r="G102" s="3">
-        <v>-92500</v>
-      </c>
-      <c r="H102" s="3">
-        <v>50000</v>
-      </c>
-      <c r="I102" s="3">
-        <v>-23900</v>
-      </c>
-      <c r="J102" s="3">
+        <v>132300</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K102" s="3">
         <v>108900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-19700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-59300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-95100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>138400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-75200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-134100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-88200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>39900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-10900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>77200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AAN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AAN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="92">
   <si>
     <t>AAN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,266 +665,279 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="I7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>482300</v>
+      </c>
+      <c r="E8" s="3">
         <v>430800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1305500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>442300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1349800</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I8" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L8" s="3">
         <v>1012100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>993200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>953100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>927900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>954800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>884600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>838900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>815600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>844600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>795000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>769000</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>178000</v>
+      </c>
+      <c r="E9" s="3">
         <v>157400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>494000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>163800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>508700</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L9" s="3">
         <v>37800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>49000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>40100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>51200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>53700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>70600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>55100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>65800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>67500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>84500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>64400</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>304300</v>
+      </c>
+      <c r="E10" s="3">
         <v>273400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>811500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>278500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>841100</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I10" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L10" s="3">
         <v>974300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>944200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>913000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>876700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>901100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>814000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>783800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>749800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>777100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>710500</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>704600</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -946,8 +959,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1005,8 +1019,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1064,67 +1081,73 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E14" s="3">
         <v>21100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>480200</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>2500</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>33000</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="3">
         <v>13300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>500</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>19200</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>900</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>3400</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>2800</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>13400</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>300</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>15600</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1132,58 +1155,61 @@
         <v>1700</v>
       </c>
       <c r="E15" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F15" s="3">
         <v>5100</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>2200</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>11100</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I15" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L15" s="3">
         <v>510800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>447100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>443400</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>415400</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>440000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>375700</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>365600</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>345400</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>362000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>316900</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>317100</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1202,126 +1228,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>433700</v>
+      </c>
+      <c r="E17" s="3">
         <v>427900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1698600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>412300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1332500</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I17" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K17" s="3">
+      <c r="K17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L17" s="3">
         <v>938200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>904900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>895800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>874000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>884700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>820100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>796200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>754600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>758100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>757200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>718200</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>48600</v>
+      </c>
+      <c r="E18" s="3">
         <v>2900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-393100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>30000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>17300</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I18" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L18" s="3">
         <v>73900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>88300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>57300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>53900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>70100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>64500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>42700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>61000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>86500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>37800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>50800</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1343,303 +1376,319 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>400</v>
+      </c>
+      <c r="E20" s="3">
         <v>1500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>2900</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I20" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L20" s="3">
         <v>1400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>1900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>205300</v>
+      </c>
+      <c r="E21" s="3">
         <v>141900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>41500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>176500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>476700</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L21" s="3">
         <v>602600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>549900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>515900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>491700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>533200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>462200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>430500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>427600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>471100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>375400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>388800</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>300</v>
+      </c>
+      <c r="E22" s="3">
         <v>1400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>8600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>3700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>13200</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I22" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L22" s="3">
         <v>5000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>4600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>3700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>3800</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>4300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>4500</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>4700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>5600</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>5800</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>5400</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>48600</v>
+      </c>
+      <c r="E23" s="3">
         <v>2900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-400800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>27400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>6900</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I23" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K23" s="3">
+      <c r="K23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L23" s="3">
         <v>70300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>82100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>53400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>50000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>66800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>60700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>39200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>57000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>82600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>32300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>45300</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>12300</v>
+      </c>
+      <c r="E24" s="3">
         <v>100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-132000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>6900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-700</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I24" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K24" s="3">
+      <c r="K24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L24" s="3">
         <v>14200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>18500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>12200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>11500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>14300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>20200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>13900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>20700</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>29300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>10700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>15800</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1697,126 +1746,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>36300</v>
+      </c>
+      <c r="E26" s="3">
         <v>2900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-268800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>20500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>7600</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I26" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K26" s="3">
+      <c r="K26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L26" s="3">
         <v>56100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>63500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>41200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>38500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>52400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>40600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>25300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>36300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>53300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>21600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>29500</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>36300</v>
+      </c>
+      <c r="E27" s="3">
         <v>2900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-268800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>20500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>7600</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I27" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K27" s="3">
+      <c r="K27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L27" s="3">
         <v>56100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>63500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>41200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>38500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>52400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>40600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>25300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>36300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>53300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>21600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>29500</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1874,8 +1932,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1900,27 +1961,27 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L29" s="3">
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="3">
         <v>-1800</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>2500</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
       <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>-200</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>137000</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
@@ -1933,8 +1994,11 @@
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1992,8 +2056,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2051,126 +2118,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-2900</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I32" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K32" s="3">
+      <c r="K32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L32" s="3">
         <v>-1400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-1900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>36300</v>
+      </c>
+      <c r="E33" s="3">
         <v>2900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-268800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>20500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>7600</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I33" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K33" s="3">
+      <c r="K33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L33" s="3">
         <v>56100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>61700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>43700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>38500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>52200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>177600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>25300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>36300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>53300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>21600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>29500</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2228,131 +2304,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>36300</v>
+      </c>
+      <c r="E35" s="3">
         <v>2900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-268800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>20500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>7600</v>
       </c>
-      <c r="H35" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I35" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K35" s="3">
+      <c r="K35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L35" s="3">
         <v>56100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>61700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>43700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>38500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>52200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>177600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>25300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>36300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>53300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>21600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>29500</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="I38" s="2" t="s">
         <v>8</v>
       </c>
       <c r="J38" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K38" s="2">
+      <c r="K38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2374,8 +2459,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2397,20 +2483,21 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>61100</v>
+      </c>
+      <c r="E41" s="3">
         <v>76100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>432900</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G41" s="3" t="s">
         <v>8</v>
       </c>
@@ -2423,41 +2510,44 @@
       <c r="J41" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K41" s="3">
+      <c r="K41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L41" s="3">
         <v>124200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>15300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>35000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>94300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>189400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>51000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>126300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>260300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>348500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>308600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>319500</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2515,20 +2605,23 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>28700</v>
+      </c>
+      <c r="E43" s="3">
         <v>35100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>37700</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G43" s="3" t="s">
         <v>8</v>
       </c>
@@ -2541,41 +2634,44 @@
       <c r="J43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K43" s="3">
+      <c r="K43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L43" s="3">
         <v>84000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>98200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>92300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>84300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>81400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>99900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>92200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>84800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>93700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>95800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>86800</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2633,20 +2729,23 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>66600</v>
+      </c>
+      <c r="E45" s="3">
         <v>70100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>55900</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G45" s="3" t="s">
         <v>8</v>
       </c>
@@ -2659,41 +2758,44 @@
       <c r="J45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K45" s="3">
+      <c r="K45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L45" s="3">
         <v>51500</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>58700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>71400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>72500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>71400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>68200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>87000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>85800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>75500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>109100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>72000</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2751,8 +2853,11 @@
       <c r="U46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2778,52 +2883,55 @@
         <v>0</v>
       </c>
       <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3">
         <v>86000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>105300</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>107800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>125500</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>134000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>206500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>130500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>118600</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>113700</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>117200</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>118100</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1143500</v>
+      </c>
+      <c r="E48" s="3">
         <v>1135700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1104800</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G48" s="3" t="s">
         <v>8</v>
       </c>
@@ -2836,53 +2944,56 @@
       <c r="J48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K48" s="3">
+      <c r="K48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L48" s="3">
         <v>1900200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1548000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1413100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1344400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1339500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1359800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1253700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1195100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1189000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1210700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1171100</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>15900</v>
+      </c>
+      <c r="E49" s="3">
         <v>16700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>12100</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G49" s="3" t="s">
         <v>8</v>
       </c>
@@ -2895,41 +3006,44 @@
       <c r="J49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K49" s="3">
+      <c r="K49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L49" s="3">
         <v>951100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>961800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>934300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>851200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>857000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>858500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>863200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>763000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>767300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>774400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>783800</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2987,8 +3101,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3046,20 +3163,23 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>15900</v>
+      </c>
+      <c r="E52" s="3">
         <v>16000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>15200</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G52" s="3" t="s">
         <v>8</v>
       </c>
@@ -3072,41 +3192,44 @@
       <c r="J52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K52" s="3">
+      <c r="K52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L52" s="3">
         <v>17700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>15400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>17200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>17300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>17400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>21700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>17800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>18000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>14700</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3164,20 +3287,23 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1335600</v>
+      </c>
+      <c r="E54" s="3">
         <v>1353500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1676700</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G54" s="3" t="s">
         <v>8</v>
       </c>
@@ -3190,41 +3316,44 @@
       <c r="J54" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K54" s="3">
+      <c r="K54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L54" s="3">
         <v>3238000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2826700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2698900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2619000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2719000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2692300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2595000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2548100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2624500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2615700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2551400</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3246,8 +3375,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3269,20 +3399,21 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>32800</v>
+      </c>
+      <c r="E57" s="3">
         <v>84600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>72200</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G57" s="3" t="s">
         <v>8</v>
       </c>
@@ -3295,41 +3426,44 @@
       <c r="J57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K57" s="3">
+      <c r="K57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L57" s="3">
         <v>71800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>88400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>98500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>62300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>68400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>80800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>90400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>54700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>52100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>297800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>263700</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3387,20 +3521,23 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>512100</v>
+      </c>
+      <c r="E59" s="3">
         <v>507500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>593600</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G59" s="3" t="s">
         <v>8</v>
       </c>
@@ -3413,41 +3550,44 @@
       <c r="J59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K59" s="3">
+      <c r="K59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L59" s="3">
         <v>665200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>285400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>291500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>281300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>294700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>292000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>298800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>290200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>288200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>62400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>62900</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3505,20 +3645,23 @@
       <c r="U60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>300</v>
+      </c>
+      <c r="E61" s="3">
         <v>800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>285100</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -3532,40 +3675,43 @@
         <v>0</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>408300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>424800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>297300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>272900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>358500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>368800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>372700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>401100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>484700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>497800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>496200</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3591,40 +3737,43 @@
         <v>0</v>
       </c>
       <c r="K62" s="3">
+        <v>0</v>
+      </c>
+      <c r="L62" s="3">
         <v>279200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>267500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>248100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>257600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>241100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>222600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>259100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>260000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>268100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>276100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>271600</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3682,8 +3831,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3741,8 +3893,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3800,20 +3955,23 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>596200</v>
+      </c>
+      <c r="E66" s="3">
         <v>642100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>950900</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G66" s="3" t="s">
         <v>8</v>
       </c>
@@ -3826,41 +3984,44 @@
       <c r="J66" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K66" s="3">
+      <c r="K66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L66" s="3">
         <v>1424500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1066000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>935400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>874100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>962800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>964300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1021000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1006100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1124300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1134100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1094300</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3882,8 +4043,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3941,8 +4103,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4000,8 +4165,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4059,8 +4227,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4118,17 +4289,20 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>34700</v>
+      </c>
+      <c r="E72" s="3">
         <v>1900</v>
       </c>
-      <c r="E72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F72" s="3" t="s">
         <v>8</v>
       </c>
@@ -4144,41 +4318,44 @@
       <c r="J72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K72" s="3">
+      <c r="K72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L72" s="3">
         <v>2061700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2005300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1946000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1904300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1867900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1819500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1644100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1620700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1586300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1535000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1515300</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4236,8 +4413,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4295,8 +4475,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4354,20 +4537,23 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>739400</v>
+      </c>
+      <c r="E76" s="3">
         <v>711300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>725900</v>
       </c>
-      <c r="F76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G76" s="3" t="s">
         <v>8</v>
       </c>
@@ -4380,41 +4566,44 @@
       <c r="J76" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K76" s="3">
+      <c r="K76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L76" s="3">
         <v>1813500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1760700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1763500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1744800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1756200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1728000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1574000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1542100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1500200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1481600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1457100</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4472,131 +4661,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="I80" s="2" t="s">
         <v>8</v>
       </c>
       <c r="J80" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K80" s="2">
+      <c r="K80" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>36300</v>
+      </c>
+      <c r="E81" s="3">
         <v>2900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-268800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>20500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>7600</v>
       </c>
-      <c r="H81" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I81" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K81" s="3">
+      <c r="K81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L81" s="3">
         <v>56100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>61700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>43700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>38500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>52200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>177600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>25300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>36300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>53300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>21600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>29500</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4618,67 +4816,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>156300</v>
+      </c>
+      <c r="E83" s="3">
         <v>137600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>433700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>145400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>456500</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I83" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K83" s="3">
+      <c r="K83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L83" s="3">
         <v>527400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>463300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>458700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>437900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>462100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>397000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>386500</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>365100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>382600</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>337700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>337800</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4736,8 +4938,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4795,8 +5000,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4854,8 +5062,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4913,8 +5124,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4972,67 +5186,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>20200</v>
+      </c>
+      <c r="E89" s="3">
         <v>18500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>337200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>22300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>163700</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I89" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K89" s="3">
+      <c r="K89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L89" s="3">
         <v>164700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-6500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>96200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>70200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>196600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-21100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>64700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>11400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>104200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>5400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>136300</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5054,67 +5274,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-27000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-23300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-45700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-21200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-58700</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I91" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K91" s="3">
+      <c r="K91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L91" s="3">
         <v>-23800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-25900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-20100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-15500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-17300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-15900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-15300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-14300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-12500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-23100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-29900</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5172,8 +5396,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5231,67 +5458,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-23400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-30600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-44400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-11400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-64800</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I94" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K94" s="3">
+      <c r="K94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L94" s="3">
         <v>-26000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-70800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-148800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-25600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-18000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-19600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-160100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-15000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-10700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-16100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-24900</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5313,13 +5546,14 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-3400</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -5340,40 +5574,43 @@
         <v>0</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-2400</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-2100</v>
       </c>
       <c r="M96" s="3">
         <v>-2100</v>
       </c>
       <c r="N96" s="3">
-        <v>0</v>
+        <v>-2100</v>
       </c>
       <c r="O96" s="3">
-        <v>-2100</v>
+        <v>0</v>
       </c>
       <c r="P96" s="3">
         <v>-2100</v>
       </c>
       <c r="Q96" s="3">
-        <v>-1900</v>
+        <v>-2100</v>
       </c>
       <c r="R96" s="3">
         <v>-1900</v>
       </c>
       <c r="S96" s="3">
-        <v>-2000</v>
+        <v>-1900</v>
       </c>
       <c r="T96" s="3">
         <v>-2000</v>
       </c>
       <c r="U96" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="V96" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5431,8 +5668,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5490,8 +5730,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5549,106 +5792,112 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-11800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-344700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>91300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-106500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>33400</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I100" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K100" s="3">
+      <c r="K100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L100" s="3">
         <v>-29900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>57700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-6800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-139700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-40200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-34500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-38700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-84700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-53600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-34000</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>100</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
         <v>0</v>
       </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>100</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I101" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K101" s="3">
+      <c r="K101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L101" s="3">
         <v>100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-100</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
       <c r="P101" s="3">
         <v>0</v>
       </c>
@@ -5662,68 +5911,74 @@
         <v>0</v>
       </c>
       <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
         <v>100</v>
       </c>
-      <c r="U101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-15100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-356700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>384100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-95600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>132300</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I102" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K102" s="3">
+      <c r="K102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L102" s="3">
         <v>108900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-19700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-59300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-95100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>138400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-75200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-134100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-88200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>39900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-10900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>77200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AAN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AAN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="92">
   <si>
     <t>AAN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,279 +665,292 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="J7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>468400</v>
+      </c>
+      <c r="E8" s="3">
         <v>482300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>430800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1305500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>442300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1349800</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J8" s="3" t="s">
         <v>8</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L8" s="3">
+      <c r="L8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M8" s="3">
         <v>1012100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>993200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>953100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>927900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>954800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>884600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>838900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>815600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>844600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>795000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>769000</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>172800</v>
+      </c>
+      <c r="E9" s="3">
         <v>178000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>157400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>494000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>163800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>508700</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L9" s="3">
+      <c r="L9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M9" s="3">
         <v>37800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>49000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>40100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>51200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>53700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>70600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>55100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>65800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>67500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>84500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>64400</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>295600</v>
+      </c>
+      <c r="E10" s="3">
         <v>304300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>273400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>811500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>278500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>841100</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J10" s="3" t="s">
         <v>8</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M10" s="3">
         <v>974300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>944200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>913000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>876700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>901100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>814000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>783800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>749800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>777100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>710500</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>704600</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -960,8 +973,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1022,8 +1036,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1084,132 +1101,141 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E14" s="3">
         <v>7800</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>21100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>480200</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>2500</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>33000</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="3">
         <v>13300</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>1800</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>500</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>19200</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>900</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>3400</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>2800</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>13400</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>300</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>15600</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="E15" s="3">
         <v>1700</v>
       </c>
       <c r="F15" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G15" s="3">
         <v>5100</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>2200</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>11100</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J15" s="3" t="s">
         <v>8</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L15" s="3">
+      <c r="L15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M15" s="3">
         <v>510800</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>447100</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>443400</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>415400</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>440000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>375700</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>365600</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>345400</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>362000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>316900</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>317100</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1229,132 +1255,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>424300</v>
+      </c>
+      <c r="E17" s="3">
         <v>433700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>427900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1698600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>412300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1332500</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J17" s="3" t="s">
         <v>8</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L17" s="3">
+      <c r="L17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M17" s="3">
         <v>938200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>904900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>895800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>874000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>884700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>820100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>796200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>754600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>758100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>757200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>718200</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>44100</v>
+      </c>
+      <c r="E18" s="3">
         <v>48600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>2900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-393100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>30000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>17300</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J18" s="3" t="s">
         <v>8</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M18" s="3">
         <v>73900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>88300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>57300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>53900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>70100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>64500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>42700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>61000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>86500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>37800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>50800</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1377,318 +1410,334 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>700</v>
+      </c>
+      <c r="E20" s="3">
         <v>400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>2900</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J20" s="3" t="s">
         <v>8</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L20" s="3">
+      <c r="L20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M20" s="3">
         <v>1400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>1600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>1900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>192700</v>
+      </c>
+      <c r="E21" s="3">
         <v>205300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>141900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>41500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>176500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>476700</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M21" s="3">
         <v>602600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>549900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>515900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>491700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>533200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>462200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>430500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>427600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>471100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>375400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>388800</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>500</v>
+      </c>
+      <c r="E22" s="3">
         <v>300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>8600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>3700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>13200</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J22" s="3" t="s">
         <v>8</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L22" s="3">
+      <c r="L22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M22" s="3">
         <v>5000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>4600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>3700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>3800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>4300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>4500</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>4700</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>5600</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>5800</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>5400</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>44300</v>
+      </c>
+      <c r="E23" s="3">
         <v>48600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>2900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-400800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>27400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>6900</v>
       </c>
-      <c r="I23" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J23" s="3" t="s">
         <v>8</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L23" s="3">
+      <c r="L23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M23" s="3">
         <v>70300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>82100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>53400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>50000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>66800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>60700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>39200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>57000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>82600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>32300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>45300</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E24" s="3">
         <v>12300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-132000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>6900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-700</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J24" s="3" t="s">
         <v>8</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L24" s="3">
+      <c r="L24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M24" s="3">
         <v>14200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>18500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>12200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>11500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>14300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>20200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>13900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>20700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>29300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>10700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>15800</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1749,132 +1798,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>33000</v>
+      </c>
+      <c r="E26" s="3">
         <v>36300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-268800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>20500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>7600</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J26" s="3" t="s">
         <v>8</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L26" s="3">
+      <c r="L26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M26" s="3">
         <v>56100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>63500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>41200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>38500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>52400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>40600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>25300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>36300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>53300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>21600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>29500</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>33000</v>
+      </c>
+      <c r="E27" s="3">
         <v>36300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-268800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>20500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>7600</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J27" s="3" t="s">
         <v>8</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L27" s="3">
+      <c r="L27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M27" s="3">
         <v>56100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>63500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>41200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>38500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>52400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>40600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>25300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>36300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>53300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>21600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>29500</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1935,8 +1993,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1964,27 +2025,27 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M29" s="3">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3">
         <v>-1800</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>2500</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
       <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-200</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>137000</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
@@ -1997,8 +2058,11 @@
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2059,8 +2123,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2121,132 +2188,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E32" s="3">
         <v>-400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-2900</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J32" s="3" t="s">
         <v>8</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L32" s="3">
+      <c r="L32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M32" s="3">
         <v>-1400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-1600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-1900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>33000</v>
+      </c>
+      <c r="E33" s="3">
         <v>36300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-268800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>20500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>7600</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J33" s="3" t="s">
         <v>8</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L33" s="3">
+      <c r="L33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M33" s="3">
         <v>56100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>61700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>43700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>38500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>52200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>177600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>25300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>36300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>53300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>21600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>29500</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2307,137 +2383,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>33000</v>
+      </c>
+      <c r="E35" s="3">
         <v>36300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-268800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>20500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>7600</v>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J35" s="3" t="s">
         <v>8</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L35" s="3">
+      <c r="L35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M35" s="3">
         <v>56100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>61700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>43700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>38500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>52200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>177600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>25300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>36300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>53300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>21600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>29500</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="J38" s="2" t="s">
         <v>8</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L38" s="2">
+      <c r="L38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2460,8 +2545,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2484,23 +2570,24 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>48000</v>
+      </c>
+      <c r="E41" s="3">
         <v>61100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>76100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>432900</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H41" s="3" t="s">
         <v>8</v>
       </c>
@@ -2513,41 +2600,44 @@
       <c r="K41" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L41" s="3">
+      <c r="L41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M41" s="3">
         <v>124200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>15300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>35000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>94300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>189400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>51000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>126300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>260300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>348500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>308600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>319500</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2608,23 +2698,26 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>28400</v>
+      </c>
+      <c r="E43" s="3">
         <v>28700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>35100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>37700</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H43" s="3" t="s">
         <v>8</v>
       </c>
@@ -2637,41 +2730,44 @@
       <c r="K43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L43" s="3">
+      <c r="L43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M43" s="3">
         <v>84000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>98200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>92300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>84300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>81400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>99900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>92200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>84800</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>93700</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>95800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>86800</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2732,23 +2828,26 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>61700</v>
+      </c>
+      <c r="E45" s="3">
         <v>66600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>70100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>55900</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H45" s="3" t="s">
         <v>8</v>
       </c>
@@ -2761,41 +2860,44 @@
       <c r="K45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L45" s="3">
+      <c r="L45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M45" s="3">
         <v>51500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>58700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>71400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>72500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>71400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>68200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>87000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>85800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>75500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>109100</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>72000</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2856,8 +2958,11 @@
       <c r="V46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2886,55 +2991,58 @@
         <v>0</v>
       </c>
       <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
         <v>86000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>105300</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>107800</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>125500</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>134000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>206500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>130500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>118600</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>113700</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>117200</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>118100</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1183700</v>
+      </c>
+      <c r="E48" s="3">
         <v>1143500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1135700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1104800</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>8</v>
       </c>
@@ -2947,56 +3055,59 @@
       <c r="K48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L48" s="3">
+      <c r="L48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M48" s="3">
         <v>1900200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1548000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1413100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1344400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1339500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1359800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1253700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1195100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1189000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1210700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1171100</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>14300</v>
+      </c>
+      <c r="E49" s="3">
         <v>15900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>16700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>12100</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H49" s="3" t="s">
         <v>8</v>
       </c>
@@ -3009,41 +3120,44 @@
       <c r="K49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L49" s="3">
+      <c r="L49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M49" s="3">
         <v>951100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>961800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>934300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>851200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>857000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>858500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>863200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>763000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>767300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>774400</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>783800</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3104,8 +3218,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3166,23 +3283,26 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>14500</v>
+      </c>
+      <c r="E52" s="3">
         <v>15900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>16000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>15200</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>8</v>
       </c>
@@ -3195,41 +3315,44 @@
       <c r="K52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L52" s="3">
+      <c r="L52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M52" s="3">
         <v>17700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>15400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>17200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>17300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>17400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>21700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>17800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>18000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>14700</v>
       </c>
-      <c r="U52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3290,23 +3413,26 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1363500</v>
+      </c>
+      <c r="E54" s="3">
         <v>1335600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1353500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1676700</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H54" s="3" t="s">
         <v>8</v>
       </c>
@@ -3319,41 +3445,44 @@
       <c r="K54" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L54" s="3">
+      <c r="L54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M54" s="3">
         <v>3238000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2826700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2698900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2619000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2719000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2692300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2595000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2548100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2624500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2615700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2551400</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3376,8 +3505,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3400,23 +3530,24 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>64000</v>
+      </c>
+      <c r="E57" s="3">
         <v>32800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>84600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>72200</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H57" s="3" t="s">
         <v>8</v>
       </c>
@@ -3429,41 +3560,44 @@
       <c r="K57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L57" s="3">
+      <c r="L57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M57" s="3">
         <v>71800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>88400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>98500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>62300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>68400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>80800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>90400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>54700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>52100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>297800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>263700</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3524,23 +3658,26 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>512200</v>
+      </c>
+      <c r="E59" s="3">
         <v>512100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>507500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>593600</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>8</v>
       </c>
@@ -3553,41 +3690,44 @@
       <c r="K59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L59" s="3">
+      <c r="L59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M59" s="3">
         <v>665200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>285400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>291500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>281300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>294700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>292000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>298800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>290200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>288200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>62400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>62900</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3648,23 +3788,26 @@
       <c r="V60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
         <v>300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>285100</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -3678,40 +3821,43 @@
         <v>0</v>
       </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>408300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>424800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>297300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>272900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>358500</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>368800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>372700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>401100</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>484700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>497800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>496200</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3740,40 +3886,43 @@
         <v>0</v>
       </c>
       <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3">
         <v>279200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>267500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>248100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>257600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>241100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>222600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>259100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>260000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>268100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>276100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>271600</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3834,8 +3983,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3896,8 +4048,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3958,23 +4113,26 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>630000</v>
+      </c>
+      <c r="E66" s="3">
         <v>596200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>642100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>950900</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H66" s="3" t="s">
         <v>8</v>
       </c>
@@ -3987,41 +4145,44 @@
       <c r="K66" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L66" s="3">
+      <c r="L66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M66" s="3">
         <v>1424500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1066000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>935400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>874100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>962800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>964300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1021000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1006100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1124300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1134100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1094300</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4044,8 +4205,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4106,8 +4268,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4168,8 +4333,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4230,8 +4398,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4292,20 +4463,23 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>64300</v>
+      </c>
+      <c r="E72" s="3">
         <v>34700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1900</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G72" s="3" t="s">
         <v>8</v>
       </c>
@@ -4321,41 +4495,44 @@
       <c r="K72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L72" s="3">
+      <c r="L72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M72" s="3">
         <v>2061700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2005300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1946000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1904300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1867900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1819500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1644100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1620700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1586300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1535000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1515300</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4416,8 +4593,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4478,8 +4658,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4540,23 +4723,26 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>733500</v>
+      </c>
+      <c r="E76" s="3">
         <v>739400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>711300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>725900</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H76" s="3" t="s">
         <v>8</v>
       </c>
@@ -4569,41 +4755,44 @@
       <c r="K76" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L76" s="3">
+      <c r="L76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M76" s="3">
         <v>1813500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1760700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1763500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1744800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1756200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1728000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1574000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1542100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1500200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1481600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1457100</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4664,137 +4853,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="J80" s="2" t="s">
         <v>8</v>
       </c>
       <c r="K80" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L80" s="2">
+      <c r="L80" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>33000</v>
+      </c>
+      <c r="E81" s="3">
         <v>36300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-268800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>20500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>7600</v>
       </c>
-      <c r="I81" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J81" s="3" t="s">
         <v>8</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L81" s="3">
+      <c r="L81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M81" s="3">
         <v>56100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>61700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>43700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>38500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>52200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>177600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>25300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>36300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>53300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>21600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>29500</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4817,70 +5015,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>147900</v>
+      </c>
+      <c r="E83" s="3">
         <v>156300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>137600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>433700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>145400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>456500</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J83" s="3" t="s">
         <v>8</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L83" s="3">
+      <c r="L83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M83" s="3">
         <v>527400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>463300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>458700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>437900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>462100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>397000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>386500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>365100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>382600</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>337700</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>337800</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4941,8 +5143,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5003,8 +5208,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5065,8 +5273,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5127,8 +5338,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5189,70 +5403,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>40000</v>
+      </c>
+      <c r="E89" s="3">
         <v>20200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>18500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>337200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>22300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>163700</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J89" s="3" t="s">
         <v>8</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L89" s="3">
+      <c r="L89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M89" s="3">
         <v>164700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-6500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>96200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>70200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>196600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-21100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>64700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>11400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>104200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>5400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>136300</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5275,70 +5495,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-18800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-27000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-23300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-45700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-21200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-58700</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J91" s="3" t="s">
         <v>8</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L91" s="3">
+      <c r="L91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M91" s="3">
         <v>-23800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-25900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-20100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-15500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-17300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-15900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-15300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-14300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-12500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-23100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-29900</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5399,8 +5623,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5461,70 +5688,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-13800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-23400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-30600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-44400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-11400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-64800</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J94" s="3" t="s">
         <v>8</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L94" s="3">
+      <c r="L94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M94" s="3">
         <v>-26000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-70800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-148800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-25600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-18000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-19600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-160100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-15000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-10700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-16100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-24900</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5547,17 +5780,18 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E96" s="3">
         <v>-3400</v>
       </c>
-      <c r="E96" s="3">
-        <v>0</v>
-      </c>
       <c r="F96" s="3">
         <v>0</v>
       </c>
@@ -5577,40 +5811,43 @@
         <v>0</v>
       </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-2400</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-2100</v>
       </c>
       <c r="N96" s="3">
         <v>-2100</v>
       </c>
       <c r="O96" s="3">
-        <v>0</v>
+        <v>-2100</v>
       </c>
       <c r="P96" s="3">
-        <v>-2100</v>
+        <v>0</v>
       </c>
       <c r="Q96" s="3">
         <v>-2100</v>
       </c>
       <c r="R96" s="3">
-        <v>-1900</v>
+        <v>-2100</v>
       </c>
       <c r="S96" s="3">
         <v>-1900</v>
       </c>
       <c r="T96" s="3">
-        <v>-2000</v>
+        <v>-1900</v>
       </c>
       <c r="U96" s="3">
         <v>-2000</v>
       </c>
       <c r="V96" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="W96" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5671,8 +5908,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5733,8 +5973,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5795,70 +6038,76 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-39300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-11800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-344700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>91300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-106500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>33400</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J100" s="3" t="s">
         <v>8</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M100" s="3">
         <v>-29900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>57700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-6800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-139700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-40200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-34500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-38700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-84700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-53600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-34000</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5866,41 +6115,41 @@
         <v>0</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>100</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
         <v>0</v>
       </c>
       <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>100</v>
       </c>
-      <c r="I101" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J101" s="3" t="s">
         <v>8</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L101" s="3">
+      <c r="L101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M101" s="3">
         <v>100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-200</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-100</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
       <c r="Q101" s="3">
         <v>0</v>
       </c>
@@ -5914,71 +6163,77 @@
         <v>0</v>
       </c>
       <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
         <v>100</v>
       </c>
-      <c r="V101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-15100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-356700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>384100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-95600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>132300</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J102" s="3" t="s">
         <v>8</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L102" s="3">
+      <c r="L102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M102" s="3">
         <v>108900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-19700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-59300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-95100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>138400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-75200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-134100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-88200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>39900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-10900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>77200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AAN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AAN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="92">
   <si>
     <t>AAN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,292 +665,305 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>452800</v>
+      </c>
+      <c r="E8" s="3">
         <v>468400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>482300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>430800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1305500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>442300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1349800</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K8" s="3" t="s">
         <v>8</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M8" s="3">
+      <c r="M8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N8" s="3">
         <v>1012100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>993200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>953100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>927900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>954800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>884600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>838900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>815600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>844600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>795000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>769000</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>167500</v>
+      </c>
+      <c r="E9" s="3">
         <v>172800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>178000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>157400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>494000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>163800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>508700</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M9" s="3">
+      <c r="M9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N9" s="3">
         <v>37800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>49000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>40100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>51200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>53700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>70600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>55100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>65800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>67500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>84500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>64400</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>285300</v>
+      </c>
+      <c r="E10" s="3">
         <v>295600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>304300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>273400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>811500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>278500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>841100</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K10" s="3" t="s">
         <v>8</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M10" s="3">
+      <c r="M10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N10" s="3">
         <v>974300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>944200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>913000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>876700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>901100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>814000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>783800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>749800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>777100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>710500</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>704600</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -974,8 +987,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1039,8 +1053,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1104,138 +1121,147 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E14" s="3">
         <v>2900</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>7800</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>21100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>480200</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>2500</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>33000</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" s="3">
         <v>13300</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>1800</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>500</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>19200</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>900</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>3400</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>2800</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>13400</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>300</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>15600</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E15" s="3">
         <v>1600</v>
-      </c>
-      <c r="E15" s="3">
-        <v>1700</v>
       </c>
       <c r="F15" s="3">
         <v>1700</v>
       </c>
       <c r="G15" s="3">
+        <v>1700</v>
+      </c>
+      <c r="H15" s="3">
         <v>5100</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>2200</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>11100</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K15" s="3" t="s">
         <v>8</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M15" s="3">
+      <c r="M15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N15" s="3">
         <v>510800</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>447100</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>443400</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>415400</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>440000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>375700</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>365600</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>345400</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>362000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>316900</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>317100</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1256,138 +1282,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>419600</v>
+      </c>
+      <c r="E17" s="3">
         <v>424300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>433700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>427900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1698600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>412300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1332500</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K17" s="3" t="s">
         <v>8</v>
       </c>
       <c r="L17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M17" s="3">
+      <c r="M17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N17" s="3">
         <v>938200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>904900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>895800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>874000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>884700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>820100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>796200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>754600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>758100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>757200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>718200</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>33200</v>
+      </c>
+      <c r="E18" s="3">
         <v>44100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>48600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>2900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-393100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>30000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>17300</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>8</v>
       </c>
       <c r="L18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M18" s="3">
+      <c r="M18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N18" s="3">
         <v>73900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>88300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>57300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>53900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>70100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>64500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>42700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>61000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>86500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>37800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>50800</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1411,333 +1444,349 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E20" s="3">
         <v>700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>2900</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K20" s="3" t="s">
         <v>8</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M20" s="3">
+      <c r="M20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N20" s="3">
         <v>1400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>1200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>1600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>1900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>178400</v>
+      </c>
+      <c r="E21" s="3">
         <v>192700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>205300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>141900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>41500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>176500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>476700</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N21" s="3">
         <v>602600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>549900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>515900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>491700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>533200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>462200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>430500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>427600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>471100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>375400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>388800</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>300</v>
+      </c>
+      <c r="E22" s="3">
         <v>500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>8600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>3700</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>13200</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K22" s="3" t="s">
         <v>8</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M22" s="3">
+      <c r="M22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N22" s="3">
         <v>5000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>4600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>3700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>3800</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>4300</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>4500</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>4700</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>5600</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>5800</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>5400</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>32800</v>
+      </c>
+      <c r="E23" s="3">
         <v>44300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>48600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>2900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-400800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>27400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>6900</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K23" s="3" t="s">
         <v>8</v>
       </c>
       <c r="L23" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M23" s="3">
+      <c r="M23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N23" s="3">
         <v>70300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>82100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>53400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>50000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>66800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>60700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>39200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>57000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>82600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>32300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>45300</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E24" s="3">
         <v>11400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>12300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-132000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>6900</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-700</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K24" s="3" t="s">
         <v>8</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M24" s="3">
+      <c r="M24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N24" s="3">
         <v>14200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>18500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>12200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>11500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>14300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>20200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>13900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>20700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>29300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>10700</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>15800</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1801,138 +1850,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>24300</v>
+      </c>
+      <c r="E26" s="3">
         <v>33000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>36300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>2900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-268800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>20500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>7600</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K26" s="3" t="s">
         <v>8</v>
       </c>
       <c r="L26" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M26" s="3">
+      <c r="M26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N26" s="3">
         <v>56100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>63500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>41200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>38500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>52400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>40600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>25300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>36300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>53300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>21600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>29500</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>24300</v>
+      </c>
+      <c r="E27" s="3">
         <v>33000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>36300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>2900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-268800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>20500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>7600</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K27" s="3" t="s">
         <v>8</v>
       </c>
       <c r="L27" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M27" s="3">
+      <c r="M27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N27" s="3">
         <v>56100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>63500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>41200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>38500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>52400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>40600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>25300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>36300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>53300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>21600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>29500</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1996,8 +2054,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2028,27 +2089,27 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N29" s="3">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="3">
         <v>-1800</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>2500</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
       <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>-200</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>137000</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
@@ -2061,8 +2122,11 @@
       <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2126,8 +2190,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2191,138 +2258,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-2900</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K32" s="3" t="s">
         <v>8</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M32" s="3">
+      <c r="M32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N32" s="3">
         <v>-1400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-1200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-1600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-1900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>24300</v>
+      </c>
+      <c r="E33" s="3">
         <v>33000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>36300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>2900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-268800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>20500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>7600</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K33" s="3" t="s">
         <v>8</v>
       </c>
       <c r="L33" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M33" s="3">
+      <c r="M33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N33" s="3">
         <v>56100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>61700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>43700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>38500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>52200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>177600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>25300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>36300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>53300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>21600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>29500</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2386,143 +2462,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>24300</v>
+      </c>
+      <c r="E35" s="3">
         <v>33000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>36300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>2900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-268800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>20500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>7600</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K35" s="3" t="s">
         <v>8</v>
       </c>
       <c r="L35" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M35" s="3">
+      <c r="M35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N35" s="3">
         <v>56100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>61700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>43700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>38500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>52200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>177600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>25300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>36300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>53300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>21600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>29500</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>8</v>
       </c>
       <c r="L38" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M38" s="2">
+      <c r="M38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2546,8 +2631,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2571,26 +2657,27 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>14800</v>
+      </c>
+      <c r="E41" s="3">
         <v>48000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>61100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>76100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>432900</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>8</v>
       </c>
@@ -2603,41 +2690,44 @@
       <c r="L41" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M41" s="3">
+      <c r="M41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N41" s="3">
         <v>124200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>15300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>35000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>94300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>189400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>51000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>126300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>260300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>348500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>308600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>319500</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2701,26 +2791,29 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>33900</v>
+      </c>
+      <c r="E43" s="3">
         <v>28400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>28700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>35100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>37700</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>8</v>
       </c>
@@ -2733,41 +2826,44 @@
       <c r="L43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M43" s="3">
+      <c r="M43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N43" s="3">
         <v>84000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>98200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>92300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>84300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>81400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>99900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>92200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>84800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>93700</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>95800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>86800</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2831,26 +2927,29 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>60300</v>
+      </c>
+      <c r="E45" s="3">
         <v>61700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>66600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>70100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>55900</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>8</v>
       </c>
@@ -2863,41 +2962,44 @@
       <c r="L45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M45" s="3">
+      <c r="M45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N45" s="3">
         <v>51500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>58700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>71400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>72500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>71400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>68200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>87000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>85800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>75500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>109100</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>72000</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2961,8 +3063,11 @@
       <c r="W46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2994,58 +3099,61 @@
         <v>0</v>
       </c>
       <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
         <v>86000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>105300</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>107800</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>125500</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>134000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>206500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>130500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>118600</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>113700</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>117200</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>118100</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1246900</v>
+      </c>
+      <c r="E48" s="3">
         <v>1183700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1143500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1135700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1104800</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>8</v>
       </c>
@@ -3058,59 +3166,62 @@
       <c r="L48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M48" s="3">
+      <c r="M48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N48" s="3">
         <v>1900200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1548000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1413100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1344400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1339500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1359800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1253700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1195100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1189000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1210700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1171100</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>18800</v>
+      </c>
+      <c r="E49" s="3">
         <v>14300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>15900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>16700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>12100</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I49" s="3" t="s">
         <v>8</v>
       </c>
@@ -3123,41 +3234,44 @@
       <c r="L49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M49" s="3">
+      <c r="M49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N49" s="3">
         <v>951100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>961800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>934300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>851200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>857000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>858500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>863200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>763000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>767300</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>774400</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>783800</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3221,8 +3335,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3286,26 +3403,29 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E52" s="3">
         <v>14500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>15900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>16000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>15200</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>8</v>
       </c>
@@ -3318,41 +3438,44 @@
       <c r="L52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M52" s="3">
+      <c r="M52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N52" s="3">
         <v>17700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>15400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>17200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>17300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>17400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>21700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>17800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>18000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>14700</v>
       </c>
-      <c r="V52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3416,26 +3539,29 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1416400</v>
+      </c>
+      <c r="E54" s="3">
         <v>1363500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1335600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1353500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1676700</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>8</v>
       </c>
@@ -3448,41 +3574,44 @@
       <c r="L54" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M54" s="3">
+      <c r="M54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N54" s="3">
         <v>3238000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2826700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2698900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2619000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2719000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2692300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2595000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2548100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2624500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2615700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>2551400</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3506,8 +3635,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3531,26 +3661,27 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>76900</v>
+      </c>
+      <c r="E57" s="3">
         <v>64000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>32800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>84600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>72200</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>8</v>
       </c>
@@ -3563,41 +3694,44 @@
       <c r="L57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M57" s="3">
+      <c r="M57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N57" s="3">
         <v>71800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>88400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>98500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>62300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>68400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>80800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>90400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>54700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>52100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>297800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>263700</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3661,26 +3795,29 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>562900</v>
+      </c>
+      <c r="E59" s="3">
         <v>512200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>512100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>507500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>593600</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>8</v>
       </c>
@@ -3693,41 +3830,44 @@
       <c r="L59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M59" s="3">
+      <c r="M59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N59" s="3">
         <v>665200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>285400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>291500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>281300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>294700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>292000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>298800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>290200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>288200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>62400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>62900</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3791,8 +3931,11 @@
       <c r="W60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3800,17 +3943,17 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
         <v>300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>285100</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -3824,40 +3967,43 @@
         <v>0</v>
       </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>408300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>424800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>297300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>272900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>358500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>368800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>372700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>401100</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>484700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>497800</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>496200</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3889,40 +4035,43 @@
         <v>0</v>
       </c>
       <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3">
         <v>279200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>267500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>248100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>257600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>241100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>222600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>259100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>260000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>268100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>276100</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>271600</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3986,8 +4135,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4051,8 +4203,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4116,26 +4271,29 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>694900</v>
+      </c>
+      <c r="E66" s="3">
         <v>630000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>596200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>642100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>950900</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>8</v>
       </c>
@@ -4148,41 +4306,44 @@
       <c r="L66" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M66" s="3">
+      <c r="M66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N66" s="3">
         <v>1424500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1066000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>935400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>874100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>962800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>964300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1021000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1006100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1124300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1134100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1094300</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4206,8 +4367,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4271,8 +4433,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4336,8 +4501,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4401,8 +4569,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4466,23 +4637,26 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>85400</v>
+      </c>
+      <c r="E72" s="3">
         <v>64300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>34700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1900</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>8</v>
       </c>
@@ -4498,41 +4672,44 @@
       <c r="L72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M72" s="3">
+      <c r="M72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N72" s="3">
         <v>2061700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2005300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>1946000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1904300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1867900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1819500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1644100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1620700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1586300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1535000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1515300</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4596,8 +4773,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4661,8 +4841,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4726,26 +4909,29 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>721500</v>
+      </c>
+      <c r="E76" s="3">
         <v>733500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>739400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>711300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>725900</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>8</v>
       </c>
@@ -4758,41 +4944,44 @@
       <c r="L76" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M76" s="3">
+      <c r="M76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N76" s="3">
         <v>1813500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1760700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1763500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1744800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1756200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1728000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1574000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1542100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1500200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1481600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1457100</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4856,143 +5045,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>8</v>
       </c>
       <c r="L80" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M80" s="2">
+      <c r="M80" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>24300</v>
+      </c>
+      <c r="E81" s="3">
         <v>33000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>36300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>2900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-268800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>20500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>7600</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K81" s="3" t="s">
         <v>8</v>
       </c>
       <c r="L81" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M81" s="3">
+      <c r="M81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N81" s="3">
         <v>56100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>61700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>43700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>38500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>52200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>177600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>25300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>36300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>53300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>21600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>29500</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5016,73 +5214,77 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>145300</v>
+      </c>
+      <c r="E83" s="3">
         <v>147900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>156300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>137600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>433700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>145400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>456500</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M83" s="3">
+      <c r="M83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N83" s="3">
         <v>527400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>463300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>458700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>437900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>462100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>397000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>386500</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>365100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>382600</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>337700</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>337800</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5146,8 +5348,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5211,8 +5416,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5276,8 +5484,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5341,8 +5552,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5406,73 +5620,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>30200</v>
+      </c>
+      <c r="E89" s="3">
         <v>40000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>20200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>18500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>337200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>22300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>163700</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K89" s="3" t="s">
         <v>8</v>
       </c>
       <c r="L89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M89" s="3">
+      <c r="M89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N89" s="3">
         <v>164700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-6500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>96200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>70200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>196600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-21100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>64700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>11400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>104200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>5400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>136300</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5496,73 +5716,77 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-21600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-18800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-27000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-23300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-45700</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-21200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-58700</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K91" s="3" t="s">
         <v>8</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M91" s="3">
+      <c r="M91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N91" s="3">
         <v>-23800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-25900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-20100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-15500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-17300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-15900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-15300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-14300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-12500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-23100</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-29900</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5626,8 +5850,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5691,73 +5918,79 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-24300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-13800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-23400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-30600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-44400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-11400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-64800</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M94" s="3">
+      <c r="M94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N94" s="3">
         <v>-26000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-70800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-148800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-25600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-18000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-19600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-160100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-15000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-10700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-16100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-24900</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5781,20 +6014,21 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>0</v>
+      </c>
+      <c r="E96" s="3">
         <v>-3300</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-3400</v>
       </c>
-      <c r="F96" s="3">
-        <v>0</v>
-      </c>
       <c r="G96" s="3">
         <v>0</v>
       </c>
@@ -5814,40 +6048,43 @@
         <v>0</v>
       </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-2400</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-2100</v>
       </c>
       <c r="O96" s="3">
         <v>-2100</v>
       </c>
       <c r="P96" s="3">
-        <v>0</v>
+        <v>-2100</v>
       </c>
       <c r="Q96" s="3">
-        <v>-2100</v>
+        <v>0</v>
       </c>
       <c r="R96" s="3">
         <v>-2100</v>
       </c>
       <c r="S96" s="3">
-        <v>-1900</v>
+        <v>-2100</v>
       </c>
       <c r="T96" s="3">
         <v>-1900</v>
       </c>
       <c r="U96" s="3">
-        <v>-2000</v>
+        <v>-1900</v>
       </c>
       <c r="V96" s="3">
         <v>-2000</v>
       </c>
       <c r="W96" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="X96" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5911,8 +6148,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5976,8 +6216,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6041,73 +6284,79 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-39000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-39300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-11800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-344700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>91300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-106500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>33400</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
       </c>
       <c r="L100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M100" s="3">
+      <c r="M100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N100" s="3">
         <v>-29900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>57700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-6800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-139700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-40200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-34500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-38700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-84700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-53600</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-34000</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6118,41 +6367,41 @@
         <v>0</v>
       </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>100</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
         <v>0</v>
       </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>100</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
       </c>
       <c r="L101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M101" s="3">
+      <c r="M101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N101" s="3">
         <v>100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-100</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
       <c r="R101" s="3">
         <v>0</v>
       </c>
@@ -6166,74 +6415,80 @@
         <v>0</v>
       </c>
       <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3">
         <v>100</v>
       </c>
-      <c r="W101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-33100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-13100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-15100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-356700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>384100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-95600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>132300</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K102" s="3" t="s">
         <v>8</v>
       </c>
       <c r="L102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M102" s="3">
+      <c r="M102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N102" s="3">
         <v>108900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-19700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-59300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-95100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>138400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-75200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-134100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-88200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>39900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-10900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>77200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AAN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AAN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="92">
   <si>
     <t>AAN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,305 +665,317 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="L7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="N7" s="2">
+      <c r="N7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>445900</v>
+      </c>
+      <c r="E8" s="3">
         <v>452800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>468400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>482300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>430800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1305500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>442300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1349800</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L8" s="3" t="s">
         <v>8</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N8" s="3">
+      <c r="N8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O8" s="3">
         <v>1012100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>993200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>953100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>927900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>954800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>884600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>838900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>815600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>844600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>795000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>769000</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>167700</v>
+      </c>
+      <c r="E9" s="3">
         <v>167500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>172800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>178000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>157400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>494000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>163800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>508700</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N9" s="3">
+      <c r="N9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O9" s="3">
         <v>37800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>49000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>40100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>51200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>53700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>70600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>55100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>65800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>67500</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>84500</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>64400</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>278200</v>
+      </c>
+      <c r="E10" s="3">
         <v>285300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>295600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>304300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>273400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>811500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>278500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>841100</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L10" s="3" t="s">
         <v>8</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N10" s="3">
+      <c r="N10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O10" s="3">
         <v>974300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>944200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>913000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>876700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>901100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>814000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>783800</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>749800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>777100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>710500</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>704600</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -988,8 +1000,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1056,8 +1069,11 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1124,144 +1140,153 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E14" s="3">
         <v>3300</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>2900</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>7800</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>21100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>480200</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>2500</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>33000</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O14" s="3">
         <v>13300</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>1800</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>500</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>19200</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>900</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>3400</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>2800</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>13400</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>300</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>15600</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E15" s="3">
         <v>1200</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>1600</v>
-      </c>
-      <c r="F15" s="3">
-        <v>1700</v>
       </c>
       <c r="G15" s="3">
         <v>1700</v>
       </c>
       <c r="H15" s="3">
+        <v>1700</v>
+      </c>
+      <c r="I15" s="3">
         <v>5100</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>2200</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>11100</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L15" s="3" t="s">
         <v>8</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N15" s="3">
+      <c r="N15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O15" s="3">
         <v>510800</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>447100</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>443400</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>415400</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>440000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>375700</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>365600</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>345400</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>362000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>316900</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>317100</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1283,144 +1308,151 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>426000</v>
+      </c>
+      <c r="E17" s="3">
         <v>419600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>424300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>433700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>427900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1698600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>412300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1332500</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L17" s="3" t="s">
         <v>8</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N17" s="3">
+      <c r="N17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O17" s="3">
         <v>938200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>904900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>895800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>874000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>884700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>820100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>796200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>754600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>758100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>757200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>718200</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>19900</v>
+      </c>
+      <c r="E18" s="3">
         <v>33200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>44100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>48600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>2900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-393100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>30000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>17300</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>8</v>
       </c>
       <c r="M18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N18" s="3">
+      <c r="N18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O18" s="3">
         <v>73900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>88300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>57300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>53900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>70100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>64500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>42700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>61000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>86500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>37800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>50800</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1445,144 +1477,151 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>500</v>
+      </c>
+      <c r="E20" s="3">
         <v>-100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>2900</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L20" s="3" t="s">
         <v>8</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N20" s="3">
+      <c r="N20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O20" s="3">
         <v>1400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>1200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>1600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>1900</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-100</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>164800</v>
+      </c>
+      <c r="E21" s="3">
         <v>178400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>192700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>205300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>141900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>41500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>176500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>476700</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O21" s="3">
         <v>602600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>549900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>515900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>491700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>533200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>462200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>430500</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>427600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>471100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>375400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>388800</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1590,203 +1629,212 @@
         <v>300</v>
       </c>
       <c r="E22" s="3">
+        <v>300</v>
+      </c>
+      <c r="F22" s="3">
         <v>500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>1400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>8600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>3700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>13200</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L22" s="3" t="s">
         <v>8</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N22" s="3">
+      <c r="N22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O22" s="3">
         <v>5000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>4600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>3700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>3800</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>4300</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>4500</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>4700</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>5600</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>5800</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>5400</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>20100</v>
+      </c>
+      <c r="E23" s="3">
         <v>32800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>44300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>48600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>2900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-400800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>27400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>6900</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L23" s="3" t="s">
         <v>8</v>
       </c>
       <c r="M23" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N23" s="3">
+      <c r="N23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O23" s="3">
         <v>70300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>82100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>53400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>50000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>66800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>60700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>39200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>57000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>82600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>32300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>45300</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E24" s="3">
         <v>8500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>11400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>12300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-132000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>6900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-700</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L24" s="3" t="s">
         <v>8</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N24" s="3">
+      <c r="N24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O24" s="3">
         <v>14200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>18500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>12200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>11500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>14300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>20200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>13900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>20700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>29300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>10700</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>15800</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1853,144 +1901,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>16300</v>
+      </c>
+      <c r="E26" s="3">
         <v>24300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>33000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>36300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>2900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-268800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>20500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>7600</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L26" s="3" t="s">
         <v>8</v>
       </c>
       <c r="M26" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N26" s="3">
+      <c r="N26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O26" s="3">
         <v>56100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>63500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>41200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>38500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>52400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>40600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>25300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>36300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>53300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>21600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>29500</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>16300</v>
+      </c>
+      <c r="E27" s="3">
         <v>24300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>33000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>36300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-268800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>20500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>7600</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L27" s="3" t="s">
         <v>8</v>
       </c>
       <c r="M27" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N27" s="3">
+      <c r="N27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O27" s="3">
         <v>56100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>63500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>41200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>38500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>52400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>40600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>25300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>36300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>53300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>21600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>29500</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2057,8 +2114,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2092,27 +2152,27 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O29" s="3">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="3">
         <v>-1800</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>2500</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
       <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
         <v>-200</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>137000</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
@@ -2125,8 +2185,11 @@
       <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2193,8 +2256,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2261,144 +2327,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E32" s="3">
         <v>100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-2900</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L32" s="3" t="s">
         <v>8</v>
       </c>
       <c r="M32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N32" s="3">
+      <c r="N32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O32" s="3">
         <v>-1400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-1200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-1600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-1900</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>100</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>16300</v>
+      </c>
+      <c r="E33" s="3">
         <v>24300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>33000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>36300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-268800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>20500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>7600</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L33" s="3" t="s">
         <v>8</v>
       </c>
       <c r="M33" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N33" s="3">
+      <c r="N33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O33" s="3">
         <v>56100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>61700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>43700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>38500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>52200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>177600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>25300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>36300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>53300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>21600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>29500</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2465,149 +2540,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>16300</v>
+      </c>
+      <c r="E35" s="3">
         <v>24300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>33000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>36300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-268800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>20500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>7600</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L35" s="3" t="s">
         <v>8</v>
       </c>
       <c r="M35" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N35" s="3">
+      <c r="N35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O35" s="3">
         <v>56100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>61700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>43700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>38500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>52200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>177600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>25300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>36300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>53300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>21600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>29500</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="L38" s="2" t="s">
         <v>8</v>
       </c>
       <c r="M38" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="N38" s="2">
+      <c r="N38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2632,8 +2716,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2658,29 +2743,30 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>22800</v>
+      </c>
+      <c r="E41" s="3">
         <v>14800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>48000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>61100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>76100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>432900</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>8</v>
       </c>
@@ -2693,41 +2779,44 @@
       <c r="M41" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N41" s="3">
+      <c r="N41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O41" s="3">
         <v>124200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>15300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>35000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>94300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>189400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>51000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>126300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>260300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>348500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>308600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>319500</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2794,29 +2883,32 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>33000</v>
+      </c>
+      <c r="E43" s="3">
         <v>33900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>28400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>28700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>35100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>37700</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>8</v>
       </c>
@@ -2829,41 +2921,44 @@
       <c r="M43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N43" s="3">
+      <c r="N43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O43" s="3">
         <v>84000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>98200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>92300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>84300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>81400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>99900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>92200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>84800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>93700</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>95800</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>86800</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2930,29 +3025,32 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>61200</v>
+      </c>
+      <c r="E45" s="3">
         <v>60300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>61700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>66600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>70100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>55900</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>8</v>
       </c>
@@ -2965,41 +3063,44 @@
       <c r="M45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N45" s="3">
+      <c r="N45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O45" s="3">
         <v>51500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>58700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>71400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>72500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>71400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>68200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>87000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>85800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>75500</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>109100</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>72000</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3066,8 +3167,11 @@
       <c r="X46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3102,61 +3206,64 @@
         <v>0</v>
       </c>
       <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3">
         <v>86000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>105300</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>107800</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>125500</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>134000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>206500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>130500</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>118600</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>113700</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>117200</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>118100</v>
       </c>
     </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1281200</v>
+      </c>
+      <c r="E48" s="3">
         <v>1246900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1183700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1143500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1135700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1104800</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>8</v>
       </c>
@@ -3169,62 +3276,65 @@
       <c r="M48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N48" s="3">
+      <c r="N48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O48" s="3">
         <v>1900200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1548000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1413100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1344400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1339500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1359800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1253700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1195100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1189000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1210700</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1171100</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>18200</v>
+      </c>
+      <c r="E49" s="3">
         <v>18800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>14300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>15900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>16700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>12100</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J49" s="3" t="s">
         <v>8</v>
       </c>
@@ -3237,41 +3347,44 @@
       <c r="M49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N49" s="3">
+      <c r="N49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O49" s="3">
         <v>951100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>961800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>934300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>851200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>857000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>858500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>863200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>763000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>767300</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>774400</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>783800</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3338,8 +3451,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3406,29 +3522,32 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E52" s="3">
         <v>14400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>14500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>15900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>16000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>15200</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>8</v>
       </c>
@@ -3441,41 +3560,44 @@
       <c r="M52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N52" s="3">
+      <c r="N52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O52" s="3">
         <v>17700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>15400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>17200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>17300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>17400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>21700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>17800</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>18000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>14700</v>
       </c>
-      <c r="W52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3542,29 +3664,32 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1441300</v>
+      </c>
+      <c r="E54" s="3">
         <v>1416400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1363500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1335600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1353500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1676700</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>8</v>
       </c>
@@ -3577,41 +3702,44 @@
       <c r="M54" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N54" s="3">
+      <c r="N54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O54" s="3">
         <v>3238000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2826700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2698900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2619000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2719000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2692300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2595000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2548100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2624500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>2615700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>2551400</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3636,8 +3764,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3662,29 +3791,30 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>83100</v>
+      </c>
+      <c r="E57" s="3">
         <v>76900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>64000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>32800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>84600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>72200</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>8</v>
       </c>
@@ -3697,41 +3827,44 @@
       <c r="M57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N57" s="3">
+      <c r="N57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O57" s="3">
         <v>71800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>88400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>98500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>62300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>68400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>80800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>90400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>54700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>52100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>297800</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>263700</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3798,29 +3931,32 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>572600</v>
+      </c>
+      <c r="E59" s="3">
         <v>562900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>512200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>512100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>507500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>593600</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>8</v>
       </c>
@@ -3833,41 +3969,44 @@
       <c r="M59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N59" s="3">
+      <c r="N59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O59" s="3">
         <v>665200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>285400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>291500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>281300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>294700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>292000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>298800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>290200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>288200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>62400</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>62900</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3934,29 +4073,32 @@
       <c r="X60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
       </c>
       <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
         <v>300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>285100</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -3970,40 +4112,43 @@
         <v>0</v>
       </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>408300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>424800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>297300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>272900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>358500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>368800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>372700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>401100</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>484700</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>497800</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>496200</v>
       </c>
     </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4038,40 +4183,43 @@
         <v>0</v>
       </c>
       <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3">
         <v>279200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>267500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>248100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>257600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>241100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>222600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>259100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>260000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>268100</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>276100</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>271600</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4138,8 +4286,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4206,8 +4357,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4274,29 +4428,32 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>723100</v>
+      </c>
+      <c r="E66" s="3">
         <v>694900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>630000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>596200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>642100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>950900</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>8</v>
       </c>
@@ -4309,41 +4466,44 @@
       <c r="M66" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N66" s="3">
+      <c r="N66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O66" s="3">
         <v>1424500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1066000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>935400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>874100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>962800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>964300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1021000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1006100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1124300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1134100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1094300</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4368,8 +4528,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4436,8 +4597,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4504,8 +4668,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4572,8 +4739,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4640,26 +4810,29 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>98500</v>
+      </c>
+      <c r="E72" s="3">
         <v>85400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>64300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>34700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1900</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>8</v>
       </c>
@@ -4675,41 +4848,44 @@
       <c r="M72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N72" s="3">
+      <c r="N72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O72" s="3">
         <v>2061700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>2005300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>1946000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1904300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1867900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1819500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1644100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1620700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1586300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1535000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>1515300</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4776,8 +4952,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4844,8 +5023,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4912,29 +5094,32 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>718200</v>
+      </c>
+      <c r="E76" s="3">
         <v>721500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>733500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>739400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>711300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>725900</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>8</v>
       </c>
@@ -4947,41 +5132,44 @@
       <c r="M76" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N76" s="3">
+      <c r="N76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O76" s="3">
         <v>1813500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1760700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1763500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1744800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1756200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1728000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1574000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1542100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1500200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1481600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1457100</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5048,149 +5236,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="L80" s="2" t="s">
         <v>8</v>
       </c>
       <c r="M80" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="N80" s="2">
+      <c r="N80" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>16300</v>
+      </c>
+      <c r="E81" s="3">
         <v>24300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>33000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>36300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-268800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>20500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>7600</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L81" s="3" t="s">
         <v>8</v>
       </c>
       <c r="M81" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N81" s="3">
+      <c r="N81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O81" s="3">
         <v>56100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>61700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>43700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>38500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>52200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>177600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>25300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>36300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>53300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>21600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>29500</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5215,76 +5412,80 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>144400</v>
+      </c>
+      <c r="E83" s="3">
         <v>145300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>147900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>156300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>137600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>433700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>145400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>456500</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L83" s="3" t="s">
         <v>8</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N83" s="3">
+      <c r="N83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O83" s="3">
         <v>527400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>463300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>458700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>437900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>462100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>397000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>386500</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>365100</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>382600</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>337700</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>337800</v>
       </c>
     </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5351,8 +5552,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5419,8 +5623,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5487,8 +5694,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5555,8 +5765,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5623,76 +5836,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>45600</v>
+      </c>
+      <c r="E89" s="3">
         <v>30200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>40000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>20200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>18500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>337200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>22300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>163700</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>8</v>
       </c>
       <c r="M89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N89" s="3">
+      <c r="N89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O89" s="3">
         <v>164700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-6500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>96200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>70200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>196600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-21100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>64700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>11400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>104200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>5400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>136300</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5717,76 +5936,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-25200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-21600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-18800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-27000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-23300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-45700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-21200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-58700</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>8</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N91" s="3">
+      <c r="N91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O91" s="3">
         <v>-23800</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-25900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-20100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-15500</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-17300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-15900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-15300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-14300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-12500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-23100</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-29900</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5853,8 +6076,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5921,76 +6147,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-23800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-24300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-13800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-23400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-30600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-44400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-11400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-64800</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>8</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N94" s="3">
+      <c r="N94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O94" s="3">
         <v>-26000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-70800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-148800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-25600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-18000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-19600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-160100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-15000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-10700</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-16100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-24900</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6015,23 +6247,24 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-3200</v>
       </c>
       <c r="E96" s="3">
+        <v>0</v>
+      </c>
+      <c r="F96" s="3">
         <v>-3300</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-3400</v>
       </c>
-      <c r="G96" s="3">
-        <v>0</v>
-      </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
@@ -6051,40 +6284,43 @@
         <v>0</v>
       </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-2400</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-2100</v>
       </c>
       <c r="P96" s="3">
         <v>-2100</v>
       </c>
       <c r="Q96" s="3">
-        <v>0</v>
+        <v>-2100</v>
       </c>
       <c r="R96" s="3">
-        <v>-2100</v>
+        <v>0</v>
       </c>
       <c r="S96" s="3">
         <v>-2100</v>
       </c>
       <c r="T96" s="3">
-        <v>-1900</v>
+        <v>-2100</v>
       </c>
       <c r="U96" s="3">
         <v>-1900</v>
       </c>
       <c r="V96" s="3">
-        <v>-2000</v>
+        <v>-1900</v>
       </c>
       <c r="W96" s="3">
         <v>-2000</v>
       </c>
       <c r="X96" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6151,8 +6387,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6219,8 +6458,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6287,76 +6529,82 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-13800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-39000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-39300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-11800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-344700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>91300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-106500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>33400</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>8</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N100" s="3">
+      <c r="N100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O100" s="3">
         <v>-29900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>57700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-6800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-139700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-40200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-34500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-38700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-84700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-53600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-34000</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6370,41 +6618,41 @@
         <v>0</v>
       </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>100</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
         <v>0</v>
       </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>100</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L101" s="3" t="s">
         <v>8</v>
       </c>
       <c r="M101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N101" s="3">
+      <c r="N101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O101" s="3">
         <v>100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-100</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
       <c r="S101" s="3">
         <v>0</v>
       </c>
@@ -6418,77 +6666,83 @@
         <v>0</v>
       </c>
       <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
         <v>100</v>
       </c>
-      <c r="X101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-33100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-13100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-15100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-356700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>384100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-95600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>132300</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>8</v>
       </c>
       <c r="M102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N102" s="3">
+      <c r="N102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O102" s="3">
         <v>108900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-19700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-59300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-95100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>138400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-75200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-134100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-88200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>39900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-10900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>77200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AAN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AAN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="92">
   <si>
     <t>AAN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,317 +665,330 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="M7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="N7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="O7" s="2">
+      <c r="O7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>460500</v>
+      </c>
+      <c r="E8" s="3">
         <v>445900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>452800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>468400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>482300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>430800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1305500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>442300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1349800</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M8" s="3" t="s">
         <v>8</v>
       </c>
       <c r="N8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O8" s="3">
+      <c r="O8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P8" s="3">
         <v>1012100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>993200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>953100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>927900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>954800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>884600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>838900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>815600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>844600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>795000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>769000</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>171100</v>
+      </c>
+      <c r="E9" s="3">
         <v>167700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>167500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>172800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>178000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>157400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>494000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>163800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>508700</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="N9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O9" s="3">
+      <c r="O9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P9" s="3">
         <v>37800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>49000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>40100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>51200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>53700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>70600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>55100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>65800</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>67500</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>84500</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>64400</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>289400</v>
+      </c>
+      <c r="E10" s="3">
         <v>278200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>285300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>295600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>304300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>273400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>811500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>278500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>841100</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M10" s="3" t="s">
         <v>8</v>
       </c>
       <c r="N10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O10" s="3">
+      <c r="O10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P10" s="3">
         <v>974300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>944200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>913000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>876700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>901100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>814000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>783800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>749800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>777100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>710500</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>704600</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1001,8 +1014,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1072,8 +1086,11 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1143,150 +1160,159 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E14" s="3">
         <v>1800</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>3300</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>2900</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>7800</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>21100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>480200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>2500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>33000</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P14" s="3">
         <v>13300</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>1800</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>500</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>19200</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>900</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>3400</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>2800</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>13400</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>300</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>15600</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>800</v>
+      </c>
+      <c r="E15" s="3">
         <v>1000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>1200</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>1600</v>
-      </c>
-      <c r="G15" s="3">
-        <v>1700</v>
       </c>
       <c r="H15" s="3">
         <v>1700</v>
       </c>
       <c r="I15" s="3">
+        <v>1700</v>
+      </c>
+      <c r="J15" s="3">
         <v>5100</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>2200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>11100</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M15" s="3" t="s">
         <v>8</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O15" s="3">
+      <c r="O15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P15" s="3">
         <v>510800</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>447100</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>443400</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>415400</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>440000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>375700</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>365600</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>345400</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>362000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>316900</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>317100</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1309,150 +1335,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>430400</v>
+      </c>
+      <c r="E17" s="3">
         <v>426000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>419600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>424300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>433700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>427900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1698600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>412300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1332500</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M17" s="3" t="s">
         <v>8</v>
       </c>
       <c r="N17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O17" s="3">
+      <c r="O17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P17" s="3">
         <v>938200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>904900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>895800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>874000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>884700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>820100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>796200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>754600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>758100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>757200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>718200</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>30200</v>
+      </c>
+      <c r="E18" s="3">
         <v>19900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>33200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>44100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>48600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>2900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-393100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>30000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>17300</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>8</v>
       </c>
       <c r="N18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O18" s="3">
+      <c r="O18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P18" s="3">
         <v>73900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>88300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>57300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>53900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>70100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>64500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>42700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>61000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>86500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>37800</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>50800</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1478,363 +1511,379 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E20" s="3">
         <v>500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2900</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M20" s="3" t="s">
         <v>8</v>
       </c>
       <c r="N20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O20" s="3">
+      <c r="O20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P20" s="3">
         <v>1400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>1000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>1200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>1600</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>1900</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-100</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>182100</v>
+      </c>
+      <c r="E21" s="3">
         <v>164800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>178400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>192700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>205300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>141900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>41500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>176500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>476700</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="N21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P21" s="3">
         <v>602600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>549900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>515900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>491700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>533200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>462200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>430500</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>427600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>471100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>375400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>388800</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E22" s="3">
         <v>300</v>
       </c>
       <c r="F22" s="3">
+        <v>300</v>
+      </c>
+      <c r="G22" s="3">
         <v>500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>1400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>8600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>3700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>13200</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M22" s="3" t="s">
         <v>8</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O22" s="3">
+      <c r="O22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P22" s="3">
         <v>5000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>4600</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>3700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>3800</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>4300</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>4500</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>4700</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>5600</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>5800</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>5400</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>28900</v>
+      </c>
+      <c r="E23" s="3">
         <v>20100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>32800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>44300</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>48600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-400800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>27400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>6900</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M23" s="3" t="s">
         <v>8</v>
       </c>
       <c r="N23" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O23" s="3">
+      <c r="O23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P23" s="3">
         <v>70300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>82100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>53400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>50000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>66800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>60700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>39200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>57000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>82600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>32300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>45300</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E24" s="3">
         <v>3800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>8500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>11400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>12300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-132000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>6900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-700</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M24" s="3" t="s">
         <v>8</v>
       </c>
       <c r="N24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O24" s="3">
+      <c r="O24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P24" s="3">
         <v>14200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>18500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>12200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>11500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>14300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>20200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>13900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>20700</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>29300</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>10700</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>15800</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1904,150 +1953,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>21500</v>
+      </c>
+      <c r="E26" s="3">
         <v>16300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>24300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>33000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>36300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>2900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-268800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>20500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>7600</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M26" s="3" t="s">
         <v>8</v>
       </c>
       <c r="N26" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O26" s="3">
+      <c r="O26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P26" s="3">
         <v>56100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>63500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>41200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>38500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>52400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>40600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>25300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>36300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>53300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>21600</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>29500</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>21500</v>
+      </c>
+      <c r="E27" s="3">
         <v>16300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>24300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>33000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>36300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-268800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>20500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>7600</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M27" s="3" t="s">
         <v>8</v>
       </c>
       <c r="N27" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O27" s="3">
+      <c r="O27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P27" s="3">
         <v>56100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>63500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>41200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>38500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>52400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>40600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>25300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>36300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>53300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>21600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>29500</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2117,8 +2175,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2155,27 +2216,27 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P29" s="3">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>2500</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
       <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
         <v>-200</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>137000</v>
       </c>
-      <c r="U29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
@@ -2188,8 +2249,11 @@
       <c r="Y29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2259,8 +2323,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2330,150 +2397,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>900</v>
+      </c>
+      <c r="E32" s="3">
         <v>-500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2900</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M32" s="3" t="s">
         <v>8</v>
       </c>
       <c r="N32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O32" s="3">
+      <c r="O32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P32" s="3">
         <v>-1400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-1000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-1200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-1600</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-1900</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>100</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>21500</v>
+      </c>
+      <c r="E33" s="3">
         <v>16300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>24300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>33000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>36300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-268800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>20500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>7600</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M33" s="3" t="s">
         <v>8</v>
       </c>
       <c r="N33" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O33" s="3">
+      <c r="O33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P33" s="3">
         <v>56100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>61700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>43700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>38500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>52200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>177600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>25300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>36300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>53300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>21600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>29500</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2543,155 +2619,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>21500</v>
+      </c>
+      <c r="E35" s="3">
         <v>16300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>24300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>33000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>36300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>2900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-268800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>20500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>7600</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M35" s="3" t="s">
         <v>8</v>
       </c>
       <c r="N35" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O35" s="3">
+      <c r="O35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P35" s="3">
         <v>56100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>61700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>43700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>38500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>52200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>177600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>25300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>36300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>53300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>21600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>29500</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="M38" s="2" t="s">
         <v>8</v>
       </c>
       <c r="N38" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="O38" s="2">
+      <c r="O38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2717,8 +2802,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2744,32 +2830,33 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E41" s="3">
         <v>22800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>14800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>48000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>61100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>76100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>432900</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>8</v>
       </c>
@@ -2782,41 +2869,44 @@
       <c r="N41" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O41" s="3">
+      <c r="O41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P41" s="3">
         <v>124200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>15300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>35000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>94300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>189400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>51000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>126300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>260300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>348500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>308600</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>319500</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2886,32 +2976,35 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>29600</v>
+      </c>
+      <c r="E43" s="3">
         <v>33000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>33900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>28400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>28700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>35100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>37700</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K43" s="3" t="s">
         <v>8</v>
       </c>
@@ -2924,41 +3017,44 @@
       <c r="N43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O43" s="3">
+      <c r="O43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P43" s="3">
         <v>84000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>98200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>92300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>84300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>81400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>99900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>92200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>84800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>93700</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>95800</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>86800</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3028,32 +3124,35 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>61000</v>
+      </c>
+      <c r="E45" s="3">
         <v>61200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>60300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>61700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>66600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>70100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>55900</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>8</v>
       </c>
@@ -3066,41 +3165,44 @@
       <c r="N45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O45" s="3">
+      <c r="O45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P45" s="3">
         <v>51500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>58700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>71400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>72500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>71400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>68200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>87000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>85800</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>75500</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>109100</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>72000</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3170,8 +3272,11 @@
       <c r="Y46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3209,64 +3314,67 @@
         <v>0</v>
       </c>
       <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3">
         <v>86000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>105300</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>107800</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>125500</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>134000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>206500</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>130500</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>118600</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>113700</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>117200</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>118100</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1288100</v>
+      </c>
+      <c r="E48" s="3">
         <v>1281200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1246900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1183700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1143500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1135700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1104800</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>8</v>
       </c>
@@ -3279,65 +3387,68 @@
       <c r="N48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O48" s="3">
+      <c r="O48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P48" s="3">
         <v>1900200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1548000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1413100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1344400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1339500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1359800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1253700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1195100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1189000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1210700</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>1171100</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>17300</v>
+      </c>
+      <c r="E49" s="3">
         <v>18200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>18800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>14300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>15900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>16700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>12100</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K49" s="3" t="s">
         <v>8</v>
       </c>
@@ -3350,41 +3461,44 @@
       <c r="N49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O49" s="3">
+      <c r="O49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P49" s="3">
         <v>951100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>961800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>934300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>851200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>857000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>858500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>863200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>763000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>767300</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>774400</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>783800</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3454,8 +3568,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3525,32 +3642,35 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E52" s="3">
         <v>9500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>14400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>14500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>15900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>16000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>15200</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>8</v>
       </c>
@@ -3563,41 +3683,44 @@
       <c r="N52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O52" s="3">
+      <c r="O52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P52" s="3">
         <v>17700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>15400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>17200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>17300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>17400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>21700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>17800</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>18000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>14700</v>
       </c>
-      <c r="X52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Y52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3667,32 +3790,35 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1446400</v>
+      </c>
+      <c r="E54" s="3">
         <v>1441300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1416400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1363500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1335600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1353500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1676700</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>8</v>
       </c>
@@ -3705,41 +3831,44 @@
       <c r="N54" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O54" s="3">
+      <c r="O54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P54" s="3">
         <v>3238000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2826700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2698900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2619000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2719000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2692300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2595000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2548100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>2624500</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>2615700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>2551400</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3765,8 +3894,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3792,32 +3922,33 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>83900</v>
+      </c>
+      <c r="E57" s="3">
         <v>83100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>76900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>64000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>32800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>84600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>72200</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>8</v>
       </c>
@@ -3830,41 +3961,44 @@
       <c r="N57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O57" s="3">
+      <c r="O57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P57" s="3">
         <v>71800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>88400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>98500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>62300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>68400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>80800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>90400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>54700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>52100</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>297800</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>263700</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3934,32 +4068,35 @@
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>572700</v>
+      </c>
+      <c r="E59" s="3">
         <v>572600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>562900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>512200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>512100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>507500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>593600</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>8</v>
       </c>
@@ -3972,41 +4109,44 @@
       <c r="N59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O59" s="3">
+      <c r="O59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P59" s="3">
         <v>665200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>285400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>291500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>281300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>294700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>292000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>298800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>290200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>288200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>62400</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>62900</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4076,32 +4216,35 @@
       <c r="Y60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
         <v>10000</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
       <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
         <v>300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>285100</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -4115,40 +4258,43 @@
         <v>0</v>
       </c>
       <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
         <v>408300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>424800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>297300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>272900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>358500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>368800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>372700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>401100</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>484700</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>497800</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>496200</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4186,40 +4332,43 @@
         <v>0</v>
       </c>
       <c r="O62" s="3">
+        <v>0</v>
+      </c>
+      <c r="P62" s="3">
         <v>279200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>267500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>248100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>257600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>241100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>222600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>259100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>260000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>268100</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>276100</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>271600</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4289,8 +4438,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4360,8 +4512,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4431,32 +4586,35 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>715500</v>
+      </c>
+      <c r="E66" s="3">
         <v>723100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>694900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>630000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>596200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>642100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>950900</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>8</v>
       </c>
@@ -4469,41 +4627,44 @@
       <c r="N66" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O66" s="3">
+      <c r="O66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P66" s="3">
         <v>1424500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1066000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>935400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>874100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>962800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>964300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1021000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1006100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1124300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1134100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1094300</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4529,8 +4690,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4600,8 +4762,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4671,8 +4836,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4742,8 +4910,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4813,29 +4984,32 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>116500</v>
+      </c>
+      <c r="E72" s="3">
         <v>98500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>85400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>64300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>34700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1900</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>8</v>
       </c>
@@ -4851,41 +5025,44 @@
       <c r="N72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O72" s="3">
+      <c r="O72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P72" s="3">
         <v>2061700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>2005300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>1946000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1904300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1867900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1819500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1644100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1620700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1586300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>1535000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>1515300</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4955,8 +5132,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5026,8 +5206,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5097,32 +5280,35 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>730900</v>
+      </c>
+      <c r="E76" s="3">
         <v>718200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>721500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>733500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>739400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>711300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>725900</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>8</v>
       </c>
@@ -5135,41 +5321,44 @@
       <c r="N76" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O76" s="3">
+      <c r="O76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P76" s="3">
         <v>1813500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1760700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1763500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1744800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1756200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1728000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1574000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1542100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1500200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1481600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>1457100</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5239,155 +5428,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="M80" s="2" t="s">
         <v>8</v>
       </c>
       <c r="N80" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="O80" s="2">
+      <c r="O80" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>21500</v>
+      </c>
+      <c r="E81" s="3">
         <v>16300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>24300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>33000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>36300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>2900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-268800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>20500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>7600</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M81" s="3" t="s">
         <v>8</v>
       </c>
       <c r="N81" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O81" s="3">
+      <c r="O81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P81" s="3">
         <v>56100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>61700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>43700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>38500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>52200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>177600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>25300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>36300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>53300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>21600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>29500</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5413,79 +5611,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>152900</v>
+      </c>
+      <c r="E83" s="3">
         <v>144400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>145300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>147900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>156300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>137600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>433700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>145400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>456500</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M83" s="3" t="s">
         <v>8</v>
       </c>
       <c r="N83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O83" s="3">
+      <c r="O83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P83" s="3">
         <v>527400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>463300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>458700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>437900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>462100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>397000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>386500</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>365100</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>382600</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>337700</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>337800</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5555,8 +5757,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5626,8 +5831,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5697,8 +5905,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5768,8 +5979,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5839,79 +6053,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>29100</v>
+      </c>
+      <c r="E89" s="3">
         <v>45600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>30200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>40000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>20200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>18500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>337200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>22300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>163700</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>8</v>
       </c>
       <c r="N89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O89" s="3">
+      <c r="O89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P89" s="3">
         <v>164700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-6500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>96200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>70200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>196600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-21100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>64700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>11400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>104200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>5400</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>136300</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5937,79 +6157,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-25100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-25200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-21600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-18800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-27000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-23300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-45700</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-21200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-58700</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M91" s="3" t="s">
         <v>8</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O91" s="3">
+      <c r="O91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P91" s="3">
         <v>-23800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-25900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-20100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-15500</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-17300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-15900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-15300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-14300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-12500</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-23100</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-29900</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6079,8 +6303,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6150,79 +6377,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-17100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-23800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-24300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-13800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-23400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-30600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-44400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-11400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-64800</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>8</v>
       </c>
       <c r="N94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O94" s="3">
+      <c r="O94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P94" s="3">
         <v>-26000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-70800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-148800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-25600</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-18000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-19600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-160100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-15000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-10700</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-16100</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-24900</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6248,26 +6481,27 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E96" s="3">
         <v>-3200</v>
       </c>
-      <c r="E96" s="3">
-        <v>0</v>
-      </c>
       <c r="F96" s="3">
+        <v>0</v>
+      </c>
+      <c r="G96" s="3">
         <v>-3300</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-3400</v>
       </c>
-      <c r="H96" s="3">
-        <v>0</v>
-      </c>
       <c r="I96" s="3">
         <v>0</v>
       </c>
@@ -6287,40 +6521,43 @@
         <v>0</v>
       </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-2400</v>
-      </c>
-      <c r="P96" s="3">
-        <v>-2100</v>
       </c>
       <c r="Q96" s="3">
         <v>-2100</v>
       </c>
       <c r="R96" s="3">
-        <v>0</v>
+        <v>-2100</v>
       </c>
       <c r="S96" s="3">
-        <v>-2100</v>
+        <v>0</v>
       </c>
       <c r="T96" s="3">
         <v>-2100</v>
       </c>
       <c r="U96" s="3">
-        <v>-1900</v>
+        <v>-2100</v>
       </c>
       <c r="V96" s="3">
         <v>-1900</v>
       </c>
       <c r="W96" s="3">
-        <v>-2000</v>
+        <v>-1900</v>
       </c>
       <c r="X96" s="3">
         <v>-2000</v>
       </c>
       <c r="Y96" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6390,8 +6627,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6461,8 +6701,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6532,79 +6775,85 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-21300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-13800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-39000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-39300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-11800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-344700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>91300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-106500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>33400</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>8</v>
       </c>
       <c r="N100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O100" s="3">
+      <c r="O100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P100" s="3">
         <v>-29900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>57700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-6800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-139700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-40200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-34500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-38700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-84700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-53600</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>100</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-34000</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6621,41 +6870,41 @@
         <v>0</v>
       </c>
       <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>100</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
         <v>0</v>
       </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>100</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M101" s="3" t="s">
         <v>8</v>
       </c>
       <c r="N101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O101" s="3">
+      <c r="O101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P101" s="3">
         <v>100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-200</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-100</v>
       </c>
-      <c r="S101" s="3">
-        <v>0</v>
-      </c>
       <c r="T101" s="3">
         <v>0</v>
       </c>
@@ -6669,80 +6918,86 @@
         <v>0</v>
       </c>
       <c r="X101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="3">
         <v>100</v>
       </c>
-      <c r="Y101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="E102" s="3">
         <v>8000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-33100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-13100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-15100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-356700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>384100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-95600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>132300</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M102" s="3" t="s">
         <v>8</v>
       </c>
       <c r="N102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O102" s="3">
+      <c r="O102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P102" s="3">
         <v>108900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-19700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-59300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-95100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>138400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-75200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-134100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-88200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>39900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-10900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>77200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AAN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AAN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="92">
   <si>
     <t>AAN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,330 +665,343 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="N7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="P7" s="2">
+      <c r="P7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>613100</v>
+      </c>
+      <c r="E8" s="3">
         <v>460500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>445900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>452800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>468400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>482300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>430800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1305500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>442300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1349800</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N8" s="3" t="s">
         <v>8</v>
       </c>
       <c r="O8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P8" s="3">
+      <c r="P8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q8" s="3">
         <v>1012100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>993200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>953100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>927900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>954800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>884600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>838900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>815600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>844600</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>795000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>769000</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>317200</v>
+      </c>
+      <c r="E9" s="3">
         <v>171100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>167700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>167500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>172800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>178000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>157400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>494000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>163800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>508700</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="O9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P9" s="3">
+      <c r="P9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q9" s="3">
         <v>37800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>49000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>40100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>51200</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>53700</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>70600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>55100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>65800</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>67500</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>84500</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>64400</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>295900</v>
+      </c>
+      <c r="E10" s="3">
         <v>289400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>278200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>285300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>295600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>304300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>273400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>811500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>278500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>841100</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N10" s="3" t="s">
         <v>8</v>
       </c>
       <c r="O10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P10" s="3">
+      <c r="P10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q10" s="3">
         <v>974300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>944200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>913000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>876700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>901100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>814000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>783800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>749800</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>777100</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>710500</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>704600</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1015,8 +1028,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1089,8 +1103,11 @@
       <c r="Z12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1163,156 +1180,165 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>13800</v>
+      </c>
+      <c r="E14" s="3">
         <v>7300</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>1800</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>3300</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>2900</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>7800</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>21100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>480200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>2500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>33000</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="3">
+      <c r="P14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q14" s="3">
         <v>13300</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>1800</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>500</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>19200</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>900</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>3400</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>2800</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>13400</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>300</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>15600</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E15" s="3">
         <v>800</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>1000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>1200</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>1600</v>
-      </c>
-      <c r="H15" s="3">
-        <v>1700</v>
       </c>
       <c r="I15" s="3">
         <v>1700</v>
       </c>
       <c r="J15" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K15" s="3">
         <v>5100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>2200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>11100</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N15" s="3" t="s">
         <v>8</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P15" s="3">
+      <c r="P15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q15" s="3">
         <v>510800</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>447100</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>443400</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>415400</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>440000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>375700</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>365600</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>345400</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>362000</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>316900</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>317100</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1336,156 +1362,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>622600</v>
+      </c>
+      <c r="E17" s="3">
         <v>430400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>426000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>419600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>424300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>433700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>427900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1698600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>412300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1332500</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N17" s="3" t="s">
         <v>8</v>
       </c>
       <c r="O17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P17" s="3">
+      <c r="P17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q17" s="3">
         <v>938200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>904900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>895800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>874000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>884700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>820100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>796200</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>754600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>758100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>757200</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>718200</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="E18" s="3">
         <v>30200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>19900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>33200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>44100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>48600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>2900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-393100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>30000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>17300</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>8</v>
       </c>
       <c r="O18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P18" s="3">
+      <c r="P18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q18" s="3">
         <v>73900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>88300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>57300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>53900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>70100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>64500</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>42700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>61000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>86500</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>37800</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>50800</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1512,378 +1545,394 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E20" s="3">
         <v>-900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2900</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N20" s="3" t="s">
         <v>8</v>
       </c>
       <c r="O20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P20" s="3">
+      <c r="P20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q20" s="3">
         <v>1400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>1000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>1200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>1600</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>1900</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-100</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>137000</v>
+      </c>
+      <c r="E21" s="3">
         <v>182100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>164800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>178400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>192700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>205300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>141900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>41500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>176500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>476700</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="O21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q21" s="3">
         <v>602600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>549900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>515900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>491700</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>533200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>462200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>430500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>427600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>471100</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>375400</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>388800</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E22" s="3">
         <v>400</v>
-      </c>
-      <c r="E22" s="3">
-        <v>300</v>
       </c>
       <c r="F22" s="3">
         <v>300</v>
       </c>
       <c r="G22" s="3">
+        <v>300</v>
+      </c>
+      <c r="H22" s="3">
         <v>500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>1400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>8600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>3700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>13200</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N22" s="3" t="s">
         <v>8</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P22" s="3">
+      <c r="P22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q22" s="3">
         <v>5000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>4600</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>3700</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>3800</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>4300</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>4500</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>4700</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>5600</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>5800</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>5400</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="E23" s="3">
         <v>28900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>20100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>32800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>44300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>48600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>2900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-400800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>27400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>6900</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N23" s="3" t="s">
         <v>8</v>
       </c>
       <c r="O23" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P23" s="3">
+      <c r="P23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q23" s="3">
         <v>70300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>82100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>53400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>50000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>66800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>60700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>39200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>57000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>82600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>32300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>45300</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="E24" s="3">
         <v>7400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>3800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>8500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>11400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>12300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-132000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>6900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-700</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N24" s="3" t="s">
         <v>8</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P24" s="3">
+      <c r="P24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q24" s="3">
         <v>14200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>18500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>12200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>11500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>14300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>20200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>13900</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>20700</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>29300</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>10700</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>15800</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1956,156 +2005,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E26" s="3">
         <v>21500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>16300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>24300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>33000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>36300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-268800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>20500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>7600</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N26" s="3" t="s">
         <v>8</v>
       </c>
       <c r="O26" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P26" s="3">
+      <c r="P26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q26" s="3">
         <v>56100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>63500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>41200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>38500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>52400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>40600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>25300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>36300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>53300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>21600</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>29500</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E27" s="3">
         <v>21500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>16300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>24300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>33000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>36300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-268800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>20500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>7600</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N27" s="3" t="s">
         <v>8</v>
       </c>
       <c r="O27" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P27" s="3">
+      <c r="P27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q27" s="3">
         <v>56100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>63500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>41200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>38500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>52400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>40600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>25300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>36300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>53300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>21600</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>29500</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2178,8 +2236,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2219,27 +2280,27 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q29" s="3">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R29" s="3">
         <v>-1800</v>
       </c>
-      <c r="R29" s="3">
+      <c r="S29" s="3">
         <v>2500</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
       <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
         <v>-200</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>137000</v>
       </c>
-      <c r="V29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
@@ -2252,8 +2313,11 @@
       <c r="Z29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2326,8 +2390,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2400,156 +2467,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E32" s="3">
         <v>900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-2900</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N32" s="3" t="s">
         <v>8</v>
       </c>
       <c r="O32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P32" s="3">
+      <c r="P32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-1000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-1200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-1600</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-1900</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>100</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E33" s="3">
         <v>21500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>16300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>24300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>33000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>36300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-268800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>20500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>7600</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N33" s="3" t="s">
         <v>8</v>
       </c>
       <c r="O33" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P33" s="3">
+      <c r="P33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q33" s="3">
         <v>56100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>61700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>43700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>38500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>52200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>177600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>25300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>36300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>53300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>21600</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>29500</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2622,161 +2698,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E35" s="3">
         <v>21500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>16300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>24300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>33000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>36300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-268800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>20500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>7600</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N35" s="3" t="s">
         <v>8</v>
       </c>
       <c r="O35" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P35" s="3">
+      <c r="P35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q35" s="3">
         <v>56100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>61700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>43700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>38500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>52200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>177600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>25300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>36300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>53300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>21600</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>29500</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="N38" s="2" t="s">
         <v>8</v>
       </c>
       <c r="O38" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="P38" s="2">
+      <c r="P38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2803,8 +2888,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2831,35 +2917,36 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>28200</v>
+      </c>
+      <c r="E41" s="3">
         <v>13500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>22800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>14800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>48000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>61100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>76100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>432900</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>8</v>
       </c>
@@ -2872,41 +2959,44 @@
       <c r="O41" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P41" s="3">
+      <c r="P41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q41" s="3">
         <v>124200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>15300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>35000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>94300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>189400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>51000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>126300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>260300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>348500</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>308600</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>319500</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2979,35 +3069,38 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>47800</v>
+      </c>
+      <c r="E43" s="3">
         <v>29600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>33000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>33900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>28400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>28700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>35100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>37700</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>8</v>
       </c>
@@ -3020,64 +3113,67 @@
       <c r="O43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P43" s="3">
+      <c r="P43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q43" s="3">
         <v>84000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>98200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>92300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>84300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>81400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>99900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>92200</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>84800</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>93700</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>95800</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>86800</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>0</v>
-      </c>
-      <c r="E44" s="3">
-        <v>0</v>
-      </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3">
-        <v>0</v>
+        <v>106300</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
@@ -3127,35 +3223,38 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>59200</v>
+      </c>
+      <c r="E45" s="3">
         <v>61000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>61200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>60300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>61700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>66600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>70100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>55900</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>8</v>
       </c>
@@ -3168,41 +3267,44 @@
       <c r="O45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P45" s="3">
+      <c r="P45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q45" s="3">
         <v>51500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>58700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>71400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>72500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>71400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>68200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>87000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>85800</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>75500</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>109100</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>72000</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3275,8 +3377,11 @@
       <c r="Z46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3317,67 +3422,70 @@
         <v>0</v>
       </c>
       <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3">
         <v>86000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>105300</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>107800</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>125500</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>134000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>206500</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>130500</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>118600</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>113700</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>117200</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>118100</v>
       </c>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1470400</v>
+      </c>
+      <c r="E48" s="3">
         <v>1288100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1281200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1246900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1183700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1143500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1135700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1104800</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>8</v>
       </c>
@@ -3390,68 +3498,71 @@
       <c r="O48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P48" s="3">
+      <c r="P48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q48" s="3">
         <v>1900200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1548000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1413100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1344400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1339500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1359800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1253700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1195100</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1189000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>1210700</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>1171100</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>185500</v>
+      </c>
+      <c r="E49" s="3">
         <v>17300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>18200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>18800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>14300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>15900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>16700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>12100</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>8</v>
       </c>
@@ -3464,41 +3575,44 @@
       <c r="O49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P49" s="3">
+      <c r="P49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q49" s="3">
         <v>951100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>961800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>934300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>851200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>857000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>858500</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>863200</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>763000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>767300</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>774400</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>783800</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3571,8 +3685,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3645,35 +3762,38 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>12100</v>
+      </c>
+      <c r="E52" s="3">
         <v>9900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>9500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>14400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>14500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>15900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>16000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>15200</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>8</v>
       </c>
@@ -3686,41 +3806,44 @@
       <c r="O52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P52" s="3">
+      <c r="P52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q52" s="3">
         <v>17700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>15400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>17200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>17300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>17400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>21700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>17800</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>18000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>14700</v>
       </c>
-      <c r="Y52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Z52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3793,35 +3916,38 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1931800</v>
+      </c>
+      <c r="E54" s="3">
         <v>1446400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1441300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1416400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1363500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1335600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1353500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1676700</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>8</v>
       </c>
@@ -3834,41 +3960,44 @@
       <c r="O54" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P54" s="3">
+      <c r="P54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q54" s="3">
         <v>3238000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2826700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2698900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2619000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2719000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2692300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2595000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>2548100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>2624500</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>2615700</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>2551400</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3895,8 +4024,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3923,35 +4053,36 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>79300</v>
+      </c>
+      <c r="E57" s="3">
         <v>83900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>83100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>76900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>64000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>32800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>84600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>72200</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>8</v>
       </c>
@@ -3964,41 +4095,44 @@
       <c r="O57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P57" s="3">
+      <c r="P57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q57" s="3">
         <v>71800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>88400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>98500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>62300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>68400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>80800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>90400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>54700</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>52100</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>297800</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>263700</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4071,35 +4205,38 @@
       <c r="Z58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>759300</v>
+      </c>
+      <c r="E59" s="3">
         <v>572700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>572600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>562900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>512200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>512100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>507500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>593600</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>8</v>
       </c>
@@ -4112,41 +4249,44 @@
       <c r="O59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P59" s="3">
+      <c r="P59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q59" s="3">
         <v>665200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>285400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>291500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>281300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>294700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>292000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>298800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>290200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>288200</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>62400</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>62900</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4219,35 +4359,38 @@
       <c r="Z60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>310300</v>
       </c>
       <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
         <v>10000</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
       <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
         <v>300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>285100</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -4261,40 +4404,43 @@
         <v>0</v>
       </c>
       <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>408300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>424800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>297300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>272900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>358500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>368800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>372700</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>401100</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>484700</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>497800</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>496200</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4335,40 +4481,43 @@
         <v>0</v>
       </c>
       <c r="P62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="3">
         <v>279200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>267500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>248100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>257600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>241100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>222600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>259100</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>260000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>268100</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>276100</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>271600</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4441,8 +4590,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4515,8 +4667,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4589,35 +4744,38 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1211300</v>
+      </c>
+      <c r="E66" s="3">
         <v>715500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>723100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>694900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>630000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>596200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>642100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>950900</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>8</v>
       </c>
@@ -4630,41 +4788,44 @@
       <c r="O66" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P66" s="3">
+      <c r="P66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q66" s="3">
         <v>1424500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1066000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>935400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>874100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>962800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>964300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1021000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1006100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1124300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1134100</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1094300</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4691,8 +4852,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4765,8 +4927,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4839,8 +5004,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4913,8 +5081,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4987,32 +5158,35 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>107600</v>
+      </c>
+      <c r="E72" s="3">
         <v>116500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>98500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>85400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>64300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>34700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1900</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>8</v>
       </c>
@@ -5028,41 +5202,44 @@
       <c r="O72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P72" s="3">
+      <c r="P72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q72" s="3">
         <v>2061700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>2005300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>1946000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1904300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1867900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1819500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1644100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1620700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>1586300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>1535000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>1515300</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5135,8 +5312,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5209,8 +5389,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5283,35 +5466,38 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>720500</v>
+      </c>
+      <c r="E76" s="3">
         <v>730900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>718200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>721500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>733500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>739400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>711300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>725900</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>8</v>
       </c>
@@ -5324,41 +5510,44 @@
       <c r="O76" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P76" s="3">
+      <c r="P76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q76" s="3">
         <v>1813500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1760700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1763500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1744800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1756200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1728000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1574000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1542100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1500200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>1481600</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>1457100</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5431,161 +5620,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="N80" s="2" t="s">
         <v>8</v>
       </c>
       <c r="O80" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="P80" s="2">
+      <c r="P80" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E81" s="3">
         <v>21500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>16300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>24300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>33000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>36300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-268800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>20500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>7600</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N81" s="3" t="s">
         <v>8</v>
       </c>
       <c r="O81" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P81" s="3">
+      <c r="P81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q81" s="3">
         <v>56100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>61700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>43700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>38500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>52200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>177600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>25300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>36300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>53300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>21600</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>29500</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5612,82 +5810,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>148000</v>
+      </c>
+      <c r="E83" s="3">
         <v>152900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>144400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>145300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>147900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>156300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>137600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>433700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>145400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>456500</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N83" s="3" t="s">
         <v>8</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P83" s="3">
+      <c r="P83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q83" s="3">
         <v>527400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>463300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>458700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>437900</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>462100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>397000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>386500</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>365100</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>382600</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>337700</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>337800</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5760,8 +5962,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5834,8 +6039,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5908,8 +6116,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5982,8 +6193,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6056,82 +6270,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>28000</v>
+      </c>
+      <c r="E89" s="3">
         <v>29100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>45600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>30200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>40000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>20200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>18500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>337200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>22300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>163700</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>8</v>
       </c>
       <c r="O89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P89" s="3">
+      <c r="P89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q89" s="3">
         <v>164700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-6500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>96200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>70200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>196600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-21100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>64700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>11400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>104200</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>5400</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>136300</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6158,82 +6378,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-32600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-25100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-25200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-21600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-18800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-27000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-23300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-45700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-21200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-58700</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N91" s="3" t="s">
         <v>8</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P91" s="3">
+      <c r="P91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-23800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-25900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-20100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-15500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-17300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-15900</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-15300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-14300</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-12500</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-23100</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-29900</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6306,8 +6530,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6380,82 +6607,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-297200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-17100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-23800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-24300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-13800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-23400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-30600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-44400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-11400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-64800</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N94" s="3" t="s">
         <v>8</v>
       </c>
       <c r="O94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P94" s="3">
+      <c r="P94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-26000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-70800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-148800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-25600</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-18000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-19600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-160100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-15000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-10700</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-16100</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-24900</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6482,29 +6715,30 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E96" s="3">
         <v>-3100</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-3200</v>
       </c>
-      <c r="F96" s="3">
-        <v>0</v>
-      </c>
       <c r="G96" s="3">
+        <v>0</v>
+      </c>
+      <c r="H96" s="3">
         <v>-3300</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-3400</v>
       </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
       <c r="J96" s="3">
         <v>0</v>
       </c>
@@ -6524,40 +6758,43 @@
         <v>0</v>
       </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-2400</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-2100</v>
       </c>
       <c r="R96" s="3">
         <v>-2100</v>
       </c>
       <c r="S96" s="3">
-        <v>0</v>
+        <v>-2100</v>
       </c>
       <c r="T96" s="3">
-        <v>-2100</v>
+        <v>0</v>
       </c>
       <c r="U96" s="3">
         <v>-2100</v>
       </c>
       <c r="V96" s="3">
-        <v>-1900</v>
+        <v>-2100</v>
       </c>
       <c r="W96" s="3">
         <v>-1900</v>
       </c>
       <c r="X96" s="3">
-        <v>-2000</v>
+        <v>-1900</v>
       </c>
       <c r="Y96" s="3">
         <v>-2000</v>
       </c>
       <c r="Z96" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="AA96" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6630,8 +6867,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6704,8 +6944,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6778,82 +7021,88 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>283900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-21300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-13800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-39000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-39300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-11800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-344700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>91300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-106500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>33400</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>8</v>
       </c>
       <c r="O100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P100" s="3">
+      <c r="P100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-29900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>57700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-6800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-139700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-40200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-34500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-38700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-84700</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-53600</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>100</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-34000</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6873,41 +7122,41 @@
         <v>0</v>
       </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>100</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
         <v>0</v>
       </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>100</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N101" s="3" t="s">
         <v>8</v>
       </c>
       <c r="O101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P101" s="3">
+      <c r="P101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q101" s="3">
         <v>100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-100</v>
       </c>
-      <c r="T101" s="3">
-        <v>0</v>
-      </c>
       <c r="U101" s="3">
         <v>0</v>
       </c>
@@ -6921,83 +7170,89 @@
         <v>0</v>
       </c>
       <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z101" s="3">
         <v>100</v>
       </c>
-      <c r="Z101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>14700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-9300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>8000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-33100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-13100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-15100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-356700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>384100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-95600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>132300</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N102" s="3" t="s">
         <v>8</v>
       </c>
       <c r="O102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P102" s="3">
+      <c r="P102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q102" s="3">
         <v>108900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-19700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-59300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-95100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>138400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-75200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-134100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-88200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>39900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-10900</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>77200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AAN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AAN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="92">
   <si>
     <t>AAN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,343 +665,356 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="O7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="P7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="Q7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>613100</v>
+        <v>593400</v>
       </c>
       <c r="E8" s="3">
-        <v>460500</v>
+        <v>610400</v>
       </c>
       <c r="F8" s="3">
-        <v>445900</v>
+        <v>456100</v>
       </c>
       <c r="G8" s="3">
-        <v>452800</v>
+        <v>444800</v>
       </c>
       <c r="H8" s="3">
-        <v>468400</v>
+        <v>452200</v>
       </c>
       <c r="I8" s="3">
-        <v>482300</v>
+        <v>467500</v>
       </c>
       <c r="J8" s="3">
+        <v>481100</v>
+      </c>
+      <c r="K8" s="3">
         <v>430800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1305500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>442300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1349800</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O8" s="3" t="s">
         <v>8</v>
       </c>
       <c r="P8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="Q8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R8" s="3">
         <v>1012100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>993200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>953100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>927900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>954800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>884600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>838900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>815600</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>844600</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>795000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>769000</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>295600</v>
+      </c>
+      <c r="E9" s="3">
         <v>317200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>171100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>167700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>167500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>172800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>178000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>157400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>494000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>163800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>508700</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="P9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="Q9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R9" s="3">
         <v>37800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>49000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>40100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>51200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>53700</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>70600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>55100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>65800</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>67500</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>84500</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>64400</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>295900</v>
+        <v>297800</v>
       </c>
       <c r="E10" s="3">
-        <v>289400</v>
+        <v>293200</v>
       </c>
       <c r="F10" s="3">
-        <v>278200</v>
+        <v>285000</v>
       </c>
       <c r="G10" s="3">
-        <v>285300</v>
+        <v>277100</v>
       </c>
       <c r="H10" s="3">
-        <v>295600</v>
+        <v>284700</v>
       </c>
       <c r="I10" s="3">
-        <v>304300</v>
+        <v>294700</v>
       </c>
       <c r="J10" s="3">
+        <v>303100</v>
+      </c>
+      <c r="K10" s="3">
         <v>273400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>811500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>278500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>841100</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O10" s="3" t="s">
         <v>8</v>
       </c>
       <c r="P10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="Q10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R10" s="3">
         <v>974300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>944200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>913000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>876700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>901100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>814000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>783800</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>749800</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>777100</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>710500</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>704600</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1029,8 +1042,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1106,8 +1120,11 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1183,162 +1200,171 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>29700</v>
+      </c>
+      <c r="E14" s="3">
         <v>13800</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>7300</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>1800</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>3300</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>2900</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>7800</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>21100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>480200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>2500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>33000</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R14" s="3">
         <v>13300</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>1800</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>500</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>19200</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>900</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>3400</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>2800</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>13400</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>300</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>15600</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E15" s="3">
         <v>2900</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>800</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>1000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>1200</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>1600</v>
-      </c>
-      <c r="I15" s="3">
-        <v>1700</v>
       </c>
       <c r="J15" s="3">
         <v>1700</v>
       </c>
       <c r="K15" s="3">
+        <v>1700</v>
+      </c>
+      <c r="L15" s="3">
         <v>5100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>2200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>11100</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O15" s="3" t="s">
         <v>8</v>
       </c>
       <c r="P15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="Q15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R15" s="3">
         <v>510800</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>447100</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>443400</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>415400</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>440000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>375700</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>365600</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>345400</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>362000</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>316900</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>317100</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1363,162 +1389,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>622600</v>
+        <v>610400</v>
       </c>
       <c r="E17" s="3">
-        <v>430400</v>
+        <v>619800</v>
       </c>
       <c r="F17" s="3">
-        <v>426000</v>
+        <v>425900</v>
       </c>
       <c r="G17" s="3">
-        <v>419600</v>
+        <v>424900</v>
       </c>
       <c r="H17" s="3">
-        <v>424300</v>
+        <v>418900</v>
       </c>
       <c r="I17" s="3">
-        <v>433700</v>
+        <v>423400</v>
       </c>
       <c r="J17" s="3">
+        <v>432500</v>
+      </c>
+      <c r="K17" s="3">
         <v>427900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1698600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>412300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1332500</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O17" s="3" t="s">
         <v>8</v>
       </c>
       <c r="P17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="Q17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R17" s="3">
         <v>938200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>904900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>895800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>874000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>884700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>820100</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>796200</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>754600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>758100</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>757200</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>718200</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-9500</v>
+        <v>-17000</v>
       </c>
       <c r="E18" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="F18" s="3">
         <v>30200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>19900</v>
       </c>
-      <c r="G18" s="3">
-        <v>33200</v>
-      </c>
       <c r="H18" s="3">
+        <v>33300</v>
+      </c>
+      <c r="I18" s="3">
         <v>44100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>48600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>2900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-393100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>30000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>17300</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>8</v>
       </c>
       <c r="P18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="Q18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R18" s="3">
         <v>73900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>88300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>57300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>53900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>70100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>64500</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>42700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>61000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>86500</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>37800</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>50800</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1546,393 +1579,409 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>2900</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O20" s="3" t="s">
         <v>8</v>
       </c>
       <c r="P20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="Q20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R20" s="3">
         <v>1400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>1000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>700</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>1200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>1600</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>1900</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-100</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>129200</v>
+      </c>
+      <c r="E21" s="3">
         <v>137000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>182100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>164800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>178400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>192700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>205300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>141900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>41500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>176500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>476700</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="P21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R21" s="3">
         <v>602600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>549900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>515900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>491700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>533200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>462200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>430500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>427600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>471100</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>375400</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>388800</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E22" s="3">
         <v>2500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>400</v>
-      </c>
-      <c r="F22" s="3">
-        <v>300</v>
       </c>
       <c r="G22" s="3">
         <v>300</v>
       </c>
       <c r="H22" s="3">
+        <v>300</v>
+      </c>
+      <c r="I22" s="3">
         <v>500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>8600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>3700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>13200</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O22" s="3" t="s">
         <v>8</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="Q22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R22" s="3">
         <v>5000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>4600</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>3700</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>3800</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>4300</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>4500</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>4700</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>5600</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>5800</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>5400</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-20600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-13500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>28900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>20100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>32800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>44300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>48600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>2900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-400800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>27400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>6900</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O23" s="3" t="s">
         <v>8</v>
       </c>
       <c r="P23" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="Q23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R23" s="3">
         <v>70300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>82100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>53400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>50000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>66800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>60700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>39200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>57000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>82600</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>32300</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>45300</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="E24" s="3">
         <v>-8100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>7400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>3800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>8500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>11400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>12300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-132000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>6900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-700</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O24" s="3" t="s">
         <v>8</v>
       </c>
       <c r="P24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="Q24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R24" s="3">
         <v>14200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>18500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>12200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>11500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>14300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>20200</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>13900</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>20700</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>29300</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>10700</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>15800</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2008,162 +2057,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-15600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-5300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>21500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>16300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>24300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>33000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>36300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>2900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-268800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>20500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>7600</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O26" s="3" t="s">
         <v>8</v>
       </c>
       <c r="P26" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="Q26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R26" s="3">
         <v>56100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>63500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>41200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>38500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>52400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>40600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>25300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>36300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>53300</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>21600</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>29500</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-15600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-5300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>21500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>16300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>24300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>33000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>36300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>2900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-268800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>20500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>7600</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O27" s="3" t="s">
         <v>8</v>
       </c>
       <c r="P27" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="Q27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R27" s="3">
         <v>56100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>63500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>41200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>38500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>52400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>40600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>25300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>36300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>53300</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>21600</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>29500</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2239,8 +2297,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2283,27 +2344,27 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R29" s="3">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S29" s="3">
         <v>-1800</v>
       </c>
-      <c r="S29" s="3">
+      <c r="T29" s="3">
         <v>2500</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
-      </c>
       <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
         <v>-200</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>137000</v>
       </c>
-      <c r="W29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="X29" s="3" t="s">
         <v>8</v>
       </c>
@@ -2316,8 +2377,11 @@
       <c r="AA29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2393,8 +2457,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2470,162 +2537,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>400</v>
+      </c>
+      <c r="E32" s="3">
         <v>1600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-2900</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O32" s="3" t="s">
         <v>8</v>
       </c>
       <c r="P32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="Q32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R32" s="3">
         <v>-1400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-1000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-700</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-1200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-1600</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-1900</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>100</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-15600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-5300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>21500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>16300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>24300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>33000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>36300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>2900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-268800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>20500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>7600</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O33" s="3" t="s">
         <v>8</v>
       </c>
       <c r="P33" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="Q33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R33" s="3">
         <v>56100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>61700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>43700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>38500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>52200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>177600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>25300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>36300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>53300</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>21600</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>29500</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2701,167 +2777,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-15600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-5300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>21500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>16300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>24300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>33000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>36300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>2900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-268800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>20500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>7600</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O35" s="3" t="s">
         <v>8</v>
       </c>
       <c r="P35" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="Q35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R35" s="3">
         <v>56100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>61700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>43700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>38500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>52200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>177600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>25300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>36300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>53300</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>21600</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>29500</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="O38" s="2" t="s">
         <v>8</v>
       </c>
       <c r="P38" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="Q38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2889,8 +2974,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2918,38 +3004,39 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>37800</v>
+      </c>
+      <c r="E41" s="3">
         <v>28200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>13500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>22800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>14800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>48000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>61100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>76100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>432900</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>8</v>
       </c>
@@ -2962,41 +3049,44 @@
       <c r="P41" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="Q41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R41" s="3">
         <v>124200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>15300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>35000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>94300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>189400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>51000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>126300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>260300</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>348500</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>308600</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>319500</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3072,38 +3162,41 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>45800</v>
+      </c>
+      <c r="E43" s="3">
         <v>47800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>29600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>33000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>33900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>28400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>28700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>35100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>37700</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>8</v>
       </c>
@@ -3116,50 +3209,53 @@
       <c r="P43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="Q43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R43" s="3">
         <v>84000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>98200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>92300</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>84300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>81400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>99900</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>92200</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>84800</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>93700</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>95800</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>86800</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>96500</v>
+      </c>
+      <c r="E44" s="3">
         <v>106300</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F44" s="3" t="s">
         <v>8</v>
       </c>
@@ -3175,8 +3271,8 @@
       <c r="J44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K44" s="3">
-        <v>0</v>
+      <c r="K44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L44" s="3">
         <v>0</v>
@@ -3226,38 +3322,41 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>65600</v>
+      </c>
+      <c r="E45" s="3">
         <v>59200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>61000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>61200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>60300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>61700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>66600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>70100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>55900</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>8</v>
       </c>
@@ -3270,41 +3369,44 @@
       <c r="P45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="Q45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R45" s="3">
         <v>51500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>58700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>71400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>72500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>71400</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>68200</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>87000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>85800</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>75500</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>109100</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>72000</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3380,8 +3482,11 @@
       <c r="AA46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3425,70 +3530,73 @@
         <v>0</v>
       </c>
       <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
         <v>86000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>105300</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>107800</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>125500</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>134000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>206500</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>130500</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>118600</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>113700</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>117200</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>118100</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1437200</v>
+      </c>
+      <c r="E48" s="3">
         <v>1470400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1288100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1281200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1246900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1183700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1143500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1135700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1104800</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>8</v>
       </c>
@@ -3501,71 +3609,74 @@
       <c r="P48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="Q48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R48" s="3">
         <v>1900200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1548000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1413100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1344400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1339500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1359800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1253700</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1195100</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>1189000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>1210700</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>1171100</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>172900</v>
+      </c>
+      <c r="E49" s="3">
         <v>185500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>17300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>18200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>18800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>14300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>15900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>16700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>12100</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M49" s="3" t="s">
         <v>8</v>
       </c>
@@ -3578,41 +3689,44 @@
       <c r="P49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="Q49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R49" s="3">
         <v>951100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>961800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>934300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>851200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>857000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>858500</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>863200</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>763000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>767300</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>774400</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>783800</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3688,8 +3802,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3765,38 +3882,41 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>12500</v>
+      </c>
+      <c r="E52" s="3">
         <v>12100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>9900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>9500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>14400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>14500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>15900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>16000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>15200</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>8</v>
       </c>
@@ -3809,41 +3929,44 @@
       <c r="P52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="Q52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R52" s="3">
         <v>17700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>15400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>17200</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>17300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>17400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>21700</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>17800</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>18000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>14700</v>
       </c>
-      <c r="Z52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AA52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3919,38 +4042,41 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1887800</v>
+      </c>
+      <c r="E54" s="3">
         <v>1931800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1446400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1441300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1416400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1363500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1335600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1353500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1676700</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>8</v>
       </c>
@@ -3963,41 +4089,44 @@
       <c r="P54" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="Q54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R54" s="3">
         <v>3238000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2826700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2698900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2619000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2719000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2692300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>2595000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>2548100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>2624500</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>2615700</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>2551400</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4025,8 +4154,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4054,38 +4184,39 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>91300</v>
+      </c>
+      <c r="E57" s="3">
         <v>79300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>83900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>83100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>76900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>64000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>32800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>84600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>72200</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>8</v>
       </c>
@@ -4098,64 +4229,67 @@
       <c r="P57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="Q57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R57" s="3">
         <v>71800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>88400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>98500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>62300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>68400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>80800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>90400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>54700</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>52100</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>297800</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>263700</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>19100</v>
       </c>
       <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
+        <v>26900</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -4208,38 +4342,41 @@
       <c r="AA58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>757200</v>
+      </c>
+      <c r="E59" s="3">
         <v>759300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>572700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>572600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>562900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>512200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>512100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>507500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>593600</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>8</v>
       </c>
@@ -4252,41 +4389,44 @@
       <c r="P59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="Q59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R59" s="3">
         <v>665200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>285400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>291500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>281300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>294700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>292000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>298800</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>290200</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>288200</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>62400</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>62900</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4362,38 +4502,41 @@
       <c r="AA60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>310300</v>
+        <v>254800</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>283400</v>
       </c>
       <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
         <v>10000</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
       <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
         <v>300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>285100</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -4407,40 +4550,43 @@
         <v>0</v>
       </c>
       <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
         <v>408300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>424800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>297300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>272900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>358500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>368800</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>372700</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>401100</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>484700</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>497800</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>496200</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4484,40 +4630,43 @@
         <v>0</v>
       </c>
       <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
         <v>279200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>267500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>248100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>257600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>241100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>222600</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>259100</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>260000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>268100</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>276100</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>271600</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4593,8 +4742,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4670,8 +4822,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4747,38 +4902,41 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1184100</v>
+      </c>
+      <c r="E66" s="3">
         <v>1211300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>715500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>723100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>694900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>630000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>596200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>642100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>950900</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>8</v>
       </c>
@@ -4791,41 +4949,44 @@
       <c r="P66" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="Q66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R66" s="3">
         <v>1424500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1066000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>935400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>874100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>962800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>964300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1021000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1006100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1124300</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1134100</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>1094300</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4853,8 +5014,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4930,8 +5092,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5007,8 +5172,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5084,8 +5252,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5161,35 +5332,38 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>88500</v>
+      </c>
+      <c r="E72" s="3">
         <v>107600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>116500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>98500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>85400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>64300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>34700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1900</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>8</v>
       </c>
@@ -5205,41 +5379,44 @@
       <c r="P72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="Q72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R72" s="3">
         <v>2061700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>2005300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>1946000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1904300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1867900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1819500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1644100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>1620700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>1586300</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>1535000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>1515300</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5315,8 +5492,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5392,8 +5572,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5469,38 +5652,41 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>703700</v>
+      </c>
+      <c r="E76" s="3">
         <v>720500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>730900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>718200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>721500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>733500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>739400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>711300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>725900</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>8</v>
       </c>
@@ -5513,41 +5699,44 @@
       <c r="P76" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="Q76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R76" s="3">
         <v>1813500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1760700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1763500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1744800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1756200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1728000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1574000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1542100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>1500200</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>1481600</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>1457100</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5623,167 +5812,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="O80" s="2" t="s">
         <v>8</v>
       </c>
       <c r="P80" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="Q80" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-15600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-5300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>21500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>16300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>24300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>33000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>36300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>2900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-268800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>20500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>7600</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O81" s="3" t="s">
         <v>8</v>
       </c>
       <c r="P81" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="Q81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R81" s="3">
         <v>56100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>61700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>43700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>38500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>52200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>177600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>25300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>36300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>53300</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>21600</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>29500</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5811,85 +6009,89 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>146600</v>
+      </c>
+      <c r="E83" s="3">
         <v>148000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>152900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>144400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>145300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>147900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>156300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>137600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>433700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>145400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>456500</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O83" s="3" t="s">
         <v>8</v>
       </c>
       <c r="P83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="Q83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R83" s="3">
         <v>527400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>463300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>458700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>437900</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>462100</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>397000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>386500</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>365100</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>382600</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>337700</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>337800</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5965,8 +6167,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6042,8 +6247,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6119,8 +6327,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6196,8 +6407,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6273,85 +6487,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>66800</v>
+      </c>
+      <c r="E89" s="3">
         <v>28000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>29100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>45600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>30200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>40000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>20200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>18500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>337200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>22300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>163700</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O89" s="3" t="s">
         <v>8</v>
       </c>
       <c r="P89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="Q89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R89" s="3">
         <v>164700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-6500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>96200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>70200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>196600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-21100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>64700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>11400</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>104200</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>5400</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>136300</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6379,85 +6599,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-26000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-32600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-25100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-25200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-21600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-18800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-27000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-23300</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-45700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-21200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-58700</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O91" s="3" t="s">
         <v>8</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="Q91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R91" s="3">
         <v>-23800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-25900</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-20100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-15500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-17300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-15900</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-15300</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-14300</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-12500</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-23100</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-29900</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6533,8 +6757,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6610,85 +6837,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-17300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-297200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-17100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-23800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-24300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-13800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-23400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-30600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-44400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-11400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-64800</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O94" s="3" t="s">
         <v>8</v>
       </c>
       <c r="P94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="Q94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R94" s="3">
         <v>-26000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-70800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-148800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-25600</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-18000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-19600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-160100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-15000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-10700</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-16100</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-24900</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6716,8 +6949,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6725,23 +6959,23 @@
         <v>-3500</v>
       </c>
       <c r="E96" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="F96" s="3">
         <v>-3100</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-3200</v>
       </c>
-      <c r="G96" s="3">
-        <v>0</v>
-      </c>
       <c r="H96" s="3">
+        <v>0</v>
+      </c>
+      <c r="I96" s="3">
         <v>-3300</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-3400</v>
       </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
       <c r="K96" s="3">
         <v>0</v>
       </c>
@@ -6761,40 +6995,43 @@
         <v>0</v>
       </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-2400</v>
-      </c>
-      <c r="R96" s="3">
-        <v>-2100</v>
       </c>
       <c r="S96" s="3">
         <v>-2100</v>
       </c>
       <c r="T96" s="3">
-        <v>0</v>
+        <v>-2100</v>
       </c>
       <c r="U96" s="3">
-        <v>-2100</v>
+        <v>0</v>
       </c>
       <c r="V96" s="3">
         <v>-2100</v>
       </c>
       <c r="W96" s="3">
-        <v>-1900</v>
+        <v>-2100</v>
       </c>
       <c r="X96" s="3">
         <v>-1900</v>
       </c>
       <c r="Y96" s="3">
-        <v>-2000</v>
+        <v>-1900</v>
       </c>
       <c r="Z96" s="3">
         <v>-2000</v>
       </c>
       <c r="AA96" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="AB96" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6870,8 +7107,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6947,8 +7187,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7024,90 +7267,96 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-39900</v>
+      </c>
+      <c r="E100" s="3">
         <v>283900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-21300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-13800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-39000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-39300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-11800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-344700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>91300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-106500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>33400</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O100" s="3" t="s">
         <v>8</v>
       </c>
       <c r="P100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="Q100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R100" s="3">
         <v>-29900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>57700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-6800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-139700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-40200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-34500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-38700</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-84700</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-53600</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>100</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-34000</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
@@ -7125,41 +7374,41 @@
         <v>0</v>
       </c>
       <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>100</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
       <c r="L101" s="3">
         <v>0</v>
       </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>100</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O101" s="3" t="s">
         <v>8</v>
       </c>
       <c r="P101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="Q101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R101" s="3">
         <v>100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-200</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>100</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-100</v>
       </c>
-      <c r="U101" s="3">
-        <v>0</v>
-      </c>
       <c r="V101" s="3">
         <v>0</v>
       </c>
@@ -7173,86 +7422,92 @@
         <v>0</v>
       </c>
       <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="3">
         <v>100</v>
       </c>
-      <c r="AA101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>9500</v>
+      </c>
+      <c r="E102" s="3">
         <v>14700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-9300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>8000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-33100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-13100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-15100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-356700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>384100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-95600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>132300</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O102" s="3" t="s">
         <v>8</v>
       </c>
       <c r="P102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="Q102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R102" s="3">
         <v>108900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-19700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-59300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-95100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>138400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-75200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-134100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-88200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>39900</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-10900</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>77200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AAN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AAN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="92">
   <si>
     <t>AAN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,356 +665,368 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="P7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="Q7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="R7" s="2">
+      <c r="R7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>589600</v>
+      </c>
+      <c r="E8" s="3">
         <v>593400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>610400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>456100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>444800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>452200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>467500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>481100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>430800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1305500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>442300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1349800</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P8" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Q8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R8" s="3">
+      <c r="R8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S8" s="3">
         <v>1012100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>993200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>953100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>927900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>954800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>884600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>838900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>815600</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>844600</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>795000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>769000</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>303700</v>
+      </c>
+      <c r="E9" s="3">
         <v>295600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>317200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>171100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>167700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>167500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>172800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>178000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>157400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>494000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>163800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>508700</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Q9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R9" s="3">
+      <c r="R9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S9" s="3">
         <v>37800</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>49000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>40100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>51200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>53700</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>70600</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>55100</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>65800</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>67500</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>84500</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>64400</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>285900</v>
+      </c>
+      <c r="E10" s="3">
         <v>297800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>293200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>285000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>277100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>284700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>294700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>303100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>273400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>811500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>278500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>841100</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P10" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Q10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R10" s="3">
+      <c r="R10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S10" s="3">
         <v>974300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>944200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>913000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>876700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>901100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>814000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>783800</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>749800</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>777100</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>710500</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>704600</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1043,8 +1055,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1123,8 +1136,11 @@
       <c r="AB12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1203,168 +1219,177 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E14" s="3">
         <v>29700</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>13800</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>7300</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>1800</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>3300</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>2900</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>7800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>21100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>480200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>2500</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>33000</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
+      <c r="R14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S14" s="3">
         <v>13300</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>1800</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>500</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>19200</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>900</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>3400</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>2800</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>13400</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>300</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>15600</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E15" s="3">
         <v>3000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>2900</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>800</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>1000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>1200</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>1600</v>
-      </c>
-      <c r="J15" s="3">
-        <v>1700</v>
       </c>
       <c r="K15" s="3">
         <v>1700</v>
       </c>
       <c r="L15" s="3">
+        <v>1700</v>
+      </c>
+      <c r="M15" s="3">
         <v>5100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>2200</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>11100</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P15" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Q15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R15" s="3">
+      <c r="R15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S15" s="3">
         <v>510800</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>447100</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>443400</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>415400</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>440000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>375700</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>365600</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>345400</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>362000</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>316900</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>317100</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1390,168 +1415,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>595800</v>
+      </c>
+      <c r="E17" s="3">
         <v>610400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>619800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>425900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>424900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>418900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>423400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>432500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>427900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1698600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>412300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1332500</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P17" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Q17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R17" s="3">
+      <c r="R17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S17" s="3">
         <v>938200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>904900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>895800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>874000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>884700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>820100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>796200</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>754600</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>758100</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>757200</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>718200</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-17000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-9400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>30200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>19900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>33300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>44100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>48600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-393100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>30000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>17300</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P18" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Q18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R18" s="3">
+      <c r="R18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S18" s="3">
         <v>73900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>88300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>57300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>53900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>70100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>64500</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>42700</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>61000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>86500</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>37800</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>50800</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1580,408 +1612,424 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>500</v>
+      </c>
+      <c r="E20" s="3">
         <v>-400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>2900</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P20" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Q20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R20" s="3">
+      <c r="R20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S20" s="3">
         <v>1400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-1700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>1000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>700</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>1200</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>1600</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>1900</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-100</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>138900</v>
+      </c>
+      <c r="E21" s="3">
         <v>129200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>137000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>182100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>164800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>178400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>192700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>205300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>141900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>41500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>176500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>476700</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Q21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S21" s="3">
         <v>602600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>549900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>515900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>491700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>533200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>462200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>430500</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>427600</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>471100</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>375400</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>388800</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E22" s="3">
         <v>3200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>2500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>400</v>
-      </c>
-      <c r="G22" s="3">
-        <v>300</v>
       </c>
       <c r="H22" s="3">
         <v>300</v>
       </c>
       <c r="I22" s="3">
+        <v>300</v>
+      </c>
+      <c r="J22" s="3">
         <v>500</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>8600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>3700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>13200</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P22" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R22" s="3">
+      <c r="R22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S22" s="3">
         <v>5000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>4600</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>3700</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>3800</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>4300</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>4500</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>4700</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>5600</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>5800</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>5400</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-20600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-13500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>28900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>20100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>32800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>44300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>48600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-400800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>27400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>6900</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P23" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Q23" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R23" s="3">
+      <c r="R23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S23" s="3">
         <v>70300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>82100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>53400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>50000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>66800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>60700</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>39200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>57000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>82600</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>32300</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>45300</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E24" s="3">
         <v>-4900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-8100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>7400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>3800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>8500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>11400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>12300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-132000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>6900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-700</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P24" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Q24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R24" s="3">
+      <c r="R24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S24" s="3">
         <v>14200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>18500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>12200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>11500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>14300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>20200</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>13900</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>20700</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>29300</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>10700</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>15800</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2060,168 +2108,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-15600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-5300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>21500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>16300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>24300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>33000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>36300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-268800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>20500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>7600</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P26" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Q26" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R26" s="3">
+      <c r="R26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S26" s="3">
         <v>56100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>63500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>41200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>38500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>52400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>40600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>25300</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>36300</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>53300</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>21600</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>29500</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-15600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-5300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>21500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>16300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>24300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>33000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>36300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-268800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>20500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>7600</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P27" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Q27" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R27" s="3">
+      <c r="R27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S27" s="3">
         <v>56100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>63500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>41200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>38500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>52400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>40600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>25300</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>36300</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>53300</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>21600</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>29500</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2300,8 +2357,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2347,27 +2407,27 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S29" s="3">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T29" s="3">
         <v>-1800</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>2500</v>
       </c>
-      <c r="U29" s="3">
-        <v>0</v>
-      </c>
       <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
         <v>-200</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>137000</v>
       </c>
-      <c r="X29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Y29" s="3" t="s">
         <v>8</v>
       </c>
@@ -2380,8 +2440,11 @@
       <c r="AB29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2460,8 +2523,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2540,168 +2606,177 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E32" s="3">
         <v>400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-2900</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P32" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Q32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R32" s="3">
+      <c r="R32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S32" s="3">
         <v>-1400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>1700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-1000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-700</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-1200</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-1600</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-1900</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>100</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-15600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-5300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>21500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>16300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>24300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>33000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>36300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-268800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>20500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>7600</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P33" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Q33" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R33" s="3">
+      <c r="R33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S33" s="3">
         <v>56100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>61700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>43700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>38500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>52200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>177600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>25300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>36300</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>53300</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>21600</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>29500</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2780,173 +2855,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-15600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-5300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>21500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>16300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>24300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>33000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>36300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-268800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>20500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>7600</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P35" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Q35" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R35" s="3">
+      <c r="R35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S35" s="3">
         <v>56100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>61700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>43700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>38500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>52200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>177600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>25300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>36300</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>53300</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>21600</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>29500</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="P38" s="2" t="s">
         <v>8</v>
       </c>
       <c r="Q38" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="R38" s="2">
+      <c r="R38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2975,8 +3059,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3005,41 +3090,42 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>27700</v>
+      </c>
+      <c r="E41" s="3">
         <v>37800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>28200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>13500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>22800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>14800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>48000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>61100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>76100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>432900</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>8</v>
       </c>
@@ -3052,41 +3138,44 @@
       <c r="Q41" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R41" s="3">
+      <c r="R41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S41" s="3">
         <v>124200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>15300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>35000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>94300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>189400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>51000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>126300</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>260300</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>348500</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>308600</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>319500</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3165,41 +3254,44 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>43900</v>
+      </c>
+      <c r="E43" s="3">
         <v>45800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>47800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>29600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>33000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>33900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>28400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>28700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>35100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>37700</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>8</v>
       </c>
@@ -3212,53 +3304,56 @@
       <c r="Q43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R43" s="3">
+      <c r="R43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S43" s="3">
         <v>84000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>98200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>92300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>84300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>81400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>99900</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>92200</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>84800</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>93700</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>95800</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>86800</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>96000</v>
+      </c>
+      <c r="E44" s="3">
         <v>96500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>106300</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G44" s="3" t="s">
         <v>8</v>
       </c>
@@ -3274,8 +3369,8 @@
       <c r="K44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L44" s="3">
-        <v>0</v>
+      <c r="L44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M44" s="3">
         <v>0</v>
@@ -3325,41 +3420,44 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>58800</v>
+      </c>
+      <c r="E45" s="3">
         <v>65600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>59200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>61000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>61200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>60300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>61700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>66600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>70100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>55900</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>8</v>
       </c>
@@ -3372,41 +3470,44 @@
       <c r="Q45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R45" s="3">
+      <c r="R45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S45" s="3">
         <v>51500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>58700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>71400</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>72500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>71400</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>68200</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>87000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>85800</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>75500</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>109100</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>72000</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3485,8 +3586,11 @@
       <c r="AB46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3533,73 +3637,76 @@
         <v>0</v>
       </c>
       <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
         <v>86000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>105300</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>107800</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>125500</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>134000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>206500</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>130500</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>118600</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>113700</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>117200</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>118100</v>
       </c>
     </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1421200</v>
+      </c>
+      <c r="E48" s="3">
         <v>1437200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1470400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1288100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1281200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1246900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1183700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1143500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1135700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1104800</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>8</v>
       </c>
@@ -3612,74 +3719,77 @@
       <c r="Q48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R48" s="3">
+      <c r="R48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S48" s="3">
         <v>1900200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1548000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1413100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1344400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1339500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1359800</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1253700</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>1195100</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>1189000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>1210700</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>1171100</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>173200</v>
+      </c>
+      <c r="E49" s="3">
         <v>172900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>185500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>17300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>18200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>18800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>14300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>15900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>16700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>12100</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N49" s="3" t="s">
         <v>8</v>
       </c>
@@ -3692,41 +3802,44 @@
       <c r="Q49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R49" s="3">
+      <c r="R49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S49" s="3">
         <v>951100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>961800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>934300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>851200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>857000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>858500</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>863200</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>763000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>767300</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>774400</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>783800</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3805,8 +3918,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3885,41 +4001,44 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>18100</v>
+      </c>
+      <c r="E52" s="3">
         <v>12500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>12100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>9900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>9500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>14400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>14500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>15900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>16000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>15200</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>8</v>
       </c>
@@ -3932,41 +4051,44 @@
       <c r="Q52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R52" s="3">
+      <c r="R52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S52" s="3">
         <v>17700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>15400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>17200</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>17300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>17400</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>21700</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>17800</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>18000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>14700</v>
       </c>
-      <c r="AA52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AB52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4045,41 +4167,44 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1858500</v>
+      </c>
+      <c r="E54" s="3">
         <v>1887800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1931800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1446400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1441300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1416400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1363500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1335600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1353500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1676700</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>8</v>
       </c>
@@ -4092,41 +4217,44 @@
       <c r="Q54" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R54" s="3">
+      <c r="R54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S54" s="3">
         <v>3238000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2826700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2698900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2619000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2719000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>2692300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>2595000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>2548100</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>2624500</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>2615700</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>2551400</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4155,8 +4283,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4185,41 +4314,42 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>107000</v>
+      </c>
+      <c r="E57" s="3">
         <v>91300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>79300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>83900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>83100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>76900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>64000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>32800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>84600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>72200</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>8</v>
       </c>
@@ -4232,53 +4362,56 @@
       <c r="Q57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R57" s="3">
+      <c r="R57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S57" s="3">
         <v>71800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>88400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>98500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>62300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>68400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>80800</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>90400</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>54700</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>52100</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>297800</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>263700</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>23500</v>
+      </c>
+      <c r="E58" s="3">
         <v>19100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>26900</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G58" s="3" t="s">
         <v>8</v>
       </c>
@@ -4291,8 +4424,8 @@
       <c r="J58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
@@ -4345,41 +4478,44 @@
       <c r="AB58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>755100</v>
+      </c>
+      <c r="E59" s="3">
         <v>757200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>759300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>572700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>572600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>562900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>512200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>512100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>507500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>593600</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>8</v>
       </c>
@@ -4392,41 +4528,44 @@
       <c r="Q59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R59" s="3">
+      <c r="R59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S59" s="3">
         <v>665200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>285400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>291500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>281300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>294700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>292000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>298800</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>290200</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>288200</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>62400</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>62900</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4505,41 +4644,44 @@
       <c r="AB60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>219000</v>
+      </c>
+      <c r="E61" s="3">
         <v>254800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>283400</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
         <v>10000</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>285100</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -4553,40 +4695,43 @@
         <v>0</v>
       </c>
       <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
         <v>408300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>424800</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>297300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>272900</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>358500</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>368800</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>372700</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>401100</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>484700</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>497800</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>496200</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4633,40 +4778,43 @@
         <v>0</v>
       </c>
       <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3">
         <v>279200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>267500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>248100</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>257600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>241100</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>222600</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>259100</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>260000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>268100</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>276100</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>271600</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4745,8 +4893,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4825,8 +4976,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4905,41 +5059,44 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1163100</v>
+      </c>
+      <c r="E66" s="3">
         <v>1184100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1211300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>715500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>723100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>694900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>630000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>596200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>642100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>950900</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>8</v>
       </c>
@@ -4952,41 +5109,44 @@
       <c r="Q66" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R66" s="3">
+      <c r="R66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S66" s="3">
         <v>1424500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1066000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>935400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>874100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>962800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>964300</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>1021000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1006100</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1124300</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>1134100</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>1094300</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5015,8 +5175,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5095,8 +5256,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5175,8 +5339,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5255,8 +5422,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5335,38 +5505,41 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>79100</v>
+      </c>
+      <c r="E72" s="3">
         <v>88500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>107600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>116500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>98500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>85400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>64300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>34700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1900</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>8</v>
       </c>
@@ -5382,41 +5555,44 @@
       <c r="Q72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R72" s="3">
+      <c r="R72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S72" s="3">
         <v>2061700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>2005300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>1946000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1904300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1867900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1819500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>1644100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>1620700</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>1586300</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>1535000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>1515300</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5495,8 +5671,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5575,8 +5754,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5655,41 +5837,44 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>695400</v>
+      </c>
+      <c r="E76" s="3">
         <v>703700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>720500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>730900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>718200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>721500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>733500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>739400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>711300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>725900</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>8</v>
       </c>
@@ -5702,41 +5887,44 @@
       <c r="Q76" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R76" s="3">
+      <c r="R76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S76" s="3">
         <v>1813500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1760700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1763500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1744800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1756200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1728000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1574000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>1542100</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>1500200</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>1481600</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>1457100</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5815,173 +6003,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="P80" s="2" t="s">
         <v>8</v>
       </c>
       <c r="Q80" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="R80" s="2">
+      <c r="R80" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-15600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-5300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>21500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>16300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>24300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>33000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>36300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-268800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>20500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>7600</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P81" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Q81" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R81" s="3">
+      <c r="R81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S81" s="3">
         <v>56100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>61700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>43700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>38500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>52200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>177600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>25300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>36300</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>53300</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>21600</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>29500</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6010,88 +6207,92 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>144600</v>
+      </c>
+      <c r="E83" s="3">
         <v>146600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>148000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>152900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>144400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>145300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>147900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>156300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>137600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>433700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>145400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>456500</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P83" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Q83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R83" s="3">
+      <c r="R83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S83" s="3">
         <v>527400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>463300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>458700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>437900</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>462100</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>397000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>386500</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>365100</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>382600</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>337700</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>337800</v>
       </c>
     </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6170,8 +6371,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6250,8 +6454,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6330,8 +6537,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6410,8 +6620,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6490,88 +6703,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>46600</v>
+      </c>
+      <c r="E89" s="3">
         <v>66800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>28000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>29100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>45600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>30200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>40000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>20200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>18500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>337200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>22300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>163700</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P89" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Q89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R89" s="3">
+      <c r="R89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S89" s="3">
         <v>164700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-6500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>96200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>70200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>196600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-21100</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>64700</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>11400</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>104200</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>5400</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>136300</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6600,88 +6819,92 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-24300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-26000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-32600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-25100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-25200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-21600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-18800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-27000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-23300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-45700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-21200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-58700</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P91" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R91" s="3">
+      <c r="R91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S91" s="3">
         <v>-23800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-25900</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-20100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-15500</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-17300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-15900</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-15300</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-14300</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-12500</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-23100</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-29900</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6760,8 +6983,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6840,88 +7066,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-19800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-17300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-297200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-17100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-23800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-24300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-13800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-23400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-30600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-44400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-11400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-64800</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P94" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Q94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R94" s="3">
+      <c r="R94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S94" s="3">
         <v>-26000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-70800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-148800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-25600</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-18000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-19600</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-160100</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-15000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-10700</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-16100</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-24900</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6950,8 +7182,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6962,23 +7195,23 @@
         <v>-3500</v>
       </c>
       <c r="F96" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="G96" s="3">
         <v>-3100</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-3200</v>
       </c>
-      <c r="H96" s="3">
-        <v>0</v>
-      </c>
       <c r="I96" s="3">
+        <v>0</v>
+      </c>
+      <c r="J96" s="3">
         <v>-3300</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-3400</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
@@ -6998,40 +7231,43 @@
         <v>0</v>
       </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
         <v>-2400</v>
-      </c>
-      <c r="S96" s="3">
-        <v>-2100</v>
       </c>
       <c r="T96" s="3">
         <v>-2100</v>
       </c>
       <c r="U96" s="3">
-        <v>0</v>
+        <v>-2100</v>
       </c>
       <c r="V96" s="3">
-        <v>-2100</v>
+        <v>0</v>
       </c>
       <c r="W96" s="3">
         <v>-2100</v>
       </c>
       <c r="X96" s="3">
-        <v>-1900</v>
+        <v>-2100</v>
       </c>
       <c r="Y96" s="3">
         <v>-1900</v>
       </c>
       <c r="Z96" s="3">
-        <v>-2000</v>
+        <v>-1900</v>
       </c>
       <c r="AA96" s="3">
         <v>-2000</v>
       </c>
       <c r="AB96" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="AC96" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7110,8 +7346,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7190,8 +7429,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7270,97 +7512,103 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-36800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-39900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>283900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-21300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-13800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-39000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-39300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-11800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-344700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>91300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-106500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>33400</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P100" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Q100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R100" s="3">
+      <c r="R100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S100" s="3">
         <v>-29900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>57700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-6800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-139700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-40200</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-34500</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-38700</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-84700</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-53600</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>100</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-34000</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>-100</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
         <v>0</v>
       </c>
@@ -7377,41 +7625,41 @@
         <v>0</v>
       </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
         <v>100</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
       <c r="M101" s="3">
         <v>0</v>
       </c>
       <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
         <v>100</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P101" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Q101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R101" s="3">
+      <c r="R101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S101" s="3">
         <v>100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-200</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-100</v>
       </c>
-      <c r="V101" s="3">
-        <v>0</v>
-      </c>
       <c r="W101" s="3">
         <v>0</v>
       </c>
@@ -7425,89 +7673,95 @@
         <v>0</v>
       </c>
       <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB101" s="3">
         <v>100</v>
       </c>
-      <c r="AB101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="E102" s="3">
         <v>9500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>14700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-9300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>8000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-33100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-13100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-15100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-356700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>384100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-95600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>132300</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P102" s="3" t="s">
         <v>8</v>
       </c>
       <c r="Q102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R102" s="3">
+      <c r="R102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S102" s="3">
         <v>108900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-19700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-59300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-95100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>138400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-75200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-134100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-88200</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>39900</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-10900</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>77200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AAN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AAN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="92">
   <si>
     <t>AAN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,368 +665,381 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="Q7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="R7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="S7" s="2">
+      <c r="S7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>554400</v>
+      </c>
+      <c r="E8" s="3">
         <v>589600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>593400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>610400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>456100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>444800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>452200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>467500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>481100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>430800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1305500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>442300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1349800</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q8" s="3" t="s">
         <v>8</v>
       </c>
       <c r="R8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S8" s="3">
+      <c r="S8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T8" s="3">
         <v>1012100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>993200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>953100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>927900</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>954800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>884600</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>838900</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>815600</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>844600</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>795000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>769000</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>258700</v>
+      </c>
+      <c r="E9" s="3">
         <v>303700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>295600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>317200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>171100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>167700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>167500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>172800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>178000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>157400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>494000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>163800</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>508700</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="R9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S9" s="3">
+      <c r="S9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T9" s="3">
         <v>37800</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>49000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>40100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>51200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>53700</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>70600</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>55100</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>65800</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>67500</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>84500</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>64400</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>295700</v>
+      </c>
+      <c r="E10" s="3">
         <v>285900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>297800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>293200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>285000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>277100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>284700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>294700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>303100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>273400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>811500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>278500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>841100</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q10" s="3" t="s">
         <v>8</v>
       </c>
       <c r="R10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S10" s="3">
+      <c r="S10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T10" s="3">
         <v>974300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>944200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>913000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>876700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>901100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>814000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>783800</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>749800</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>777100</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>710500</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>704600</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1056,8 +1069,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1139,8 +1153,11 @@
       <c r="AC12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1222,174 +1239,183 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E14" s="3">
         <v>10500</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>29700</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>13800</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>7300</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>1800</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>3300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>2900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>7800</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>21100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>480200</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>2500</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>33000</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S14" s="3">
+      <c r="S14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T14" s="3">
         <v>13300</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>1800</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>500</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>19200</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>900</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>3400</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>2800</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>13400</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>300</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>15600</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E15" s="3">
         <v>2700</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>3000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>2900</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>800</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>1000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>1200</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>1600</v>
-      </c>
-      <c r="K15" s="3">
-        <v>1700</v>
       </c>
       <c r="L15" s="3">
         <v>1700</v>
       </c>
       <c r="M15" s="3">
+        <v>1700</v>
+      </c>
+      <c r="N15" s="3">
         <v>5100</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>2200</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>11100</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q15" s="3" t="s">
         <v>8</v>
       </c>
       <c r="R15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S15" s="3">
+      <c r="S15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T15" s="3">
         <v>510800</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>447100</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>443400</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>415400</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>440000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>375700</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>365600</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>345400</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>362000</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>316900</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>317100</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1416,174 +1442,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>541700</v>
+      </c>
+      <c r="E17" s="3">
         <v>595800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>610400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>619800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>425900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>424900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>418900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>423400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>432500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>427900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1698600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>412300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1332500</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q17" s="3" t="s">
         <v>8</v>
       </c>
       <c r="R17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S17" s="3">
+      <c r="S17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T17" s="3">
         <v>938200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>904900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>895800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>874000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>884700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>820100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>796200</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>754600</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>758100</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>757200</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>718200</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E18" s="3">
         <v>-6200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-17000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-9400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>30200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>19900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>33300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>44100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>48600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-393100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>30000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>17300</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q18" s="3" t="s">
         <v>8</v>
       </c>
       <c r="R18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S18" s="3">
+      <c r="S18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T18" s="3">
         <v>73900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>88300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>57300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>53900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>70100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>64500</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>42700</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>61000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>86500</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>37800</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>50800</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1613,8 +1646,9 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1622,414 +1656,429 @@
         <v>500</v>
       </c>
       <c r="E20" s="3">
+        <v>500</v>
+      </c>
+      <c r="F20" s="3">
         <v>-400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>2900</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q20" s="3" t="s">
         <v>8</v>
       </c>
       <c r="R20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S20" s="3">
+      <c r="S20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T20" s="3">
         <v>1400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-1700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>1000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>700</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>1200</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>1600</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>1900</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-100</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>159100</v>
+      </c>
+      <c r="E21" s="3">
         <v>138900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>129200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>137000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>182100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>164800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>178400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>192700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>205300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>141900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>41500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>176500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>476700</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="R21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S21" s="3">
+      <c r="S21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T21" s="3">
         <v>602600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>549900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>515900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>491700</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>533200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>462200</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>430500</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>427600</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>471100</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>375400</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>388800</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E22" s="3">
         <v>3900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>3200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>2500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>400</v>
-      </c>
-      <c r="H22" s="3">
-        <v>300</v>
       </c>
       <c r="I22" s="3">
         <v>300</v>
       </c>
       <c r="J22" s="3">
+        <v>300</v>
+      </c>
+      <c r="K22" s="3">
         <v>500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>8600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>3700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>13200</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q22" s="3" t="s">
         <v>8</v>
       </c>
       <c r="R22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S22" s="3">
+      <c r="S22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T22" s="3">
         <v>5000</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>4600</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>3700</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>3800</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>4300</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>4500</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>4700</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>5600</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>5800</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>5400</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-9600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-20600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-13500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>28900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>20100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>32800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>44300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>48600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-400800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>27400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>6900</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q23" s="3" t="s">
         <v>8</v>
       </c>
       <c r="R23" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S23" s="3">
+      <c r="S23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T23" s="3">
         <v>70300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>82100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>53400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>50000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>66800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>60700</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>39200</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>57000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>82600</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>32300</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>45300</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E24" s="3">
         <v>-3800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-4900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-8100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>7400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>3800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>8500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>11400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>12300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-132000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>6900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-700</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q24" s="3" t="s">
         <v>8</v>
       </c>
       <c r="R24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S24" s="3">
+      <c r="S24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T24" s="3">
         <v>14200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>18500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>12200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>11500</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>14300</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>20200</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>13900</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>20700</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>29300</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>10700</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>15800</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2111,174 +2160,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-5900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-15600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-5300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>21500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>16300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>24300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>33000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>36300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-268800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>20500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>7600</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q26" s="3" t="s">
         <v>8</v>
       </c>
       <c r="R26" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S26" s="3">
+      <c r="S26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T26" s="3">
         <v>56100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>63500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>41200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>38500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>52400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>40600</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>25300</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>36300</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>53300</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>21600</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>29500</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-5900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-15600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-5300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>21500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>16300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>24300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>33000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>36300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-268800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>20500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>7600</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q27" s="3" t="s">
         <v>8</v>
       </c>
       <c r="R27" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S27" s="3">
+      <c r="S27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T27" s="3">
         <v>56100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>63500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>41200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>38500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>52400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>40600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>25300</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>36300</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>53300</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>21600</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>29500</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2360,8 +2418,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2410,27 +2471,27 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T29" s="3">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U29" s="3">
         <v>-1800</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>2500</v>
       </c>
-      <c r="V29" s="3">
-        <v>0</v>
-      </c>
       <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
         <v>-200</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>137000</v>
       </c>
-      <c r="Y29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Z29" s="3" t="s">
         <v>8</v>
       </c>
@@ -2443,8 +2504,11 @@
       <c r="AC29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2526,8 +2590,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2609,8 +2676,11 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2618,165 +2688,171 @@
         <v>-500</v>
       </c>
       <c r="E32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F32" s="3">
         <v>400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-2900</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q32" s="3" t="s">
         <v>8</v>
       </c>
       <c r="R32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S32" s="3">
+      <c r="S32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T32" s="3">
         <v>-1400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>1700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-1000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-700</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-1200</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-1600</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-1900</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>100</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-5900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-15600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-5300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>21500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>16300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>24300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>33000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>36300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-268800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>20500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>7600</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q33" s="3" t="s">
         <v>8</v>
       </c>
       <c r="R33" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S33" s="3">
+      <c r="S33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T33" s="3">
         <v>56100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>61700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>43700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>38500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>52200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>177600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>25300</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>36300</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>53300</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>21600</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>29500</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2858,179 +2934,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-5900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-15600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-5300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>21500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>16300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>24300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>33000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>36300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-268800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>20500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>7600</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q35" s="3" t="s">
         <v>8</v>
       </c>
       <c r="R35" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S35" s="3">
+      <c r="S35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T35" s="3">
         <v>56100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>61700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>43700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>38500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>52200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>177600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>25300</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>36300</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>53300</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>21600</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>29500</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="Q38" s="2" t="s">
         <v>8</v>
       </c>
       <c r="R38" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="S38" s="2">
+      <c r="S38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3060,8 +3145,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3091,44 +3177,45 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>44300</v>
+      </c>
+      <c r="E41" s="3">
         <v>27700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>37800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>28200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>13500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>22800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>14800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>48000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>61100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>76100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>432900</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>8</v>
       </c>
@@ -3141,41 +3228,44 @@
       <c r="R41" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S41" s="3">
+      <c r="S41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T41" s="3">
         <v>124200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>15300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>35000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>94300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>189400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>51000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>126300</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>260300</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>348500</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>308600</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>319500</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3257,44 +3347,47 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>34100</v>
+      </c>
+      <c r="E43" s="3">
         <v>43900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>45800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>47800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>29600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>33000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>33900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>28400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>28700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>35100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>37700</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O43" s="3" t="s">
         <v>8</v>
       </c>
@@ -3307,56 +3400,59 @@
       <c r="R43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S43" s="3">
+      <c r="S43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T43" s="3">
         <v>84000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>98200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>92300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>84300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>81400</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>99900</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>92200</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>84800</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>93700</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>95800</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>86800</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>86300</v>
+      </c>
+      <c r="E44" s="3">
         <v>96000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>96500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>106300</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H44" s="3" t="s">
         <v>8</v>
       </c>
@@ -3372,8 +3468,8 @@
       <c r="L44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M44" s="3">
-        <v>0</v>
+      <c r="M44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N44" s="3">
         <v>0</v>
@@ -3423,44 +3519,47 @@
       <c r="AC44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>56200</v>
+      </c>
+      <c r="E45" s="3">
         <v>58800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>65600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>59200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>61000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>61200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>60300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>61700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>66600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>70100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>55900</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O45" s="3" t="s">
         <v>8</v>
       </c>
@@ -3473,41 +3572,44 @@
       <c r="R45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S45" s="3">
+      <c r="S45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T45" s="3">
         <v>51500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>58700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>71400</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>72500</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>71400</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>68200</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>87000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>85800</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>75500</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>109100</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>72000</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3589,8 +3691,11 @@
       <c r="AC46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3640,76 +3745,79 @@
         <v>0</v>
       </c>
       <c r="S47" s="3">
+        <v>0</v>
+      </c>
+      <c r="T47" s="3">
         <v>86000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>105300</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>107800</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>125500</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>134000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>206500</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>130500</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>118600</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>113700</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>117200</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>118100</v>
       </c>
     </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1388800</v>
+      </c>
+      <c r="E48" s="3">
         <v>1421200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1437200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1470400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1288100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1281200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1246900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1183700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1143500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1135700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1104800</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>8</v>
       </c>
@@ -3722,77 +3830,80 @@
       <c r="R48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S48" s="3">
+      <c r="S48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T48" s="3">
         <v>1900200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1548000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1413100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1344400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1339500</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1359800</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>1253700</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>1195100</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>1189000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>1210700</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>1171100</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>171600</v>
+      </c>
+      <c r="E49" s="3">
         <v>173200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>172900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>185500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>17300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>18200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>18800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>14300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>15900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>16700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>12100</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O49" s="3" t="s">
         <v>8</v>
       </c>
@@ -3805,41 +3916,44 @@
       <c r="R49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S49" s="3">
+      <c r="S49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T49" s="3">
         <v>951100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>961800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>934300</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>851200</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>857000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>858500</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>863200</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>763000</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>767300</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>774400</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>783800</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3921,8 +4035,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4004,44 +4121,47 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>24300</v>
+      </c>
+      <c r="E52" s="3">
         <v>18100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>12500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>12100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>9900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>9500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>14400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>14500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>15900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>16000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>15200</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>8</v>
       </c>
@@ -4054,41 +4174,44 @@
       <c r="R52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S52" s="3">
+      <c r="S52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T52" s="3">
         <v>17700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>15400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>17200</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>17300</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>17400</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>21700</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>17800</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>18000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>14700</v>
       </c>
-      <c r="AB52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AC52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4170,44 +4293,47 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1826100</v>
+      </c>
+      <c r="E54" s="3">
         <v>1858500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1887800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1931800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1446400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1441300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1416400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1363500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1335600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1353500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1676700</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>8</v>
       </c>
@@ -4220,41 +4346,44 @@
       <c r="R54" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S54" s="3">
+      <c r="S54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T54" s="3">
         <v>3238000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2826700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2698900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2619000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>2719000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>2692300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>2595000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>2548100</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>2624500</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>2615700</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>2551400</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4284,8 +4413,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4315,44 +4445,45 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>96100</v>
+      </c>
+      <c r="E57" s="3">
         <v>107000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>91300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>79300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>83900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>83100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>76900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>64000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>32800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>84600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>72200</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>8</v>
       </c>
@@ -4365,56 +4496,59 @@
       <c r="R57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S57" s="3">
+      <c r="S57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T57" s="3">
         <v>71800</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>88400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>98500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>62300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>68400</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>80800</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>90400</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>54700</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>52100</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>297800</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>263700</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E58" s="3">
         <v>23500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>19100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>26900</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H58" s="3" t="s">
         <v>8</v>
       </c>
@@ -4427,8 +4561,8 @@
       <c r="K58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
+      <c r="L58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
@@ -4481,44 +4615,47 @@
       <c r="AC58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>657300</v>
+      </c>
+      <c r="E59" s="3">
         <v>755100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>757200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>759300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>572700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>572600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>562900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>512200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>512100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>507500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>593600</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>8</v>
       </c>
@@ -4531,41 +4668,44 @@
       <c r="R59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S59" s="3">
+      <c r="S59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T59" s="3">
         <v>665200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>285400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>291500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>281300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>294700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>292000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>298800</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>290200</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>288200</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>62400</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>62900</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4647,44 +4787,47 @@
       <c r="AC60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>217700</v>
+      </c>
+      <c r="E61" s="3">
         <v>219000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>254800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>283400</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
         <v>10000</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>285100</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -4698,63 +4841,66 @@
         <v>0</v>
       </c>
       <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
         <v>408300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>424800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>297300</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>272900</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>358500</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>368800</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>372700</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>401100</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>484700</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>497800</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>496200</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
-      </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
+        <v>87500</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
@@ -4781,40 +4927,43 @@
         <v>0</v>
       </c>
       <c r="S62" s="3">
+        <v>0</v>
+      </c>
+      <c r="T62" s="3">
         <v>279200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>267500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>248100</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>257600</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>241100</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>222600</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>259100</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>260000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>268100</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>276100</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>271600</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4896,8 +5045,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4979,8 +5131,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5062,44 +5217,47 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1122200</v>
+      </c>
+      <c r="E66" s="3">
         <v>1163100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1184100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1211300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>715500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>723100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>694900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>630000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>596200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>642100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>950900</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>8</v>
       </c>
@@ -5112,41 +5270,44 @@
       <c r="R66" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S66" s="3">
+      <c r="S66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T66" s="3">
         <v>1424500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1066000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>935400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>874100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>962800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>964300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1021000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1006100</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>1124300</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>1134100</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>1094300</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5176,8 +5337,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5259,8 +5421,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5342,8 +5507,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5425,8 +5593,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5508,41 +5679,44 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>87900</v>
+      </c>
+      <c r="E72" s="3">
         <v>79100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>88500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>107600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>116500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>98500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>85400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>64300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>34700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>1900</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>8</v>
       </c>
@@ -5558,41 +5732,44 @@
       <c r="R72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S72" s="3">
+      <c r="S72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T72" s="3">
         <v>2061700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>2005300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>1946000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1904300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1867900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>1819500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>1644100</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>1620700</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>1586300</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>1535000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>1515300</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5674,8 +5851,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5757,8 +5937,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5840,44 +6023,47 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>703900</v>
+      </c>
+      <c r="E76" s="3">
         <v>695400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>703700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>720500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>730900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>718200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>721500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>733500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>739400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>711300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>725900</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>8</v>
       </c>
@@ -5890,41 +6076,44 @@
       <c r="R76" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S76" s="3">
+      <c r="S76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T76" s="3">
         <v>1813500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1760700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1763500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1744800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1756200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1728000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>1574000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>1542100</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>1500200</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>1481600</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>1457100</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6006,179 +6195,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="Q80" s="2" t="s">
         <v>8</v>
       </c>
       <c r="R80" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="S80" s="2">
+      <c r="S80" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-5900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-15600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-5300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>21500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>16300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>24300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>33000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>36300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-268800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>20500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>7600</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q81" s="3" t="s">
         <v>8</v>
       </c>
       <c r="R81" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S81" s="3">
+      <c r="S81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T81" s="3">
         <v>56100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>61700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>43700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>38500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>52200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>177600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>25300</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>36300</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>53300</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>21600</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>29500</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6208,91 +6406,95 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>145900</v>
+      </c>
+      <c r="E83" s="3">
         <v>144600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>146600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>148000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>152900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>144400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>145300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>147900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>156300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>137600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>433700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>145400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>456500</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q83" s="3" t="s">
         <v>8</v>
       </c>
       <c r="R83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S83" s="3">
+      <c r="S83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T83" s="3">
         <v>527400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>463300</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>458700</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>437900</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>462100</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>397000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>386500</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>365100</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>382600</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>337700</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>337800</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6374,8 +6576,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6457,8 +6662,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6540,8 +6748,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6623,8 +6834,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6706,91 +6920,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>61000</v>
+      </c>
+      <c r="E89" s="3">
         <v>46600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>66800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>28000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>29100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>45600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>30200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>40000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>20200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>18500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>337200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>22300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>163700</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q89" s="3" t="s">
         <v>8</v>
       </c>
       <c r="R89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S89" s="3">
+      <c r="S89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T89" s="3">
         <v>164700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-6500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>96200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>70200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>196600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-21100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>64700</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>11400</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>104200</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>5400</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>136300</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6820,91 +7040,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-20200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-24300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-26000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-32600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-25100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-25200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-21600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-18800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-27000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-23300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-45700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-21200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-58700</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q91" s="3" t="s">
         <v>8</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S91" s="3">
+      <c r="S91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T91" s="3">
         <v>-23800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-25900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-20100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-15500</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-17300</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-15900</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-15300</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-14300</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-12500</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-23100</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-29900</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6986,8 +7210,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7069,91 +7296,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-18100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-19800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-17300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-297200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-17100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-23800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-24300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-13800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-23400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-30600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-44400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-11400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-64800</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q94" s="3" t="s">
         <v>8</v>
       </c>
       <c r="R94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S94" s="3">
+      <c r="S94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T94" s="3">
         <v>-26000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-70800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-148800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-25600</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-18000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-19600</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-160100</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-15000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-10700</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-16100</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-24900</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7183,13 +7416,14 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-3500</v>
+        <v>-3400</v>
       </c>
       <c r="E96" s="3">
         <v>-3500</v>
@@ -7198,23 +7432,23 @@
         <v>-3500</v>
       </c>
       <c r="G96" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="H96" s="3">
         <v>-3100</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-3200</v>
       </c>
-      <c r="I96" s="3">
-        <v>0</v>
-      </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-3300</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-3400</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
       <c r="M96" s="3">
         <v>0</v>
       </c>
@@ -7234,40 +7468,43 @@
         <v>0</v>
       </c>
       <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-2400</v>
-      </c>
-      <c r="T96" s="3">
-        <v>-2100</v>
       </c>
       <c r="U96" s="3">
         <v>-2100</v>
       </c>
       <c r="V96" s="3">
-        <v>0</v>
+        <v>-2100</v>
       </c>
       <c r="W96" s="3">
-        <v>-2100</v>
+        <v>0</v>
       </c>
       <c r="X96" s="3">
         <v>-2100</v>
       </c>
       <c r="Y96" s="3">
-        <v>-1900</v>
+        <v>-2100</v>
       </c>
       <c r="Z96" s="3">
         <v>-1900</v>
       </c>
       <c r="AA96" s="3">
-        <v>-2000</v>
+        <v>-1900</v>
       </c>
       <c r="AB96" s="3">
         <v>-2000</v>
       </c>
       <c r="AC96" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="AD96" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7349,8 +7586,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7432,8 +7672,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7515,91 +7758,97 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-26300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-36800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-39900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>283900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-21300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-13800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-39000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-39300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-11800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-344700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>91300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-106500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>33400</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q100" s="3" t="s">
         <v>8</v>
       </c>
       <c r="R100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S100" s="3">
+      <c r="S100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T100" s="3">
         <v>-29900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>57700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-6800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-139700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-40200</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-34500</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-38700</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-84700</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-53600</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>100</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-34000</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7607,11 +7856,11 @@
         <v>0</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>-100</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
         <v>0</v>
       </c>
@@ -7628,41 +7877,41 @@
         <v>0</v>
       </c>
       <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>100</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
       <c r="N101" s="3">
         <v>0</v>
       </c>
       <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
         <v>100</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q101" s="3" t="s">
         <v>8</v>
       </c>
       <c r="R101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S101" s="3">
+      <c r="S101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T101" s="3">
         <v>100</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-200</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>100</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-100</v>
       </c>
-      <c r="W101" s="3">
-        <v>0</v>
-      </c>
       <c r="X101" s="3">
         <v>0</v>
       </c>
@@ -7676,92 +7925,98 @@
         <v>0</v>
       </c>
       <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC101" s="3">
         <v>100</v>
       </c>
-      <c r="AC101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>16600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-10100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>9500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>14700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-9300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>8000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-33100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-13100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-15100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-356700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>384100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-95600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>132300</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q102" s="3" t="s">
         <v>8</v>
       </c>
       <c r="R102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S102" s="3">
+      <c r="S102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T102" s="3">
         <v>108900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-19700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-59300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-95100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>138400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-75200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-134100</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-88200</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>39900</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-10900</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>77200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AAN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AAN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="92">
   <si>
     <t>AAN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,381 +665,394 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="R7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="S7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="T7" s="2">
+      <c r="T7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>530400</v>
+      </c>
+      <c r="E8" s="3">
         <v>554400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>589600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>593400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>610400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>456100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>444800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>452200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>467500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>481100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>430800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1305500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>442300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1349800</v>
       </c>
-      <c r="Q8" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R8" s="3" t="s">
         <v>8</v>
       </c>
       <c r="S8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T8" s="3">
+      <c r="T8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U8" s="3">
         <v>1012100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>993200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>953100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>927900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>954800</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>884600</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>838900</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>815600</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>844600</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>795000</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>769000</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>248100</v>
+      </c>
+      <c r="E9" s="3">
         <v>258700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>303700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>295600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>317200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>171100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>167700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>167500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>172800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>178000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>157400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>494000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>163800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>508700</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="S9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T9" s="3">
+      <c r="T9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U9" s="3">
         <v>37800</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>49000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>40100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>51200</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>53700</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>70600</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>55100</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>65800</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>67500</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>84500</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>64400</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>282300</v>
+      </c>
+      <c r="E10" s="3">
         <v>295700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>285900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>297800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>293200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>285000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>277100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>284700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>294700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>303100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>273400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>811500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>278500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>841100</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R10" s="3" t="s">
         <v>8</v>
       </c>
       <c r="S10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T10" s="3">
+      <c r="T10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U10" s="3">
         <v>974300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>944200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>913000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>876700</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>901100</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>814000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>783800</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>749800</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>777100</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>710500</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>704600</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1070,8 +1083,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1156,8 +1170,11 @@
       <c r="AD12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1242,94 +1259,100 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E14" s="3">
         <v>7300</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>10500</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>29700</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>13800</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>7300</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>1800</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>3300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>2900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>7800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>21100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>480200</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>2500</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>33000</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T14" s="3">
+      <c r="T14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U14" s="3">
         <v>13300</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>1800</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>500</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>19200</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>900</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>3400</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>2800</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>13400</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>300</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>15600</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1337,85 +1360,88 @@
         <v>2600</v>
       </c>
       <c r="E15" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F15" s="3">
         <v>2700</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>3000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>2900</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>800</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>1000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>1200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>1600</v>
-      </c>
-      <c r="L15" s="3">
-        <v>1700</v>
       </c>
       <c r="M15" s="3">
         <v>1700</v>
       </c>
       <c r="N15" s="3">
+        <v>1700</v>
+      </c>
+      <c r="O15" s="3">
         <v>5100</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>2200</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>11100</v>
       </c>
-      <c r="Q15" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R15" s="3" t="s">
         <v>8</v>
       </c>
       <c r="S15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T15" s="3">
+      <c r="T15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U15" s="3">
         <v>510800</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>447100</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>443400</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>415400</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>440000</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>375700</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>365600</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>345400</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>362000</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>316900</v>
       </c>
-      <c r="AD15" s="3">
+      <c r="AE15" s="3">
         <v>317100</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1443,180 +1469,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>519100</v>
+      </c>
+      <c r="E17" s="3">
         <v>541700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>595800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>610400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>619800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>425900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>424900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>418900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>423400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>432500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>427900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1698600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>412300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1332500</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R17" s="3" t="s">
         <v>8</v>
       </c>
       <c r="S17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T17" s="3">
+      <c r="T17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U17" s="3">
         <v>938200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>904900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>895800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>874000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>884700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>820100</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>796200</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>754600</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>758100</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>757200</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>718200</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E18" s="3">
         <v>12700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-6200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-17000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-9400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>30200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>19900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>33300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>44100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>48600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-393100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>30000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>17300</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R18" s="3" t="s">
         <v>8</v>
       </c>
       <c r="S18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T18" s="3">
+      <c r="T18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U18" s="3">
         <v>73900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>88300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>57300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>53900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>70100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>64500</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>42700</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>61000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>86500</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>37800</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>50800</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1647,438 +1680,454 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E20" s="3">
         <v>500</v>
       </c>
       <c r="F20" s="3">
+        <v>500</v>
+      </c>
+      <c r="G20" s="3">
         <v>-400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>2900</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R20" s="3" t="s">
         <v>8</v>
       </c>
       <c r="S20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T20" s="3">
+      <c r="T20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U20" s="3">
         <v>1400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-1700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-100</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>1000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>700</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>1200</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>1600</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>1900</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-100</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>149700</v>
+      </c>
+      <c r="E21" s="3">
         <v>159100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>138900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>129200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>137000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>182100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>164800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>178400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>192700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>205300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>141900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>41500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>176500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>476700</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="S21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T21" s="3">
+      <c r="T21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U21" s="3">
         <v>602600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>549900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>515900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>491700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>533200</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>462200</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>430500</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>427600</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>471100</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>375400</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>388800</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E22" s="3">
         <v>4400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>3900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>3200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>2500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>400</v>
-      </c>
-      <c r="I22" s="3">
-        <v>300</v>
       </c>
       <c r="J22" s="3">
         <v>300</v>
       </c>
       <c r="K22" s="3">
+        <v>300</v>
+      </c>
+      <c r="L22" s="3">
         <v>500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>8600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>3700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>13200</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R22" s="3" t="s">
         <v>8</v>
       </c>
       <c r="S22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T22" s="3">
+      <c r="T22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U22" s="3">
         <v>5000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>4600</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>3700</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>3800</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>4300</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>4500</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>4700</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>5600</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>5800</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>5400</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E23" s="3">
         <v>8900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-9600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-20600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-13500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>28900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>20100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>32800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>44300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>48600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-400800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>27400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>6900</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R23" s="3" t="s">
         <v>8</v>
       </c>
       <c r="S23" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T23" s="3">
+      <c r="T23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U23" s="3">
         <v>70300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>82100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>53400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>50000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>66800</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>60700</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>39200</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>57000</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>82600</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>32300</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>45300</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E24" s="3">
         <v>-3900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-3800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-4900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-8100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>7400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>3800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>8500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>11400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>12300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-132000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>6900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-700</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R24" s="3" t="s">
         <v>8</v>
       </c>
       <c r="S24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T24" s="3">
+      <c r="T24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U24" s="3">
         <v>14200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>18500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>12200</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>11500</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>14300</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>20200</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>13900</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>20700</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>29300</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>10700</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>15800</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2163,180 +2212,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E26" s="3">
         <v>12800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-5900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-15600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-5300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>21500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>16300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>24300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>33000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>36300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-268800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>20500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>7600</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R26" s="3" t="s">
         <v>8</v>
       </c>
       <c r="S26" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T26" s="3">
+      <c r="T26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U26" s="3">
         <v>56100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>63500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>41200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>38500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>52400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>40600</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>25300</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>36300</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>53300</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>21600</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>29500</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E27" s="3">
         <v>12800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-5900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-15600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-5300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>21500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>16300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>24300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>33000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>36300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>2900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-268800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>20500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>7600</v>
       </c>
-      <c r="Q27" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R27" s="3" t="s">
         <v>8</v>
       </c>
       <c r="S27" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T27" s="3">
+      <c r="T27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U27" s="3">
         <v>56100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>63500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>41200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>38500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>52400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>40600</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>25300</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>36300</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>53300</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>21600</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>29500</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2421,8 +2479,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2474,27 +2535,27 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U29" s="3">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V29" s="3">
         <v>-1800</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>2500</v>
       </c>
-      <c r="W29" s="3">
-        <v>0</v>
-      </c>
       <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
         <v>-200</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>137000</v>
       </c>
-      <c r="Z29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AA29" s="3" t="s">
         <v>8</v>
       </c>
@@ -2507,8 +2568,11 @@
       <c r="AD29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2593,8 +2657,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2679,180 +2746,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="E32" s="3">
         <v>-500</v>
       </c>
       <c r="F32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G32" s="3">
         <v>400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R32" s="3" t="s">
         <v>8</v>
       </c>
       <c r="S32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T32" s="3">
+      <c r="T32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U32" s="3">
         <v>-1400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>1700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>100</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-700</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-1200</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-1600</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-1900</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>100</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E33" s="3">
         <v>12800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-5900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-15600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-5300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>21500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>16300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>24300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>33000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>36300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>2900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-268800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>20500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>7600</v>
       </c>
-      <c r="Q33" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R33" s="3" t="s">
         <v>8</v>
       </c>
       <c r="S33" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T33" s="3">
+      <c r="T33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U33" s="3">
         <v>56100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>61700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>43700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>38500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>52200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>177600</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>25300</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>36300</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>53300</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>21600</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>29500</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2937,185 +3013,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E35" s="3">
         <v>12800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-5900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-15600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-5300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>21500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>16300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>24300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>33000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>36300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>2900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-268800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>20500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>7600</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R35" s="3" t="s">
         <v>8</v>
       </c>
       <c r="S35" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T35" s="3">
+      <c r="T35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U35" s="3">
         <v>56100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>61700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>43700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>38500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>52200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>177600</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>25300</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>36300</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>53300</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>21600</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>29500</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="R38" s="2" t="s">
         <v>8</v>
       </c>
       <c r="S38" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="T38" s="2">
+      <c r="T38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3146,8 +3231,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3178,47 +3264,48 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>38400</v>
+      </c>
+      <c r="E41" s="3">
         <v>44300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>27700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>37800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>28200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>13500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>22800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>14800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>48000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>61100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>76100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>432900</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P41" s="3" t="s">
         <v>8</v>
       </c>
@@ -3231,41 +3318,44 @@
       <c r="S41" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T41" s="3">
+      <c r="T41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U41" s="3">
         <v>124200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>15300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>35000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>94300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>189400</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>51000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>126300</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>260300</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>348500</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>308600</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>319500</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3350,47 +3440,50 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>40400</v>
+      </c>
+      <c r="E43" s="3">
         <v>34100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>43900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>45800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>47800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>29600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>33000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>33900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>28400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>28700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>35100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>37700</v>
       </c>
-      <c r="O43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P43" s="3" t="s">
         <v>8</v>
       </c>
@@ -3403,59 +3496,62 @@
       <c r="S43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T43" s="3">
+      <c r="T43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U43" s="3">
         <v>84000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>98200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>92300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>84300</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>81400</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>99900</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>92200</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>84800</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>93700</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>95800</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>86800</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>92900</v>
+      </c>
+      <c r="E44" s="3">
         <v>86300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>96000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>96500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>106300</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I44" s="3" t="s">
         <v>8</v>
       </c>
@@ -3471,8 +3567,8 @@
       <c r="M44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N44" s="3">
-        <v>0</v>
+      <c r="N44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O44" s="3">
         <v>0</v>
@@ -3522,47 +3618,50 @@
       <c r="AD44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>65300</v>
+      </c>
+      <c r="E45" s="3">
         <v>56200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>58800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>65600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>59200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>61000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>61200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>60300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>61700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>66600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>70100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>55900</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P45" s="3" t="s">
         <v>8</v>
       </c>
@@ -3575,41 +3674,44 @@
       <c r="S45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T45" s="3">
+      <c r="T45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U45" s="3">
         <v>51500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>58700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>71400</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>72500</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>71400</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>68200</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>87000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>85800</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>75500</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>109100</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>72000</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3694,8 +3796,11 @@
       <c r="AD46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3748,79 +3853,82 @@
         <v>0</v>
       </c>
       <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3">
         <v>86000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>105300</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>107800</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>125500</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>134000</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>206500</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>130500</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>118600</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>113700</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>117200</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>118100</v>
       </c>
     </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1367700</v>
+      </c>
+      <c r="E48" s="3">
         <v>1388800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1421200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1437200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1470400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1288100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1281200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1246900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1183700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1143500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1135700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1104800</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P48" s="3" t="s">
         <v>8</v>
       </c>
@@ -3833,80 +3941,83 @@
       <c r="S48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T48" s="3">
+      <c r="T48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U48" s="3">
         <v>1900200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1548000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1413100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1344400</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1339500</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>1359800</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>1253700</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>1195100</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>1189000</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>1210700</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>1171100</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>169000</v>
+      </c>
+      <c r="E49" s="3">
         <v>171600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>173200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>172900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>185500</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>17300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>18200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>18800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>14300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>15900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>16700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>12100</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P49" s="3" t="s">
         <v>8</v>
       </c>
@@ -3919,41 +4030,44 @@
       <c r="S49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T49" s="3">
+      <c r="T49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U49" s="3">
         <v>951100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>961800</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>934300</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>851200</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>857000</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>858500</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>863200</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>763000</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>767300</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>774400</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>783800</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4038,8 +4152,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4124,47 +4241,50 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>24800</v>
+      </c>
+      <c r="E52" s="3">
         <v>24300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>18100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>12500</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>12100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>9900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>9500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>14400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>14500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>15900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>16000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>15200</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>8</v>
       </c>
@@ -4177,41 +4297,44 @@
       <c r="S52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T52" s="3">
+      <c r="T52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U52" s="3">
         <v>17700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>15400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>17200</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>17300</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>17400</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>21700</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>17800</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>18000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>14700</v>
       </c>
-      <c r="AC52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AD52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4296,47 +4419,50 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1819200</v>
+      </c>
+      <c r="E54" s="3">
         <v>1826100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1858500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1887800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1931800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1446400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1441300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1416400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1363500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1335600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1353500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1676700</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>8</v>
       </c>
@@ -4349,41 +4475,44 @@
       <c r="S54" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T54" s="3">
+      <c r="T54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U54" s="3">
         <v>3238000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2826700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2698900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>2619000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>2719000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>2692300</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>2595000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>2548100</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>2624500</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>2615700</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>2551400</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4414,8 +4543,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4446,47 +4576,48 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>108300</v>
+      </c>
+      <c r="E57" s="3">
         <v>96100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>107000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>91300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>79300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>83900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>83100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>76900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>64000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>32800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>84600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>72200</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P57" s="3" t="s">
         <v>8</v>
       </c>
@@ -4499,41 +4630,44 @@
       <c r="S57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T57" s="3">
+      <c r="T57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U57" s="3">
         <v>71800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>88400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>98500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>62300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>68400</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>80800</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>90400</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>54700</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>52100</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>297800</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>263700</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4541,17 +4675,17 @@
         <v>4400</v>
       </c>
       <c r="E58" s="3">
+        <v>4400</v>
+      </c>
+      <c r="F58" s="3">
         <v>23500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>19100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>26900</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I58" s="3" t="s">
         <v>8</v>
       </c>
@@ -4564,8 +4698,8 @@
       <c r="L58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
+      <c r="M58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
@@ -4618,47 +4752,50 @@
       <c r="AD58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>665700</v>
+      </c>
+      <c r="E59" s="3">
         <v>657300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>755100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>757200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>759300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>572700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>572600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>562900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>512200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>512100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>507500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>593600</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>8</v>
       </c>
@@ -4671,41 +4808,44 @@
       <c r="S59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T59" s="3">
+      <c r="T59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U59" s="3">
         <v>665200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>285400</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>291500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>281300</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>294700</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>292000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>298800</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>290200</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>288200</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>62400</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>62900</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4790,47 +4930,50 @@
       <c r="AD60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>181700</v>
+      </c>
+      <c r="E61" s="3">
         <v>217700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>219000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>254800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>283400</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
         <v>10000</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>285100</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -4844,49 +4987,52 @@
         <v>0</v>
       </c>
       <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
         <v>408300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>424800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>297300</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>272900</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>358500</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>368800</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>372700</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>401100</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>484700</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>497800</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>496200</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>87800</v>
+      </c>
+      <c r="E62" s="3">
         <v>87500</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="F62" s="3" t="s">
         <v>8</v>
       </c>
@@ -4902,8 +5048,8 @@
       <c r="J62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
@@ -4930,40 +5076,43 @@
         <v>0</v>
       </c>
       <c r="T62" s="3">
+        <v>0</v>
+      </c>
+      <c r="U62" s="3">
         <v>279200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>267500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>248100</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>257600</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>241100</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>222600</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>259100</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>260000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>268100</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>276100</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>271600</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5048,8 +5197,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5134,8 +5286,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5220,47 +5375,50 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1108600</v>
+      </c>
+      <c r="E66" s="3">
         <v>1122200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1163100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1184100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1211300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>715500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>723100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>694900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>630000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>596200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>642100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>950900</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>8</v>
       </c>
@@ -5273,41 +5431,44 @@
       <c r="S66" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T66" s="3">
+      <c r="T66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U66" s="3">
         <v>1424500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1066000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>935400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>874100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>962800</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>964300</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1021000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>1006100</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>1124300</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>1134100</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>1094300</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5338,8 +5499,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5424,8 +5586,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5510,8 +5675,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5596,8 +5764,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5682,44 +5853,47 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>90500</v>
+      </c>
+      <c r="E72" s="3">
         <v>87900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>79100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>88500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>107600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>116500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>98500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>85400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>64300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>34700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>1900</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>8</v>
       </c>
@@ -5735,41 +5909,44 @@
       <c r="S72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T72" s="3">
+      <c r="T72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U72" s="3">
         <v>2061700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>2005300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>1946000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1904300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>1867900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>1819500</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>1644100</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>1620700</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>1586300</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>1535000</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>1515300</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5854,8 +6031,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5940,8 +6120,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6026,47 +6209,50 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>710600</v>
+      </c>
+      <c r="E76" s="3">
         <v>703900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>695400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>703700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>720500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>730900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>718200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>721500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>733500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>739400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>711300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>725900</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P76" s="3" t="s">
         <v>8</v>
       </c>
@@ -6079,41 +6265,44 @@
       <c r="S76" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T76" s="3">
+      <c r="T76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U76" s="3">
         <v>1813500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1760700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1763500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1744800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1756200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>1728000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>1574000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>1542100</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>1500200</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>1481600</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>1457100</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6198,185 +6387,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="R80" s="2" t="s">
         <v>8</v>
       </c>
       <c r="S80" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="T80" s="2">
+      <c r="T80" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E81" s="3">
         <v>12800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-5900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-15600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-5300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>21500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>16300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>24300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>33000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>36300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>2900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-268800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>20500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>7600</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R81" s="3" t="s">
         <v>8</v>
       </c>
       <c r="S81" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T81" s="3">
+      <c r="T81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U81" s="3">
         <v>56100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>61700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>43700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>38500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>52200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>177600</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>25300</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>36300</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>53300</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>21600</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>29500</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6407,94 +6605,98 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>137800</v>
+      </c>
+      <c r="E83" s="3">
         <v>145900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>144600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>146600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>148000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>152900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>144400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>145300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>147900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>156300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>137600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>433700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>145400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>456500</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R83" s="3" t="s">
         <v>8</v>
       </c>
       <c r="S83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T83" s="3">
+      <c r="T83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U83" s="3">
         <v>527400</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>463300</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>458700</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>437900</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>462100</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>397000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>386500</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>365100</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>382600</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>337700</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>337800</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6579,8 +6781,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6665,8 +6870,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6751,8 +6959,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6837,8 +7048,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6923,94 +7137,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>53400</v>
+      </c>
+      <c r="E89" s="3">
         <v>61000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>46600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>66800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>28000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>29100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>45600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>30200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>40000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>20200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>18500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>337200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>22300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>163700</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R89" s="3" t="s">
         <v>8</v>
       </c>
       <c r="S89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T89" s="3">
+      <c r="T89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U89" s="3">
         <v>164700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-6500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>96200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>70200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>196600</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-21100</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>64700</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>11400</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>104200</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>5400</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>136300</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7041,94 +7261,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-21400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-20200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-24300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-26000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-32600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-25100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-25200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-21600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-18800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-27000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-23300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-45700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-21200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-58700</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R91" s="3" t="s">
         <v>8</v>
       </c>
       <c r="S91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T91" s="3">
+      <c r="T91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U91" s="3">
         <v>-23800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-25900</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-20100</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-15500</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-17300</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-15900</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-15300</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-14300</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-12500</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-23100</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-29900</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7213,8 +7437,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7299,94 +7526,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-18600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-18100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-19800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-17300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-297200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-17100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-23800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-24300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-13800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-23400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-30600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-44400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-11400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-64800</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R94" s="3" t="s">
         <v>8</v>
       </c>
       <c r="S94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T94" s="3">
+      <c r="T94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U94" s="3">
         <v>-26000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-70800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-148800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-25600</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-18000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-19600</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-160100</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-15000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-10700</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-16100</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-24900</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7417,16 +7650,17 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E96" s="3">
         <v>-3400</v>
-      </c>
-      <c r="E96" s="3">
-        <v>-3500</v>
       </c>
       <c r="F96" s="3">
         <v>-3500</v>
@@ -7435,23 +7669,23 @@
         <v>-3500</v>
       </c>
       <c r="H96" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="I96" s="3">
         <v>-3100</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-3200</v>
       </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-3300</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-3400</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
         <v>0</v>
       </c>
@@ -7471,40 +7705,43 @@
         <v>0</v>
       </c>
       <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
         <v>-2400</v>
-      </c>
-      <c r="U96" s="3">
-        <v>-2100</v>
       </c>
       <c r="V96" s="3">
         <v>-2100</v>
       </c>
       <c r="W96" s="3">
-        <v>0</v>
+        <v>-2100</v>
       </c>
       <c r="X96" s="3">
-        <v>-2100</v>
+        <v>0</v>
       </c>
       <c r="Y96" s="3">
         <v>-2100</v>
       </c>
       <c r="Z96" s="3">
-        <v>-1900</v>
+        <v>-2100</v>
       </c>
       <c r="AA96" s="3">
         <v>-1900</v>
       </c>
       <c r="AB96" s="3">
-        <v>-2000</v>
+        <v>-1900</v>
       </c>
       <c r="AC96" s="3">
         <v>-2000</v>
       </c>
       <c r="AD96" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="AE96" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7589,8 +7826,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7675,8 +7915,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7761,94 +8004,100 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-40700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-26300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-36800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-39900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>283900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-21300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-13800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-39000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-39300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-11800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-344700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>91300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-106500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>33400</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R100" s="3" t="s">
         <v>8</v>
       </c>
       <c r="S100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T100" s="3">
+      <c r="T100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U100" s="3">
         <v>-29900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>57700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-6800</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-139700</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-40200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-34500</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-38700</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-84700</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-53600</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>100</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-34000</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7859,11 +8108,11 @@
         <v>0</v>
       </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>-100</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
         <v>0</v>
       </c>
@@ -7880,41 +8129,41 @@
         <v>0</v>
       </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>100</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
       <c r="O101" s="3">
         <v>0</v>
       </c>
       <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
         <v>100</v>
       </c>
-      <c r="Q101" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R101" s="3" t="s">
         <v>8</v>
       </c>
       <c r="S101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T101" s="3">
+      <c r="T101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U101" s="3">
         <v>100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-200</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>100</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-100</v>
       </c>
-      <c r="X101" s="3">
-        <v>0</v>
-      </c>
       <c r="Y101" s="3">
         <v>0</v>
       </c>
@@ -7928,95 +8177,101 @@
         <v>0</v>
       </c>
       <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD101" s="3">
         <v>100</v>
       </c>
-      <c r="AD101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="E102" s="3">
         <v>16600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-10100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>9500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>14700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-9300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>8000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-33100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-13100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-15100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-356700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>384100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-95600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>132300</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="R102" s="3" t="s">
         <v>8</v>
       </c>
       <c r="S102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T102" s="3">
+      <c r="T102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U102" s="3">
         <v>108900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-19700</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-59300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-95100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>138400</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-75200</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-134100</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-88200</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>39900</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-10900</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>77200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AAN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AAN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="92">
   <si>
     <t>AAN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,394 +665,407 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="S7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="T7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="U7" s="2">
+      <c r="U7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>525700</v>
+      </c>
+      <c r="E8" s="3">
         <v>530400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>554400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>589600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>593400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>610400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>456100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>444800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>452200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>467500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>481100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>430800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1305500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>442300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1349800</v>
       </c>
-      <c r="R8" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S8" s="3" t="s">
         <v>8</v>
       </c>
       <c r="T8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U8" s="3">
+      <c r="U8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V8" s="3">
         <v>1012100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>993200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>953100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>927900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>954800</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>884600</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>838900</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>815600</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>844600</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>795000</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AF8" s="3">
         <v>769000</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>253800</v>
+      </c>
+      <c r="E9" s="3">
         <v>248100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>258700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>303700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>295600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>317200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>171100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>167700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>167500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>172800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>178000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>157400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>494000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>163800</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>508700</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="T9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U9" s="3">
+      <c r="U9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V9" s="3">
         <v>37800</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>49000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>40100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>51200</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>53700</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>70600</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>55100</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>65800</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>67500</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>84500</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AF9" s="3">
         <v>64400</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>271900</v>
+      </c>
+      <c r="E10" s="3">
         <v>282300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>295700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>285900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>297800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>293200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>285000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>277100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>284700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>294700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>303100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>273400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>811500</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>278500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>841100</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S10" s="3" t="s">
         <v>8</v>
       </c>
       <c r="T10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U10" s="3">
+      <c r="U10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V10" s="3">
         <v>974300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>944200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>913000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>876700</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>901100</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>814000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>783800</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>749800</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>777100</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>710500</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AF10" s="3">
         <v>704600</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1084,8 +1097,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1173,8 +1187,11 @@
       <c r="AE12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1262,97 +1279,103 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E14" s="3">
         <v>5400</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>7300</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>10500</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>29700</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>13800</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>7300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>1800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>3300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>2900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>7800</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>21100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>480200</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>2500</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>33000</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U14" s="3">
+      <c r="U14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V14" s="3">
         <v>13300</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>1800</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>500</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>19200</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>900</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>3400</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>2800</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>13400</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>300</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>15600</v>
       </c>
-      <c r="AE14" s="3">
+      <c r="AF14" s="3">
         <v>4700</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1363,85 +1386,88 @@
         <v>2600</v>
       </c>
       <c r="F15" s="3">
+        <v>2600</v>
+      </c>
+      <c r="G15" s="3">
         <v>2700</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>3000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>2900</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>800</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>1000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>1200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>1600</v>
-      </c>
-      <c r="M15" s="3">
-        <v>1700</v>
       </c>
       <c r="N15" s="3">
         <v>1700</v>
       </c>
       <c r="O15" s="3">
+        <v>1700</v>
+      </c>
+      <c r="P15" s="3">
         <v>5100</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>2200</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>11100</v>
       </c>
-      <c r="R15" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S15" s="3" t="s">
         <v>8</v>
       </c>
       <c r="T15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U15" s="3">
+      <c r="U15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V15" s="3">
         <v>510800</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>447100</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>443400</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>415400</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>440000</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>375700</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>365600</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AC15" s="3">
         <v>345400</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AD15" s="3">
         <v>362000</v>
       </c>
-      <c r="AD15" s="3">
+      <c r="AE15" s="3">
         <v>316900</v>
       </c>
-      <c r="AE15" s="3">
+      <c r="AF15" s="3">
         <v>317100</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1470,186 +1496,193 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>529200</v>
+      </c>
+      <c r="E17" s="3">
         <v>519100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>541700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>595800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>610400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>619800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>425900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>424900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>418900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>423400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>432500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>427900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1698600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>412300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1332500</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S17" s="3" t="s">
         <v>8</v>
       </c>
       <c r="T17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U17" s="3">
+      <c r="U17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V17" s="3">
         <v>938200</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>904900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>895800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>874000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>884700</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>820100</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>796200</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>754600</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>758100</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>757200</v>
       </c>
-      <c r="AE17" s="3">
+      <c r="AF17" s="3">
         <v>718200</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E18" s="3">
         <v>11300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>12700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-6200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-17000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-9400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>30200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>19900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>33300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>44100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>48600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-393100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>30000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>17300</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S18" s="3" t="s">
         <v>8</v>
       </c>
       <c r="T18" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U18" s="3">
+      <c r="U18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V18" s="3">
         <v>73900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>88300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>57300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>53900</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>70100</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>64500</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>42700</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>61000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>86500</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>37800</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AF18" s="3">
         <v>50800</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1681,453 +1714,469 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E20" s="3">
         <v>600</v>
-      </c>
-      <c r="E20" s="3">
-        <v>500</v>
       </c>
       <c r="F20" s="3">
         <v>500</v>
       </c>
       <c r="G20" s="3">
+        <v>500</v>
+      </c>
+      <c r="H20" s="3">
         <v>-400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>2900</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S20" s="3" t="s">
         <v>8</v>
       </c>
       <c r="T20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U20" s="3">
+      <c r="U20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V20" s="3">
         <v>1400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-1700</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-100</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>1000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>700</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>1200</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>1600</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>1900</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>-100</v>
       </c>
-      <c r="AE20" s="3">
+      <c r="AF20" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>130900</v>
+      </c>
+      <c r="E21" s="3">
         <v>149700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>159100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>138900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>129200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>137000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>182100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>164800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>178400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>192700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>205300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>141900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>41500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>176500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>476700</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S21" s="3" t="s">
         <v>8</v>
       </c>
       <c r="T21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U21" s="3">
+      <c r="U21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V21" s="3">
         <v>602600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>549900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>515900</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>491700</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>533200</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>462200</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>430500</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>427600</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>471100</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>375400</v>
       </c>
-      <c r="AE21" s="3">
+      <c r="AF21" s="3">
         <v>388800</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E22" s="3">
         <v>3900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>4400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>3900</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>3200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>2500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>400</v>
-      </c>
-      <c r="J22" s="3">
-        <v>300</v>
       </c>
       <c r="K22" s="3">
         <v>300</v>
       </c>
       <c r="L22" s="3">
+        <v>300</v>
+      </c>
+      <c r="M22" s="3">
         <v>500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>1400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>8600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>3700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>13200</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S22" s="3" t="s">
         <v>8</v>
       </c>
       <c r="T22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U22" s="3">
+      <c r="U22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V22" s="3">
         <v>5000</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>4600</v>
       </c>
-      <c r="W22" s="3">
+      <c r="X22" s="3">
         <v>3700</v>
       </c>
-      <c r="X22" s="3">
+      <c r="Y22" s="3">
         <v>3800</v>
       </c>
-      <c r="Y22" s="3">
+      <c r="Z22" s="3">
         <v>4300</v>
       </c>
-      <c r="Z22" s="3">
+      <c r="AA22" s="3">
         <v>4500</v>
       </c>
-      <c r="AA22" s="3">
+      <c r="AB22" s="3">
         <v>4700</v>
       </c>
-      <c r="AB22" s="3">
+      <c r="AC22" s="3">
         <v>5600</v>
       </c>
-      <c r="AC22" s="3">
+      <c r="AD22" s="3">
         <v>5800</v>
       </c>
-      <c r="AD22" s="3">
+      <c r="AE22" s="3">
         <v>5400</v>
       </c>
-      <c r="AE22" s="3">
+      <c r="AF22" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="E23" s="3">
         <v>8000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>8900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-9600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-20600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-13500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>28900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>20100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>32800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>44300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>48600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-400800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>27400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>6900</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S23" s="3" t="s">
         <v>8</v>
       </c>
       <c r="T23" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U23" s="3">
+      <c r="U23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V23" s="3">
         <v>70300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>82100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>53400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>50000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>66800</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>60700</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>39200</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>57000</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>82600</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>32300</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AF23" s="3">
         <v>45300</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E24" s="3">
         <v>1500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-3900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-3800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-4900</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-8100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>7400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>3800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>8500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>11400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>12300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-132000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>6900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-700</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S24" s="3" t="s">
         <v>8</v>
       </c>
       <c r="T24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U24" s="3">
+      <c r="U24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V24" s="3">
         <v>14200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>18500</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>12200</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>11500</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>14300</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>20200</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>13900</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>20700</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>29300</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>10700</v>
       </c>
-      <c r="AE24" s="3">
+      <c r="AF24" s="3">
         <v>15800</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2215,186 +2264,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E26" s="3">
         <v>6500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>12800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-5900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-15600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-5300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>21500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>16300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>24300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>33000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>36300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-268800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>20500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>7600</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S26" s="3" t="s">
         <v>8</v>
       </c>
       <c r="T26" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U26" s="3">
+      <c r="U26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V26" s="3">
         <v>56100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>63500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>41200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>38500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>52400</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>40600</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>25300</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>36300</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>53300</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>21600</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AF26" s="3">
         <v>29500</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E27" s="3">
         <v>6500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>12800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-5900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-15600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-5300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>21500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>16300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>24300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>33000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>36300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>2900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-268800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>20500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>7600</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S27" s="3" t="s">
         <v>8</v>
       </c>
       <c r="T27" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U27" s="3">
+      <c r="U27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V27" s="3">
         <v>56100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>63500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>41200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>38500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>52400</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>40600</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>25300</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>36300</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>53300</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>21600</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AF27" s="3">
         <v>29500</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2482,8 +2540,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2538,27 +2599,27 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-      <c r="U29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V29" s="3">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W29" s="3">
         <v>-1800</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>2500</v>
       </c>
-      <c r="X29" s="3">
-        <v>0</v>
-      </c>
       <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
         <v>-200</v>
       </c>
-      <c r="Z29" s="3">
+      <c r="AA29" s="3">
         <v>137000</v>
       </c>
-      <c r="AA29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AB29" s="3" t="s">
         <v>8</v>
       </c>
@@ -2571,8 +2632,11 @@
       <c r="AE29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2660,8 +2724,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2749,186 +2816,195 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-600</v>
-      </c>
-      <c r="E32" s="3">
-        <v>-500</v>
       </c>
       <c r="F32" s="3">
         <v>-500</v>
       </c>
       <c r="G32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H32" s="3">
         <v>400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-2900</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S32" s="3" t="s">
         <v>8</v>
       </c>
       <c r="T32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U32" s="3">
+      <c r="U32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V32" s="3">
         <v>-1400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>1700</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>100</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-1000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-700</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-1200</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-1600</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-1900</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>100</v>
       </c>
-      <c r="AE32" s="3">
+      <c r="AF32" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E33" s="3">
         <v>6500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>12800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-5900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-15600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-5300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>21500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>16300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>24300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>33000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>36300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>2900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-268800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>20500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>7600</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S33" s="3" t="s">
         <v>8</v>
       </c>
       <c r="T33" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U33" s="3">
+      <c r="U33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V33" s="3">
         <v>56100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>61700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>43700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>38500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>52200</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>177600</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>25300</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>36300</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>53300</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>21600</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AF33" s="3">
         <v>29500</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3016,191 +3092,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E35" s="3">
         <v>6500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>12800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-5900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-15600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-5300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>21500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>16300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>24300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>33000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>36300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>2900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-268800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>20500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>7600</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S35" s="3" t="s">
         <v>8</v>
       </c>
       <c r="T35" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U35" s="3">
+      <c r="U35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V35" s="3">
         <v>56100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>61700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>43700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>38500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>52200</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>177600</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>25300</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>36300</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>53300</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>21600</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AF35" s="3">
         <v>29500</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="S38" s="2" t="s">
         <v>8</v>
       </c>
       <c r="T38" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="U38" s="2">
+      <c r="U38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3232,8 +3317,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3265,50 +3351,51 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>39300</v>
+      </c>
+      <c r="E41" s="3">
         <v>38400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>44300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>27700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>37800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>28200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>13500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>22800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>14800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>48000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>61100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>76100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>432900</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q41" s="3" t="s">
         <v>8</v>
       </c>
@@ -3321,41 +3408,44 @@
       <c r="T41" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U41" s="3">
+      <c r="U41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V41" s="3">
         <v>124200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>15300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>35000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>94300</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>189400</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>51000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>126300</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>260300</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>348500</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>308600</v>
       </c>
-      <c r="AE41" s="3">
+      <c r="AF41" s="3">
         <v>319500</v>
       </c>
     </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3443,50 +3533,53 @@
       <c r="AE42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>34600</v>
+      </c>
+      <c r="E43" s="3">
         <v>40400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>34100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>43900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>45800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>47800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>29600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>33000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>33900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>28400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>28700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>35100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>37700</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q43" s="3" t="s">
         <v>8</v>
       </c>
@@ -3499,62 +3592,65 @@
       <c r="T43" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U43" s="3">
+      <c r="U43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V43" s="3">
         <v>84000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>98200</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>92300</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>84300</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>81400</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>99900</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>92200</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>84800</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>93700</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>95800</v>
       </c>
-      <c r="AE43" s="3">
+      <c r="AF43" s="3">
         <v>86800</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>99400</v>
+      </c>
+      <c r="E44" s="3">
         <v>92900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>86300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>96000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>96500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>106300</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J44" s="3" t="s">
         <v>8</v>
       </c>
@@ -3570,8 +3666,8 @@
       <c r="N44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O44" s="3">
-        <v>0</v>
+      <c r="O44" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P44" s="3">
         <v>0</v>
@@ -3621,50 +3717,53 @@
       <c r="AE44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>64800</v>
+      </c>
+      <c r="E45" s="3">
         <v>65300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>56200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>58800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>65600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>59200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>61000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>61200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>60300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>61700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>66600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>70100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>55900</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q45" s="3" t="s">
         <v>8</v>
       </c>
@@ -3677,41 +3776,44 @@
       <c r="T45" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U45" s="3">
+      <c r="U45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V45" s="3">
         <v>51500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>58700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>71400</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>72500</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>71400</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>68200</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>87000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>85800</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>75500</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>109100</v>
       </c>
-      <c r="AE45" s="3">
+      <c r="AF45" s="3">
         <v>72000</v>
       </c>
     </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3799,8 +3901,11 @@
       <c r="AE46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3856,82 +3961,85 @@
         <v>0</v>
       </c>
       <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
         <v>86000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>105300</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>107800</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>125500</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>134000</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>206500</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>130500</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>118600</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AD47" s="3">
         <v>113700</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AE47" s="3">
         <v>117200</v>
       </c>
-      <c r="AE47" s="3">
+      <c r="AF47" s="3">
         <v>118100</v>
       </c>
     </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1337500</v>
+      </c>
+      <c r="E48" s="3">
         <v>1367700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1388800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1421200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1437200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1470400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1288100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1281200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1246900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1183700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1143500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1135700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1104800</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q48" s="3" t="s">
         <v>8</v>
       </c>
@@ -3944,83 +4052,86 @@
       <c r="T48" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U48" s="3">
+      <c r="U48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V48" s="3">
         <v>1900200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1548000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1413100</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1344400</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>1339500</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>1359800</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>1253700</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>1195100</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>1189000</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>1210700</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AF48" s="3">
         <v>1171100</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>166400</v>
+      </c>
+      <c r="E49" s="3">
         <v>169000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>171600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>173200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>172900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>185500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>17300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>18200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>18800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>14300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>15900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>16700</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>12100</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q49" s="3" t="s">
         <v>8</v>
       </c>
@@ -4033,41 +4144,44 @@
       <c r="T49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U49" s="3">
+      <c r="U49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V49" s="3">
         <v>951100</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>961800</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>934300</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>851200</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>857000</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>858500</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>863200</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>763000</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>767300</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>774400</v>
       </c>
-      <c r="AE49" s="3">
+      <c r="AF49" s="3">
         <v>783800</v>
       </c>
     </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4155,8 +4269,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4244,50 +4361,53 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>25700</v>
+      </c>
+      <c r="E52" s="3">
         <v>24800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>24300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>18100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>12500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>12100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>9900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>9500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>14400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>14500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>15900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>16000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>15200</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q52" s="3" t="s">
         <v>8</v>
       </c>
@@ -4300,41 +4420,44 @@
       <c r="T52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U52" s="3">
+      <c r="U52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V52" s="3">
         <v>17700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>15400</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>17200</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>17300</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>17400</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>21700</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>17800</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>18000</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>14700</v>
       </c>
-      <c r="AD52" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="AE52" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF52" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4422,50 +4545,53 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1789900</v>
+      </c>
+      <c r="E54" s="3">
         <v>1819200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1826100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1858500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1887800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1931800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1446400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1441300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1416400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1363500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1335600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1353500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1676700</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>8</v>
       </c>
@@ -4478,41 +4604,44 @@
       <c r="T54" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U54" s="3">
+      <c r="U54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V54" s="3">
         <v>3238000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2826700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>2698900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>2619000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>2719000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>2692300</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>2595000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>2548100</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>2624500</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>2615700</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AF54" s="3">
         <v>2551400</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4544,8 +4673,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4577,50 +4707,51 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>107100</v>
+      </c>
+      <c r="E57" s="3">
         <v>108300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>96100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>107000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>91300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>79300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>83900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>83100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>76900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>64000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>32800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>84600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>72200</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q57" s="3" t="s">
         <v>8</v>
       </c>
@@ -4633,62 +4764,65 @@
       <c r="T57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U57" s="3">
+      <c r="U57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V57" s="3">
         <v>71800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>88400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>98500</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>62300</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>68400</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>80800</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>90400</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>54700</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>52100</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>297800</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AF57" s="3">
         <v>263700</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4400</v>
+        <v>21800</v>
       </c>
       <c r="E58" s="3">
         <v>4400</v>
       </c>
       <c r="F58" s="3">
+        <v>4400</v>
+      </c>
+      <c r="G58" s="3">
         <v>23500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>19100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>26900</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>8</v>
       </c>
@@ -4701,8 +4835,8 @@
       <c r="M58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
+      <c r="N58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
@@ -4755,50 +4889,53 @@
       <c r="AE58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>650300</v>
+      </c>
+      <c r="E59" s="3">
         <v>665700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>657300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>755100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>757200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>759300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>572700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>572600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>562900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>512200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>512100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>507500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>593600</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>8</v>
       </c>
@@ -4811,41 +4948,44 @@
       <c r="T59" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U59" s="3">
+      <c r="U59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V59" s="3">
         <v>665200</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>285400</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>291500</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>281300</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>294700</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>292000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>298800</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>290200</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>288200</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>62400</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AF59" s="3">
         <v>62900</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4933,50 +5073,53 @@
       <c r="AE60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>165600</v>
+      </c>
+      <c r="E61" s="3">
         <v>181700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>217700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>219000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>254800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>283400</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>10000</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>285100</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
@@ -4990,52 +5133,55 @@
         <v>0</v>
       </c>
       <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
         <v>408300</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>424800</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>297300</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>272900</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>358500</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>368800</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>372700</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>401100</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>484700</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>497800</v>
       </c>
-      <c r="AE61" s="3">
+      <c r="AF61" s="3">
         <v>496200</v>
       </c>
     </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>83500</v>
+      </c>
+      <c r="E62" s="3">
         <v>87800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>87500</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="G62" s="3" t="s">
         <v>8</v>
       </c>
@@ -5051,8 +5197,8 @@
       <c r="K62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
+      <c r="L62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M62" s="3">
         <v>0</v>
@@ -5079,40 +5225,43 @@
         <v>0</v>
       </c>
       <c r="U62" s="3">
+        <v>0</v>
+      </c>
+      <c r="V62" s="3">
         <v>279200</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>267500</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>248100</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>257600</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>241100</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>222600</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>259100</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>260000</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>268100</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>276100</v>
       </c>
-      <c r="AE62" s="3">
+      <c r="AF62" s="3">
         <v>271600</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5200,8 +5349,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5289,8 +5441,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5378,50 +5533,53 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1089200</v>
+      </c>
+      <c r="E66" s="3">
         <v>1108600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1122200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1163100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1184100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1211300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>715500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>723100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>694900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>630000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>596200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>642100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>950900</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>8</v>
       </c>
@@ -5434,41 +5592,44 @@
       <c r="T66" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U66" s="3">
+      <c r="U66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V66" s="3">
         <v>1424500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1066000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>935400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>874100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>962800</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>964300</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>1021000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>1006100</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>1124300</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>1134100</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AF66" s="3">
         <v>1094300</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5500,8 +5661,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5589,8 +5751,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5678,8 +5843,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5767,8 +5935,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5856,47 +6027,50 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>82500</v>
+      </c>
+      <c r="E72" s="3">
         <v>90500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>87900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>79100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>88500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>107600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>116500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>98500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>85400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>64300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>34700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>1900</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>8</v>
       </c>
@@ -5912,41 +6086,44 @@
       <c r="T72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U72" s="3">
+      <c r="U72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V72" s="3">
         <v>2061700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>2005300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>1946000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>1904300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>1867900</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>1819500</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>1644100</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>1620700</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>1586300</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>1535000</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>1515300</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6034,8 +6211,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6123,8 +6303,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6212,50 +6395,53 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>700700</v>
+      </c>
+      <c r="E76" s="3">
         <v>710600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>703900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>695400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>703700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>720500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>730900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>718200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>721500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>733500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>739400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>711300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>725900</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="Q76" s="3" t="s">
         <v>8</v>
       </c>
@@ -6268,41 +6454,44 @@
       <c r="T76" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U76" s="3">
+      <c r="U76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V76" s="3">
         <v>1813500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1760700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1763500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1744800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>1756200</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>1728000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>1574000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>1542100</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>1500200</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>1481600</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AF76" s="3">
         <v>1457100</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6390,191 +6579,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="S80" s="2" t="s">
         <v>8</v>
       </c>
       <c r="T80" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="U80" s="2">
+      <c r="U80" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E81" s="3">
         <v>6500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>12800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-5900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-15600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-5300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>21500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>16300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>24300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>33000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>36300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>2900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-268800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>20500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>7600</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S81" s="3" t="s">
         <v>8</v>
       </c>
       <c r="T81" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U81" s="3">
+      <c r="U81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V81" s="3">
         <v>56100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>61700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>43700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>38500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>52200</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>177600</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>25300</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>36300</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>53300</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>21600</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AF81" s="3">
         <v>29500</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6606,97 +6804,101 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>134700</v>
+      </c>
+      <c r="E83" s="3">
         <v>137800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>145900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>144600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>146600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>148000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>152900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>144400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>145300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>147900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>156300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>137600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>433700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>145400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>456500</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S83" s="3" t="s">
         <v>8</v>
       </c>
       <c r="T83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U83" s="3">
+      <c r="U83" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V83" s="3">
         <v>527400</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>463300</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>458700</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>437900</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>462100</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>397000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>386500</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>365100</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>382600</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>337700</v>
       </c>
-      <c r="AE83" s="3">
+      <c r="AF83" s="3">
         <v>337800</v>
       </c>
     </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6784,8 +6986,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6873,8 +7078,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6962,8 +7170,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7051,8 +7262,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7140,97 +7354,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>34700</v>
+      </c>
+      <c r="E89" s="3">
         <v>53400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>61000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>46600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>66800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>28000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>29100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>45600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>30200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>40000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>20200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>18500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>337200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>22300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>163700</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S89" s="3" t="s">
         <v>8</v>
       </c>
       <c r="T89" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U89" s="3">
+      <c r="U89" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V89" s="3">
         <v>164700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-6500</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>96200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>70200</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>196600</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-21100</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>64700</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>11400</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>104200</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>5400</v>
       </c>
-      <c r="AE89" s="3">
+      <c r="AF89" s="3">
         <v>136300</v>
       </c>
     </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7262,97 +7482,101 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-27400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-21400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-20200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-24300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-26000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-32600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-25100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-25200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-21600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-18800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-27000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-23300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-45700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-21200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-58700</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S91" s="3" t="s">
         <v>8</v>
       </c>
       <c r="T91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U91" s="3">
+      <c r="U91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V91" s="3">
         <v>-23800</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-25900</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-20100</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-15500</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-17300</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-15900</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-15300</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-14300</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-12500</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-23100</v>
       </c>
-      <c r="AE91" s="3">
+      <c r="AF91" s="3">
         <v>-29900</v>
       </c>
     </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7440,8 +7664,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7529,97 +7756,103 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-25600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-18600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-18100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-19800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-17300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-297200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-17100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-23800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-24300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-13800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-23400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-30600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-44400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-11400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-64800</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S94" s="3" t="s">
         <v>8</v>
       </c>
       <c r="T94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U94" s="3">
+      <c r="U94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V94" s="3">
         <v>-26000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-70800</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-148800</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-25600</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-18000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-19600</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-160100</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-15000</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-10700</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-16100</v>
       </c>
-      <c r="AE94" s="3">
+      <c r="AF94" s="3">
         <v>-24900</v>
       </c>
     </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7651,8 +7884,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7660,10 +7894,10 @@
         <v>-3900</v>
       </c>
       <c r="E96" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="F96" s="3">
         <v>-3400</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-3500</v>
       </c>
       <c r="G96" s="3">
         <v>-3500</v>
@@ -7672,23 +7906,23 @@
         <v>-3500</v>
       </c>
       <c r="I96" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="J96" s="3">
         <v>-3100</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-3200</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-3300</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-3400</v>
       </c>
-      <c r="N96" s="3">
-        <v>0</v>
-      </c>
       <c r="O96" s="3">
         <v>0</v>
       </c>
@@ -7708,40 +7942,43 @@
         <v>0</v>
       </c>
       <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
         <v>-2400</v>
-      </c>
-      <c r="V96" s="3">
-        <v>-2100</v>
       </c>
       <c r="W96" s="3">
         <v>-2100</v>
       </c>
       <c r="X96" s="3">
-        <v>0</v>
+        <v>-2100</v>
       </c>
       <c r="Y96" s="3">
-        <v>-2100</v>
+        <v>0</v>
       </c>
       <c r="Z96" s="3">
         <v>-2100</v>
       </c>
       <c r="AA96" s="3">
-        <v>-1900</v>
+        <v>-2100</v>
       </c>
       <c r="AB96" s="3">
         <v>-1900</v>
       </c>
       <c r="AC96" s="3">
-        <v>-2000</v>
+        <v>-1900</v>
       </c>
       <c r="AD96" s="3">
         <v>-2000</v>
       </c>
       <c r="AE96" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="AF96" s="3">
         <v>-1800</v>
       </c>
     </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7829,8 +8066,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7918,8 +8158,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8007,97 +8250,103 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-40700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-26300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-36800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-39900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>283900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-21300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-13800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-39000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-39300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-11800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-344700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>91300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-106500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>33400</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S100" s="3" t="s">
         <v>8</v>
       </c>
       <c r="T100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U100" s="3">
+      <c r="U100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V100" s="3">
         <v>-29900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>57700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-6800</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-139700</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-40200</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-34500</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-38700</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-84700</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-53600</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>100</v>
       </c>
-      <c r="AE100" s="3">
+      <c r="AF100" s="3">
         <v>-34000</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -8111,11 +8360,11 @@
         <v>0</v>
       </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>-100</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
         <v>0</v>
       </c>
@@ -8132,41 +8381,41 @@
         <v>0</v>
       </c>
       <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
         <v>100</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
       <c r="P101" s="3">
         <v>0</v>
       </c>
       <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
         <v>100</v>
       </c>
-      <c r="R101" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S101" s="3" t="s">
         <v>8</v>
       </c>
       <c r="T101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U101" s="3">
+      <c r="U101" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V101" s="3">
         <v>100</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-200</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>100</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-100</v>
       </c>
-      <c r="Y101" s="3">
-        <v>0</v>
-      </c>
       <c r="Z101" s="3">
         <v>0</v>
       </c>
@@ -8180,98 +8429,104 @@
         <v>0</v>
       </c>
       <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE101" s="3">
         <v>100</v>
       </c>
-      <c r="AE101" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-5900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>16600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-10100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>9500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>14700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-9300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>8000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-33100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-13100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-15100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-356700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>384100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-95600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>132300</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="S102" s="3" t="s">
         <v>8</v>
       </c>
       <c r="T102" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U102" s="3">
+      <c r="U102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V102" s="3">
         <v>108900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-19700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-59300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-95100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>138400</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-75200</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-134100</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-88200</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>39900</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>-10900</v>
       </c>
-      <c r="AE102" s="3">
+      <c r="AF102" s="3">
         <v>77200</v>
       </c>
     </row>
